--- a/data/flight_demand.xlsx
+++ b/data/flight_demand.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wbwad\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8BC3A3E7-D145-4AD4-8544-4E13117F4F8A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA8E5CAA-271D-4274-82FE-590FC0CBEC7E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="5505" yWindow="3180" windowWidth="26430" windowHeight="15600" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -77,7 +77,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="283" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="293" uniqueCount="109">
   <si>
     <t>Yearly Market Share Growth</t>
   </si>
@@ -226,15 +226,9 @@
     <t>Boston</t>
   </si>
   <si>
-    <t>Fort Lauderdale / Holywood</t>
-  </si>
-  <si>
     <t>Miniappolis / Saint Paul</t>
   </si>
   <si>
-    <t>Miniappolis / St. Paul</t>
-  </si>
-  <si>
     <t>LaGuardia</t>
   </si>
   <si>
@@ -392,6 +386,24 @@
   </si>
   <si>
     <t>Formula:</t>
+  </si>
+  <si>
+    <t>Minneapolis / St. Paul</t>
+  </si>
+  <si>
+    <t>Chicago:</t>
+  </si>
+  <si>
+    <t>NY:</t>
+  </si>
+  <si>
+    <t>Miami:</t>
+  </si>
+  <si>
+    <t>Washington:</t>
+  </si>
+  <si>
+    <t>Avg:</t>
   </si>
 </sst>
 </file>
@@ -399,7 +411,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="168" formatCode="#,##0.00000"/>
+    <numFmt numFmtId="164" formatCode="#,##0.00000"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -421,7 +433,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -431,6 +443,30 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -447,16 +483,27 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="168" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="3" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="3" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="3" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="3" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -791,10 +838,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K53"/>
+  <dimension ref="A1:N53"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" zoomScalePageLayoutView="60" workbookViewId="0">
-      <selection activeCell="L32" sqref="L32"/>
+    <sheetView topLeftCell="A7" zoomScaleNormal="100" zoomScalePageLayoutView="60" workbookViewId="0">
+      <selection activeCell="I48" sqref="I48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -802,7 +849,7 @@
     <col min="1" max="1" width="24.140625" customWidth="1"/>
     <col min="2" max="2" width="13.7109375" customWidth="1"/>
     <col min="3" max="3" width="24.140625" customWidth="1"/>
-    <col min="4" max="4" width="18.85546875" customWidth="1"/>
+    <col min="4" max="4" width="19.28515625" customWidth="1"/>
     <col min="5" max="5" width="15.42578125" customWidth="1"/>
     <col min="6" max="6" width="13.28515625" customWidth="1"/>
     <col min="7" max="7" width="8.28515625" customWidth="1"/>
@@ -814,13 +861,13 @@
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B1">
         <v>0.05</v>
       </c>
       <c r="C1" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.2">
@@ -831,7 +878,7 @@
         <v>0.03</v>
       </c>
       <c r="C2" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.2">
@@ -842,7 +889,7 @@
         <v>16</v>
       </c>
       <c r="C3" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.2">
@@ -853,7 +900,7 @@
         <v>270</v>
       </c>
       <c r="C4" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.2">
@@ -864,10 +911,10 @@
         <v>365</v>
       </c>
       <c r="C5" t="s">
+        <v>92</v>
+      </c>
+      <c r="K5" s="6" t="s">
         <v>94</v>
-      </c>
-      <c r="K5" s="6" t="s">
-        <v>96</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.2">
@@ -908,7 +955,7 @@
       <c r="I8" s="1"/>
       <c r="J8" s="1"/>
       <c r="K8" s="1" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.2">
@@ -1002,23 +1049,23 @@
         <v>1407</v>
       </c>
       <c r="K12" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A13" t="s">
+      <c r="A13" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="B13" t="s">
+      <c r="B13" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="C13" t="s">
+      <c r="C13" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="D13" t="s">
+      <c r="D13" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="E13" s="2">
+      <c r="E13" s="12">
         <v>33120474</v>
       </c>
       <c r="F13" s="2">
@@ -1034,12 +1081,12 @@
         <v>1380</v>
       </c>
       <c r="K13" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B14" t="s">
         <v>16</v>
@@ -1067,19 +1114,19 @@
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A15" t="s">
-        <v>77</v>
-      </c>
-      <c r="B15" t="s">
+      <c r="A15" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="B15" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="C15" t="s">
-        <v>100</v>
-      </c>
-      <c r="D15" t="s">
+      <c r="C15" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="D15" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="E15" s="2">
+      <c r="E15" s="9">
         <v>26919982</v>
       </c>
       <c r="F15" s="2">
@@ -1103,7 +1150,7 @@
         <v>16</v>
       </c>
       <c r="C16" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="D16" t="s">
         <v>30</v>
@@ -1124,7 +1171,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>31</v>
       </c>
@@ -1153,20 +1200,20 @@
         <v>1019</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A18" t="s">
+    <row r="18" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A18" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="B18" t="s">
+      <c r="B18" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="C18" t="s">
+      <c r="C18" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="D18" t="s">
+      <c r="D18" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="E18" s="2">
+      <c r="E18" s="10">
         <v>23949892</v>
       </c>
       <c r="F18" s="2">
@@ -1182,7 +1229,7 @@
         <v>997</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>34</v>
       </c>
@@ -1211,7 +1258,7 @@
         <v>962</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>36</v>
       </c>
@@ -1243,7 +1290,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>38</v>
       </c>
@@ -1272,20 +1319,20 @@
         <v>910</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A22" t="s">
+    <row r="22" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A22" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="B22" t="s">
+      <c r="B22" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="C22" t="s">
+      <c r="C22" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="D22" t="s">
+      <c r="D22" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="E22" s="2">
+      <c r="E22" s="9">
         <v>21572147</v>
       </c>
       <c r="F22" s="2">
@@ -1305,15 +1352,15 @@
         <v>7.2191780821917809E-2</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B23" t="s">
         <v>16</v>
       </c>
       <c r="C23" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D23" t="s">
         <v>43</v>
@@ -1335,12 +1382,12 @@
       </c>
       <c r="K23" s="2"/>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>44</v>
       </c>
       <c r="B24" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C24" t="s">
         <v>45</v>
@@ -1364,10 +1411,10 @@
         <v>825</v>
       </c>
       <c r="K24" s="2" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.2">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>46</v>
       </c>
@@ -1396,23 +1443,23 @@
         <v>726</v>
       </c>
       <c r="K25" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A26" t="s">
-        <v>98</v>
-      </c>
-      <c r="B26" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A26" s="8" t="s">
+        <v>96</v>
+      </c>
+      <c r="B26" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="C26" t="s">
-        <v>98</v>
-      </c>
-      <c r="D26" t="s">
+      <c r="C26" s="8" t="s">
+        <v>96</v>
+      </c>
+      <c r="D26" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="E26" s="2">
+      <c r="E26" s="10">
         <v>15370165</v>
       </c>
       <c r="F26" s="2">
@@ -1429,18 +1476,18 @@
       </c>
       <c r="K26" s="2"/>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="B27" t="s">
         <v>16</v>
       </c>
       <c r="C27" t="s">
-        <v>51</v>
+        <v>103</v>
       </c>
       <c r="D27" t="s">
-        <v>51</v>
+        <v>103</v>
       </c>
       <c r="E27" s="2">
         <v>15242089</v>
@@ -1459,20 +1506,20 @@
       </c>
       <c r="K27" s="2"/>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A28" t="s">
-        <v>52</v>
-      </c>
-      <c r="B28" t="s">
+    <row r="28" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A28" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="B28" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="C28" t="s">
-        <v>100</v>
-      </c>
-      <c r="D28" t="s">
+      <c r="C28" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="D28" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="E28" s="2">
+      <c r="E28" s="9">
         <v>14367463</v>
       </c>
       <c r="F28" s="2">
@@ -1489,18 +1536,18 @@
       </c>
       <c r="K28" s="2"/>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B29" t="s">
         <v>16</v>
       </c>
       <c r="C29" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="D29" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="E29" s="2">
         <v>13751197</v>
@@ -1519,18 +1566,18 @@
       </c>
       <c r="K29" s="2"/>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="B30" t="s">
         <v>16</v>
       </c>
       <c r="C30" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="D30" t="s">
-        <v>55</v>
+        <v>82</v>
       </c>
       <c r="E30" s="2">
         <v>12421168</v>
@@ -1549,18 +1596,18 @@
       </c>
       <c r="K30" s="2"/>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B31" t="s">
         <v>16</v>
       </c>
       <c r="C31" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D31" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="E31" s="2">
         <v>12383843</v>
@@ -1577,22 +1624,33 @@
         <f t="shared" si="2"/>
         <v>515</v>
       </c>
-      <c r="K31" s="2"/>
-    </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A32" t="s">
+      <c r="K31" s="13" t="s">
+        <v>104</v>
+      </c>
+      <c r="L31" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="M31" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="N31" s="1" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="32" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A32" s="14" t="s">
+        <v>55</v>
+      </c>
+      <c r="B32" s="14" t="s">
+        <v>56</v>
+      </c>
+      <c r="C32" s="14" t="s">
         <v>57</v>
       </c>
-      <c r="B32" t="s">
+      <c r="D32" s="14" t="s">
         <v>58</v>
       </c>
-      <c r="C32" t="s">
-        <v>59</v>
-      </c>
-      <c r="D32" t="s">
-        <v>60</v>
-      </c>
-      <c r="E32" s="2">
+      <c r="E32" s="15">
         <v>11553850</v>
       </c>
       <c r="F32" s="2">
@@ -1607,20 +1665,31 @@
         <f t="shared" si="2"/>
         <v>481</v>
       </c>
-      <c r="K32" s="2"/>
-    </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="K32" s="12">
+        <v>33120474</v>
+      </c>
+      <c r="L32" s="15">
+        <v>11553850</v>
+      </c>
+      <c r="M32" s="9">
+        <v>26919982</v>
+      </c>
+      <c r="N32" s="10">
+        <v>23949892</v>
+      </c>
+    </row>
+    <row r="33" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B33" t="s">
         <v>16</v>
       </c>
       <c r="C33" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="D33" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="E33" s="2">
         <v>11162224</v>
@@ -1637,22 +1706,33 @@
         <f t="shared" si="2"/>
         <v>465</v>
       </c>
-      <c r="K33" s="2"/>
-    </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A34" t="s">
-        <v>62</v>
-      </c>
-      <c r="B34" t="s">
+      <c r="K33" s="12">
+        <v>9650281</v>
+      </c>
+      <c r="L33" s="15">
+        <v>11151169</v>
+      </c>
+      <c r="M33" s="9">
+        <v>21572147</v>
+      </c>
+      <c r="N33" s="10">
+        <v>15370165</v>
+      </c>
+    </row>
+    <row r="34" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A34" s="14" t="s">
+        <v>60</v>
+      </c>
+      <c r="B34" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="C34" t="s">
-        <v>102</v>
-      </c>
-      <c r="D34" t="s">
-        <v>60</v>
-      </c>
-      <c r="E34" s="2">
+      <c r="C34" s="14" t="s">
+        <v>100</v>
+      </c>
+      <c r="D34" s="14" t="s">
+        <v>58</v>
+      </c>
+      <c r="E34" s="15">
         <v>11151169</v>
       </c>
       <c r="F34" s="2">
@@ -1668,19 +1748,25 @@
         <v>464</v>
       </c>
       <c r="K34" s="2"/>
-    </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L34" s="15">
+        <v>10266324</v>
+      </c>
+      <c r="M34" s="9">
+        <v>14367463</v>
+      </c>
+    </row>
+    <row r="35" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B35" t="s">
         <v>16</v>
       </c>
       <c r="C35" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="D35" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="E35" s="2">
         <v>10539459</v>
@@ -1699,18 +1785,18 @@
       </c>
       <c r="K35" s="2"/>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B36" t="s">
         <v>16</v>
       </c>
       <c r="C36" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="D36" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="E36" s="2">
         <v>10382573</v>
@@ -1727,22 +1813,24 @@
         <f t="shared" si="2"/>
         <v>432</v>
       </c>
-      <c r="K36" s="2"/>
-    </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A37" t="s">
-        <v>67</v>
-      </c>
-      <c r="B37" t="s">
+      <c r="K36" s="2" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="37" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A37" s="14" t="s">
+        <v>65</v>
+      </c>
+      <c r="B37" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="C37" t="s">
-        <v>59</v>
-      </c>
-      <c r="D37" t="s">
-        <v>60</v>
-      </c>
-      <c r="E37" s="2">
+      <c r="C37" s="14" t="s">
+        <v>57</v>
+      </c>
+      <c r="D37" s="14" t="s">
+        <v>58</v>
+      </c>
+      <c r="E37" s="15">
         <v>10266324</v>
       </c>
       <c r="F37" s="2">
@@ -1757,20 +1845,35 @@
         <f t="shared" si="2"/>
         <v>427</v>
       </c>
-      <c r="K37" s="2"/>
-    </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="K37" s="2">
+        <f>SUM(K32,K33)/2</f>
+        <v>21385377.5</v>
+      </c>
+      <c r="L37">
+        <f>SUM(L32,L33,L34)/3</f>
+        <v>10990447.666666666</v>
+      </c>
+      <c r="M37">
+        <f>SUM(M32,M33,M34)/3</f>
+        <v>20953197.333333332</v>
+      </c>
+      <c r="N37">
+        <f>SUM(N32,N33)/2</f>
+        <v>19660028.5</v>
+      </c>
+    </row>
+    <row r="38" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B38" t="s">
         <v>16</v>
       </c>
       <c r="C38" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="D38" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="E38" s="2">
         <v>9829062</v>
@@ -1789,20 +1892,20 @@
       </c>
       <c r="K38" s="2"/>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A39" t="s">
-        <v>69</v>
-      </c>
-      <c r="B39" t="s">
+    <row r="39" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A39" s="11" t="s">
+        <v>67</v>
+      </c>
+      <c r="B39" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="C39" t="s">
+      <c r="C39" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="D39" t="s">
+      <c r="D39" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="E39" s="2">
+      <c r="E39" s="12">
         <v>9650281</v>
       </c>
       <c r="F39" s="2">
@@ -1819,25 +1922,25 @@
       </c>
       <c r="K39" s="2"/>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:14" x14ac:dyDescent="0.2">
       <c r="E40" s="2"/>
       <c r="F40" s="2"/>
       <c r="G40" s="2"/>
       <c r="H40" s="2"/>
       <c r="K40" s="2"/>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B41" t="s">
         <v>16</v>
       </c>
       <c r="C41" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="D41" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="E41" s="2">
         <v>8828395</v>
@@ -1856,25 +1959,25 @@
       </c>
       <c r="K41" s="2"/>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:14" x14ac:dyDescent="0.2">
       <c r="K42" s="2"/>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:14" x14ac:dyDescent="0.2">
       <c r="K43" s="2"/>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:14" x14ac:dyDescent="0.2">
       <c r="K44" s="2"/>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:14" x14ac:dyDescent="0.2">
       <c r="K45" s="2"/>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:14" x14ac:dyDescent="0.2">
       <c r="K46" s="2"/>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:14" x14ac:dyDescent="0.2">
       <c r="K47" s="2"/>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:14" x14ac:dyDescent="0.2">
       <c r="K48" s="2"/>
     </row>
     <row r="49" spans="11:11" x14ac:dyDescent="0.2">
@@ -1904,17 +2007,17 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{122E7D40-AEF8-45B0-9325-3F877811C8A1}">
-  <dimension ref="A1:AI37"/>
+  <dimension ref="A1:AI46"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I38" sqref="I38"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="F40" sqref="F40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="24.85546875" customWidth="1"/>
-    <col min="2" max="2" width="10.140625" customWidth="1"/>
-    <col min="3" max="3" width="10.7109375" customWidth="1"/>
+    <col min="2" max="2" width="12.85546875" customWidth="1"/>
+    <col min="3" max="3" width="13.42578125" customWidth="1"/>
     <col min="4" max="4" width="22.5703125" customWidth="1"/>
     <col min="5" max="5" width="16.5703125" customWidth="1"/>
     <col min="6" max="6" width="15.85546875" customWidth="1"/>
@@ -1950,34 +2053,34 @@
   <sheetData>
     <row r="1" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B1">
         <f>SUM(flight_demand!E10:E39)</f>
         <v>595633871</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="2" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B2">
         <f>SUM(flight_demand!E10:E41)</f>
         <v>604462266</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
     </row>
     <row r="3" spans="1:35" x14ac:dyDescent="0.2">
       <c r="C3" s="5" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="E3" t="s">
         <v>15</v>
@@ -1992,10 +2095,10 @@
         <v>22</v>
       </c>
       <c r="I3" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="J3" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="K3" t="s">
         <v>29</v>
@@ -2019,58 +2122,58 @@
         <v>40</v>
       </c>
       <c r="R3" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="S3" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="T3" t="s">
         <v>46</v>
       </c>
       <c r="U3" t="s">
+        <v>78</v>
+      </c>
+      <c r="V3" t="s">
         <v>80</v>
       </c>
-      <c r="V3" t="s">
+      <c r="W3" t="s">
+        <v>50</v>
+      </c>
+      <c r="X3" t="s">
+        <v>81</v>
+      </c>
+      <c r="Y3" t="s">
         <v>82</v>
       </c>
-      <c r="W3" t="s">
-        <v>52</v>
-      </c>
-      <c r="X3" t="s">
+      <c r="Z3" t="s">
+        <v>54</v>
+      </c>
+      <c r="AA3" t="s">
         <v>83</v>
       </c>
-      <c r="Y3" t="s">
+      <c r="AB3" t="s">
+        <v>59</v>
+      </c>
+      <c r="AC3" t="s">
         <v>84</v>
       </c>
-      <c r="Z3" t="s">
-        <v>56</v>
-      </c>
-      <c r="AA3" t="s">
-        <v>85</v>
-      </c>
-      <c r="AB3" t="s">
-        <v>61</v>
-      </c>
-      <c r="AC3" t="s">
-        <v>86</v>
-      </c>
       <c r="AD3" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="AE3" t="s">
+        <v>63</v>
+      </c>
+      <c r="AF3" t="s">
         <v>65</v>
       </c>
-      <c r="AF3" t="s">
+      <c r="AG3" t="s">
+        <v>66</v>
+      </c>
+      <c r="AH3" t="s">
         <v>67</v>
       </c>
-      <c r="AG3" t="s">
+      <c r="AI3" t="s">
         <v>68</v>
-      </c>
-      <c r="AH3" t="s">
-        <v>69</v>
-      </c>
-      <c r="AI3" t="s">
-        <v>70</v>
       </c>
     </row>
     <row r="4" spans="1:35" x14ac:dyDescent="0.2">
@@ -2081,7 +2184,7 @@
         <v>45396001</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="D4" t="s">
         <v>15</v>
@@ -2089,123 +2192,123 @@
       <c r="E4" s="3"/>
       <c r="F4" s="4">
         <f>B5/SUM(B6:B34)</f>
-        <v>6.8362983570985442E-2</v>
+        <v>6.8362984224186019E-2</v>
       </c>
       <c r="G4" s="4">
         <f>B6/SUM(B5,B7:B34)</f>
-        <v>6.4295295112313189E-2</v>
+        <v>6.4295295724308435E-2</v>
       </c>
       <c r="H4" s="4">
         <f>B7/SUM(B5:B6,B8:B34)</f>
-        <v>6.2973170556278865E-2</v>
+        <v>3.9773363115831663E-2</v>
       </c>
       <c r="I4" s="4">
         <f>B8/SUM(B5:B7,B9:B34)</f>
-        <v>6.1371146184592607E-2</v>
+        <v>6.1371146767149352E-2</v>
       </c>
       <c r="J4" s="4">
         <f>B9/SUM(B5:B8,B10:B34)</f>
-        <v>5.0587559962342162E-2</v>
+        <v>3.8938279779318422E-2</v>
       </c>
       <c r="K4" s="4">
         <f>B10/SUM(B5:B9,B11:B34)</f>
-        <v>4.7753335398668294E-2</v>
+        <v>4.7753335846144017E-2</v>
       </c>
       <c r="L4" s="4">
         <f>B11/SUM(B5:B10,B12:B34)</f>
-        <v>4.5772337707570464E-2</v>
+        <v>4.5772338135672178E-2</v>
       </c>
       <c r="M4" s="4">
         <f>B12/SUM(B5:B11,B13:B34)</f>
-        <v>4.4756417871743948E-2</v>
+        <v>3.6447535889796691E-2</v>
       </c>
       <c r="N4" s="4">
         <f>B13/SUM(B5:B12,B14:B34)</f>
-        <v>4.3100311416229574E-2</v>
+        <v>4.3100311818310255E-2</v>
       </c>
       <c r="O4" s="4">
         <f>B14/SUM(B5:B13,B15:B34)</f>
-        <v>4.1269352232507342E-2</v>
+        <v>4.1269352616831297E-2</v>
       </c>
       <c r="P4" s="4">
         <f>B15/SUM(B5:B14,B16:B34)</f>
-        <v>4.0677642536350977E-2</v>
+        <v>4.0677642914949332E-2</v>
       </c>
       <c r="Q4" s="4">
         <f>B16/SUM(B5:B15,B17:B34)</f>
-        <v>4.0134666180663206E-2</v>
+        <v>3.8938279779318422E-2</v>
       </c>
       <c r="R4" s="4">
         <f>B17/SUM(B5:B16,B18:B34)</f>
-        <v>3.789331923673684E-2</v>
+        <v>3.7893319588477102E-2</v>
       </c>
       <c r="S4" s="4">
         <f>B18/SUM(B5:B17,B19:B34)</f>
-        <v>3.6743571045854941E-2</v>
+        <v>3.6743571386544979E-2</v>
       </c>
       <c r="T4" s="4">
         <f>B19/SUM(B5:B18,B20:B34)</f>
-        <v>3.2206518972282702E-2</v>
+        <v>3.2206519269597902E-2</v>
       </c>
       <c r="U4" s="4">
         <f>B20/SUM(B5:B19,B21:B34)</f>
-        <v>2.8269772396748844E-2</v>
+        <v>3.6447535889796691E-2</v>
       </c>
       <c r="V4" s="4">
         <f>B21/SUM(B5:B20,B22:B34)</f>
-        <v>2.8027604642571095E-2</v>
+        <v>2.8027604900261044E-2</v>
       </c>
       <c r="W4" s="4">
         <f>B22/SUM(B5:B21,B23:B34)</f>
-        <v>2.6376894803598266E-2</v>
+        <v>3.8938279779318422E-2</v>
       </c>
       <c r="X4" s="4">
         <f>B23/SUM(B5:B22,B24:B34)</f>
-        <v>2.5216976032652008E-2</v>
+        <v>2.5216976263866746E-2</v>
       </c>
       <c r="Y4" s="4">
         <f>B24/SUM(B5:B23,B25:B34)</f>
-        <v>2.2722545337308678E-2</v>
+        <v>2.272254554514504E-2</v>
       </c>
       <c r="Z4" s="4">
         <f>B25/SUM(B5:B24,B26:B34)</f>
-        <v>2.2652718473541847E-2</v>
+        <v>2.2652718680725378E-2</v>
       </c>
       <c r="AA4" s="4">
         <f>B26/SUM(B5:B25,B27:B34)</f>
-        <v>2.1102443859652022E-2</v>
+        <v>2.0052786018491933E-2</v>
       </c>
       <c r="AB4" s="4">
         <f>B27/SUM(B5:B26,B28:B34)</f>
-        <v>2.0372589294335941E-2</v>
+        <v>2.0372589480249784E-2</v>
       </c>
       <c r="AC4" s="4">
         <f>B28/SUM(B5:B27,B29:B34)</f>
-        <v>2.0352001763426501E-2</v>
+        <v>2.0052786018491933E-2</v>
       </c>
       <c r="AD4" s="4">
         <f>B29/SUM(B5:B28,B30:B34)</f>
-        <v>1.9214118407186832E-2</v>
+        <v>1.9214118582329763E-2</v>
       </c>
       <c r="AE4" s="4">
         <f>B30/SUM(B5:B29,B31:B34)</f>
-        <v>1.8922692894615865E-2</v>
+        <v>1.8922693067053041E-2</v>
       </c>
       <c r="AF4" s="4">
         <f>B31/SUM(B5:B30,B32:B34)</f>
-        <v>1.8706860611706955E-2</v>
+        <v>2.0052786018491933E-2</v>
       </c>
       <c r="AG4" s="4">
         <f>B32/SUM(B5:B31,B33:B34)</f>
-        <v>1.7895841626008716E-2</v>
+        <v>1.7895841788924137E-2</v>
       </c>
       <c r="AH4" s="4">
         <f>B33/SUM(B5:B32,B34)</f>
-        <v>1.7564616394560518E-2</v>
+        <v>3.9773363115831663E-2</v>
       </c>
       <c r="AI4" s="4">
         <f>B34/SUM(B5:B33)</f>
-        <v>1.6044688090988721E-2</v>
+        <v>1.6044688236786467E-2</v>
       </c>
     </row>
     <row r="5" spans="1:35" x14ac:dyDescent="0.2">
@@ -2216,131 +2319,131 @@
         <v>35773832</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="D5" t="s">
         <v>18</v>
       </c>
       <c r="E5" s="4">
         <f>B4/SUM(B6:B34)</f>
-        <v>8.6750730828932129E-2</v>
+        <v>8.6750731657825556E-2</v>
       </c>
       <c r="F5" s="3"/>
       <c r="G5" s="4">
         <f>B6/SUM(B4,B7:B34)</f>
-        <v>6.313873630243505E-2</v>
+        <v>6.3138736892610917E-2</v>
       </c>
       <c r="H5" s="4">
         <f>B7/SUM(B4,B6,B8:B34)</f>
-        <v>6.1841776345246645E-2</v>
+        <v>3.9074105144949932E-2</v>
       </c>
       <c r="I5" s="4">
         <f>B8/SUM(B4,B6:B7,B9:B34)</f>
-        <v>6.0270166359977548E-2</v>
+        <v>6.0270166921819988E-2</v>
       </c>
       <c r="J5" s="4">
         <f>B9/SUM(B4,B6:B8,B10:B34)</f>
-        <v>4.9689091161771816E-2</v>
+        <v>3.8254243612359046E-2</v>
       </c>
       <c r="K5" s="4">
         <f>B10/SUM(B4,B6:B9,B11:B34)</f>
-        <v>4.6907451834089009E-2</v>
+        <v>4.6907452265852329E-2</v>
       </c>
       <c r="L5" s="4">
         <f>B11/SUM(B4,B6:B10,B12:B34)</f>
-        <v>4.4963050617402432E-2</v>
+        <v>4.4963051030499697E-2</v>
       </c>
       <c r="M5" s="4">
         <f>B12/SUM(B4,B6:B11,B13:B34)</f>
-        <v>4.3965848115076096E-2</v>
+        <v>3.5808763197297692E-2</v>
       </c>
       <c r="N5" s="4">
         <f>B13/SUM(B4,B6:B12,B14:B34)</f>
-        <v>4.2340180367632409E-2</v>
+        <v>4.2340180755655703E-2</v>
       </c>
       <c r="O5" s="4">
         <f>B14/SUM(B4,B6:B13,B15:B34)</f>
-        <v>4.0542767660580202E-2</v>
+        <v>4.0542768031490539E-2</v>
       </c>
       <c r="P5" s="4">
         <f>B15/SUM(B4,B6:B14,B16:B34)</f>
-        <v>3.9961875359714898E-2</v>
+        <v>3.9961875725106774E-2</v>
       </c>
       <c r="Q5" s="4">
         <f>B16/SUM(B4,B6:B15,B17:B34)</f>
-        <v>3.942881524928904E-2</v>
+        <v>3.8254243612359046E-2</v>
       </c>
       <c r="R5" s="4">
         <f>B17/SUM(B4,B6:B16,B18:B34)</f>
-        <v>3.7228297883740935E-2</v>
+        <v>3.7228298223243569E-2</v>
       </c>
       <c r="S5" s="4">
         <f>B18/SUM(B4,B6:B17,B19:B34)</f>
-        <v>3.609942939548598E-2</v>
+        <v>3.6099429724335629E-2</v>
       </c>
       <c r="T5" s="4">
         <f>B19/SUM(B4,B6:B18,B20:B34)</f>
-        <v>3.1644342879701262E-2</v>
+        <v>3.1644343166727561E-2</v>
       </c>
       <c r="U5" s="4">
         <f>B20/SUM(B4,B6:B19,B21:B34)</f>
-        <v>2.7778162878623478E-2</v>
+        <v>3.5808763197297692E-2</v>
       </c>
       <c r="V5" s="4">
         <f>B21/SUM(B4,B6:B20,B22:B34)</f>
-        <v>2.7540319197518596E-2</v>
+        <v>2.7540319446326088E-2</v>
       </c>
       <c r="W5" s="4">
         <f>B22/SUM(B4,B6:B21,B23:B34)</f>
-        <v>2.5919032025941518E-2</v>
+        <v>3.8254243612359046E-2</v>
       </c>
       <c r="X5" s="4">
         <f>B23/SUM(B4,B6:B22,B24:B34)</f>
-        <v>2.47797337845613E-2</v>
+        <v>2.4779734007827393E-2</v>
       </c>
       <c r="Y5" s="4">
         <f>B24/SUM(B4,B6:B23,B25:B34)</f>
-        <v>2.2329496555348272E-2</v>
+        <v>2.2329496756056617E-2</v>
       </c>
       <c r="Z5" s="4">
         <f>B25/SUM(B4,B6:B24,B26:B34)</f>
-        <v>2.2260903829211792E-2</v>
+        <v>2.2260904029290169E-2</v>
       </c>
       <c r="AA5" s="4">
         <f>B26/SUM(B4,B6:B25,B27:B34)</f>
-        <v>2.073798743034053E-2</v>
+        <v>1.9706807904497671E-2</v>
       </c>
       <c r="AB5" s="4">
         <f>B27/SUM(B4,B6:B26,B28:B34)</f>
-        <v>2.0020985201754011E-2</v>
+        <v>2.0020985381305978E-2</v>
       </c>
       <c r="AC5" s="4">
         <f>B28/SUM(B4,B6:B27,B29:B34)</f>
-        <v>2.0000759949202678E-2</v>
+        <v>1.9706807904497671E-2</v>
       </c>
       <c r="AD5" s="4">
         <f>B29/SUM(B4,B6:B28,B30:B34)</f>
-        <v>1.8882877998656185E-2</v>
+        <v>1.888287816781244E-2</v>
       </c>
       <c r="AE5" s="4">
         <f>B30/SUM(B4,B6:B29,B31:B34)</f>
-        <v>1.859656816319899E-2</v>
+        <v>1.8596568329743615E-2</v>
       </c>
       <c r="AF5" s="4">
         <f>B31/SUM(B4,B6:B30,B32:B34)</f>
-        <v>1.8384522776148673E-2</v>
+        <v>1.9706807904497671E-2</v>
       </c>
       <c r="AG5" s="4">
         <f>B32/SUM(B4,B6:B31,B33:B34)</f>
-        <v>1.7587719724238605E-2</v>
+        <v>1.7587719881592322E-2</v>
       </c>
       <c r="AH5" s="4">
         <f>B33/SUM(B4,B6:B32,B34)</f>
-        <v>1.7262294081742218E-2</v>
+        <v>3.9074105144949932E-2</v>
       </c>
       <c r="AI5" s="4">
         <f>B34/SUM(B4,B6:B33)</f>
-        <v>1.576893220628665E-2</v>
+        <v>1.5768932347115888E-2</v>
       </c>
     </row>
     <row r="6" spans="1:35" x14ac:dyDescent="0.2">
@@ -2351,263 +2454,264 @@
         <v>33773832</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="D6" t="s">
         <v>21</v>
       </c>
       <c r="E6" s="4">
         <f>B4/SUM(B5,B7:B34)</f>
-        <v>8.6420435833691134E-2</v>
+        <v>8.642043665628471E-2</v>
       </c>
       <c r="F6" s="4">
         <f>B5/SUM(B4,B7:B34)</f>
-        <v>6.6877650874073546E-2</v>
+        <v>6.687765149919811E-2</v>
       </c>
       <c r="G6" s="3"/>
       <c r="H6" s="4">
         <f>B7/SUM(B4:B5,B8:B34)</f>
-        <v>6.1611696500661985E-2</v>
+        <v>3.8931837211055587E-2</v>
       </c>
       <c r="I6" s="4">
         <f>B8/SUM(B4:B5,B7,B9:B34)</f>
-        <v>6.0046264276490721E-2</v>
+        <v>6.004626483416646E-2</v>
       </c>
       <c r="J6" s="4">
         <f>B9/SUM(B4:B5,B7:B8,B10:B34)</f>
-        <v>4.9506332890382539E-2</v>
+        <v>3.8115070274411661E-2</v>
       </c>
       <c r="K6" s="4">
         <f>B10/SUM(B4:B5,B7:B9,B11:B34)</f>
-        <v>4.6735380046762122E-2</v>
+        <v>4.6735380475363554E-2</v>
       </c>
       <c r="L6" s="4">
         <f>B11/SUM(B4:B5,B7:B10,B12:B34)</f>
-        <v>4.479841674260069E-2</v>
+        <v>4.4798417152678349E-2</v>
       </c>
       <c r="M6" s="4">
         <f>B12/SUM(B4:B5,B7:B11,B13:B34)</f>
-        <v>4.3805018596987808E-2</v>
+        <v>3.5678792534688246E-2</v>
       </c>
       <c r="N6" s="4">
         <f>B13/SUM(B4:B5,B7:B12,B14:B34)</f>
-        <v>4.2185537935706986E-2</v>
+        <v>4.2185538320901037E-2</v>
       </c>
       <c r="O6" s="4">
         <f>B14/SUM(B4:B5,B7:B13,B15:B34)</f>
-        <v>4.0394944477224144E-2</v>
+        <v>4.0394944845434655E-2</v>
       </c>
       <c r="P6" s="4">
         <f>B15/SUM(B4:B5,B7:B14,B16:B34)</f>
-        <v>3.9816251215427166E-2</v>
+        <v>3.981625157816087E-2</v>
       </c>
       <c r="Q6" s="4">
         <f>B16/SUM(B4:B5,B7:B15,B17:B34)</f>
-        <v>3.9285206996601069E-2</v>
+        <v>3.8115070274411661E-2</v>
       </c>
       <c r="R6" s="4">
         <f>B17/SUM(B4:B5,B7:B16,B18:B34)</f>
-        <v>3.7092990404283904E-2</v>
+        <v>3.7092990741323155E-2</v>
       </c>
       <c r="S6" s="4">
         <f>B18/SUM(B4:B5,B7:B17,B19:B34)</f>
-        <v>3.5968367104063301E-2</v>
+        <v>3.5968367430529447E-2</v>
       </c>
       <c r="T6" s="4">
         <f>B19/SUM(B4:B5,B7:B18,B20:B34)</f>
-        <v>3.1529947404336352E-2</v>
+        <v>3.1529947689291182E-2</v>
       </c>
       <c r="U6" s="4">
         <f>B20/SUM(B4:B5,B7:B19,B21:B34)</f>
-        <v>2.7678118761837456E-2</v>
+        <v>3.5678792534688246E-2</v>
       </c>
       <c r="V6" s="4">
         <f>B21/SUM(B4:B5,B7:B20,B22:B34)</f>
-        <v>2.7441154554721212E-2</v>
+        <v>2.7441154801740166E-2</v>
       </c>
       <c r="W6" s="4">
         <f>B22/SUM(B4:B5,B7:B21,B23:B34)</f>
-        <v>2.5825851889376285E-2</v>
+        <v>3.8115070274411661E-2</v>
       </c>
       <c r="X6" s="4">
         <f>B23/SUM(B4:B5,B7:B22,B24:B34)</f>
-        <v>2.4690748052818741E-2</v>
+        <v>2.4690748274484187E-2</v>
       </c>
       <c r="Y6" s="4">
         <f>B24/SUM(B4:B5,B7:B23,B25:B34)</f>
-        <v>2.224950083317262E-2</v>
+        <v>2.2249501032445461E-2</v>
       </c>
       <c r="Z6" s="4">
         <f>B25/SUM(B4:B5,B7:B24,B26:B34)</f>
-        <v>2.2181159173022096E-2</v>
+        <v>2.2181159371669572E-2</v>
       </c>
       <c r="AA6" s="4">
         <f>B26/SUM(B4:B5,B7:B25,B27:B34)</f>
-        <v>2.0663808554542924E-2</v>
+        <v>1.9636388469236966E-2</v>
       </c>
       <c r="AB6" s="4">
         <f>B27/SUM(B4:B5,B7:B26,B28:B34)</f>
-        <v>1.9949421136143022E-2</v>
+        <v>1.9949421314413684E-2</v>
       </c>
       <c r="AC6" s="4">
         <f>B28/SUM(B4:B5,B7:B27,B29:B34)</f>
-        <v>1.9929269590292613E-2</v>
+        <v>1.9636388469236966E-2</v>
       </c>
       <c r="AD6" s="4">
         <f>B29/SUM(B4:B5,B7:B28,B30:B34)</f>
-        <v>1.8815457084430085E-2</v>
+        <v>1.8815457252380558E-2</v>
       </c>
       <c r="AE6" s="4">
         <f>B30/SUM(B4:B5,B7:B29,B31:B34)</f>
-        <v>1.8530188103814963E-2</v>
+        <v>1.8530188269172757E-2</v>
       </c>
       <c r="AF6" s="4">
         <f>B31/SUM(B4:B5,B7:B30,B32:B34)</f>
-        <v>1.8318913220607944E-2</v>
+        <v>1.9636388469236966E-2</v>
       </c>
       <c r="AG6" s="4">
         <f>B32/SUM(B4:B5,B7:B31,B33:B34)</f>
-        <v>1.7525002684630187E-2</v>
+        <v>1.7525002840863672E-2</v>
       </c>
       <c r="AH6" s="4">
         <f>B33/SUM(B4:B5,B7:B32,B34)</f>
-        <v>1.7200757111433027E-2</v>
+        <v>3.8931837211055587E-2</v>
       </c>
       <c r="AI6" s="4">
         <f>B34/SUM(B4:B5,B7:B33)</f>
-        <v>1.5712801030863133E-2</v>
+        <v>1.571280117069156E-2</v>
       </c>
     </row>
     <row r="7" spans="1:35" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
+      <c r="A7" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="B7" s="2">
-        <v>33120474</v>
+      <c r="B7" s="17">
+        <f>TRUNC(D46)</f>
+        <v>21385377</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="D7" t="s">
         <v>22</v>
       </c>
       <c r="E7" s="4">
         <f>B4/SUM(B5:B6,B8:B34)</f>
-        <v>8.6313079744752635E-2</v>
+        <v>8.4429263593513326E-2</v>
       </c>
       <c r="F7" s="4">
         <f>B5/SUM(B4,B6,B8:B34)</f>
-        <v>6.6796064499452135E-2</v>
+        <v>6.5363845257709247E-2</v>
       </c>
       <c r="G7" s="4">
         <f>B6/SUM(B4:B5,B8:B34)</f>
-        <v>6.2827092596813253E-2</v>
+        <v>6.1484879570630896E-2</v>
       </c>
       <c r="H7" s="3"/>
       <c r="I7" s="4">
         <f>B8/SUM(B4:B6,B9:B34)</f>
-        <v>5.9973480227206069E-2</v>
+        <v>5.8695597402777841E-2</v>
       </c>
       <c r="J7" s="4">
         <f>B9/SUM(B4:B6,B8,B10:B34)</f>
-        <v>4.9446920577998155E-2</v>
+        <v>3.7275065051652949E-2</v>
       </c>
       <c r="K7" s="4">
         <f>B10/SUM(B4:B6,B8:B9,B11:B34)</f>
-        <v>4.667944104745203E-2</v>
+        <v>4.5697032353782266E-2</v>
       </c>
       <c r="L7" s="4">
         <f>B11/SUM(B4:B6,B8:B10,B12:B34)</f>
-        <v>4.4744895258947578E-2</v>
+        <v>4.3804904674412233E-2</v>
       </c>
       <c r="M7" s="4">
         <f>B12/SUM(B4:B6,B8:B11,B13:B34)</f>
-        <v>4.3752733644761642E-2</v>
+        <v>3.4894284383994362E-2</v>
       </c>
       <c r="N7" s="4">
         <f>B13/SUM(B4:B6,B8:B12,B14:B34)</f>
-        <v>4.2135263997858816E-2</v>
+        <v>4.1252260648098817E-2</v>
       </c>
       <c r="O7" s="4">
         <f>B14/SUM(B4:B6,B8:B13,B15:B34)</f>
-        <v>4.034688706204495E-2</v>
+        <v>3.9502782275050032E-2</v>
       </c>
       <c r="P7" s="4">
         <f>B15/SUM(B4:B6,B8:B14,B16:B34)</f>
-        <v>3.9768908581618252E-2</v>
+        <v>3.8937348361207269E-2</v>
       </c>
       <c r="Q7" s="4">
         <f>B16/SUM(B4:B6,B8:B15,B17:B34)</f>
-        <v>3.9238519616702376E-2</v>
+        <v>3.7275065051652949E-2</v>
       </c>
       <c r="R7" s="4">
         <f>B17/SUM(B4:B6,B8:B16,B18:B34)</f>
-        <v>3.7049001175778341E-2</v>
+        <v>3.6276297917584646E-2</v>
       </c>
       <c r="S7" s="4">
         <f>B18/SUM(B4:B6,B8:B17,B19:B34)</f>
-        <v>3.5925757786906605E-2</v>
+        <v>3.5177275819257323E-2</v>
       </c>
       <c r="T7" s="4">
         <f>B19/SUM(B4:B6,B8:B18,B20:B34)</f>
-        <v>3.1492755822593962E-2</v>
+        <v>3.0839381080148193E-2</v>
       </c>
       <c r="U7" s="4">
         <f>B20/SUM(B4:B6,B8:B19,B21:B34)</f>
-        <v>2.7645592425168848E-2</v>
+        <v>3.4894284383994362E-2</v>
       </c>
       <c r="V7" s="4">
         <f>B21/SUM(B4:B6,B8:B20,B22:B34)</f>
-        <v>2.7408914116970856E-2</v>
+        <v>2.684247096904303E-2</v>
       </c>
       <c r="W7" s="4">
         <f>B22/SUM(B4:B6,B8:B21,B23:B34)</f>
-        <v>2.5795556907973759E-2</v>
+        <v>3.7275065051652949E-2</v>
       </c>
       <c r="X7" s="4">
         <f>B23/SUM(B4:B6,B8:B22,B24:B34)</f>
-        <v>2.4661816614751187E-2</v>
+        <v>2.4153480712350153E-2</v>
       </c>
       <c r="Y7" s="4">
         <f>B24/SUM(B4:B6,B8:B23,B25:B34)</f>
-        <v>2.2223491971196253E-2</v>
+        <v>2.1766483103097489E-2</v>
       </c>
       <c r="Z7" s="4">
         <f>B25/SUM(B4:B6,B8:B24,B26:B34)</f>
-        <v>2.2155231931409565E-2</v>
+        <v>2.1699656575977066E-2</v>
       </c>
       <c r="AA7" s="4">
         <f>B26/SUM(B4:B6,B8:B25,B27:B34)</f>
-        <v>2.0639690734889034E-2</v>
+        <v>1.9211165112799203E-2</v>
       </c>
       <c r="AB7" s="4">
         <f>B27/SUM(B4:B6,B8:B26,B28:B34)</f>
-        <v>1.992615339372749E-2</v>
+        <v>1.9517289520083293E-2</v>
       </c>
       <c r="AC7" s="4">
         <f>B28/SUM(B4:B6,B8:B27,B29:B34)</f>
-        <v>1.9906025810075011E-2</v>
+        <v>1.9211165112799203E-2</v>
       </c>
       <c r="AD7" s="4">
         <f>B29/SUM(B4:B6,B8:B28,B30:B34)</f>
-        <v>1.8793536295791408E-2</v>
+        <v>1.8408331996812261E-2</v>
       </c>
       <c r="AE7" s="4">
         <f>B30/SUM(B4:B6,B8:B29,B31:B34)</f>
-        <v>1.8508605703117968E-2</v>
+        <v>1.8129345447610006E-2</v>
       </c>
       <c r="AF7" s="4">
         <f>B31/SUM(B4:B6,B8:B30,B32:B34)</f>
-        <v>1.8297581315745569E-2</v>
+        <v>1.9211165112799203E-2</v>
       </c>
       <c r="AG7" s="4">
         <f>B32/SUM(B4:B6,B8:B31,B33:B34)</f>
-        <v>1.7504611159928646E-2</v>
+        <v>1.714627011701058E-2</v>
       </c>
       <c r="AH7" s="3"/>
       <c r="AI7" s="4">
         <f>B34/SUM(B4:B6,B8:B33)</f>
-        <v>1.5694550649075475E-2</v>
+        <v>1.5373823647971322E-2</v>
       </c>
     </row>
     <row r="8" spans="1:35" x14ac:dyDescent="0.2">
@@ -2618,254 +2722,255 @@
         <v>32326616</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="D8" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="E8" s="4">
         <f>B4/SUM(B5:B7,B9:B34)</f>
-        <v>8.618299588076006E-2</v>
+        <v>8.6182996698839706E-2</v>
       </c>
       <c r="F8" s="4">
         <f>B5/SUM(B4,B6:B7,B9:B34)</f>
-        <v>6.6697201030070333E-2</v>
+        <v>6.6697201651826021E-2</v>
       </c>
       <c r="G8" s="4">
         <f>B6/SUM(B4:B5,B7,B9:B34)</f>
-        <v>6.2734448972382367E-2</v>
+        <v>6.2734449555024441E-2</v>
       </c>
       <c r="H8" s="4">
         <f>B7/SUM(B4:B6,B9:B34)</f>
-        <v>6.1446273638870605E-2</v>
+        <v>3.8829535349404497E-2</v>
       </c>
       <c r="I8" s="3"/>
       <c r="J8" s="4">
         <f>B9/SUM(B4:B7,B10:B34)</f>
-        <v>4.9374923686162302E-2</v>
+        <v>3.8014993176996088E-2</v>
       </c>
       <c r="K8" s="4">
         <f>B10/SUM(B4:B7,B9,B11:B34)</f>
-        <v>4.6611652702805415E-2</v>
+        <v>4.6611653129140493E-2</v>
       </c>
       <c r="L8" s="4">
         <f>B11/SUM(B4:B7,B9:B10,B12:B34)</f>
-        <v>4.4680036205356925E-2</v>
+        <v>4.468003661327017E-2</v>
       </c>
       <c r="M8" s="4">
         <f>B12/SUM(B4:B7,B9:B11,B13:B34)</f>
-        <v>4.3689372900490422E-2</v>
+        <v>3.5585331542333024E-2</v>
       </c>
       <c r="N8" s="4">
         <f>B13/SUM(B4:B7,B9:B12,B14:B34)</f>
-        <v>4.2074340022004046E-2</v>
+        <v>4.2074340405170087E-2</v>
       </c>
       <c r="O8" s="4">
         <f>B14/SUM(B4:B7,B9:B13,B15:B34)</f>
-        <v>4.0288648893580407E-2</v>
+        <v>4.0288649259855647E-2</v>
       </c>
       <c r="P8" s="4">
         <f>B15/SUM(B4:B7,B9:B14,B16:B34)</f>
-        <v>3.9711536533859233E-2</v>
+        <v>3.9711536894687503E-2</v>
       </c>
       <c r="Q8" s="4">
         <f>B16/SUM(B4:B7,B9:B15,B17:B34)</f>
-        <v>3.9181941560699492E-2</v>
+        <v>3.8014993176996088E-2</v>
       </c>
       <c r="R8" s="4">
         <f>B17/SUM(B4:B7,B9:B16,B18:B34)</f>
-        <v>3.6995692576343803E-2</v>
+        <v>3.6995692911617209E-2</v>
       </c>
       <c r="S8" s="4">
         <f>B18/SUM(B4:B7,B9:B17,B19:B34)</f>
-        <v>3.5874121294094313E-2</v>
+        <v>3.5874121618851861E-2</v>
       </c>
       <c r="T8" s="4">
         <f>B19/SUM(B4:B7,B9:B18,B20:B34)</f>
-        <v>3.1447684356292402E-2</v>
+        <v>3.1447684639762254E-2</v>
       </c>
       <c r="U8" s="4">
         <f>B20/SUM(B4:B7,B9:B19,B21:B34)</f>
-        <v>2.7606174258449228E-2</v>
+        <v>3.5585331542333024E-2</v>
       </c>
       <c r="V8" s="4">
         <f>B21/SUM(B4:B7,B9:B20,B22:B34)</f>
-        <v>2.736984240333136E-2</v>
+        <v>2.736984264906811E-2</v>
       </c>
       <c r="W8" s="4">
         <f>B22/SUM(B4:B7,B9:B21,B23:B34)</f>
-        <v>2.5758842714347922E-2</v>
+        <v>3.8014993176996088E-2</v>
       </c>
       <c r="X8" s="4">
         <f>B23/SUM(B4:B7,B9:B22,B24:B34)</f>
-        <v>2.4626754785380817E-2</v>
+        <v>2.4626755005898733E-2</v>
       </c>
       <c r="Y8" s="4">
         <f>B24/SUM(B4:B7,B9:B23,B25:B34)</f>
-        <v>2.2191971798935874E-2</v>
+        <v>2.2191971997179556E-2</v>
       </c>
       <c r="Z8" s="4">
         <f>B25/SUM(B4:B7,B9:B24,B26:B34)</f>
-        <v>2.2123810669538401E-2</v>
+        <v>2.2123810867160015E-2</v>
       </c>
       <c r="AA8" s="4">
         <f>B26/SUM(B4:B7,B9:B25,B27:B34)</f>
-        <v>2.0610462201948048E-2</v>
+        <v>1.9585745434820598E-2</v>
       </c>
       <c r="AB8" s="3"/>
       <c r="AC8" s="4">
         <f>B28/SUM(B4:B7,B9:B27,B29:B34)</f>
-        <v>1.9877856478528858E-2</v>
+        <v>1.9585745434820598E-2</v>
       </c>
       <c r="AD8" s="4">
         <f>B29/SUM(B4:B7,B9:B28,B30:B34)</f>
-        <v>1.8766970233955876E-2</v>
+        <v>1.876697040104186E-2</v>
       </c>
       <c r="AE8" s="4">
         <f>B30/SUM(B4:B7,B9:B29,B31:B34)</f>
-        <v>1.8482449718740038E-2</v>
+        <v>1.8482449883246922E-2</v>
       </c>
       <c r="AF8" s="4">
         <f>B31/SUM(B4:B7,B9:B30,B32:B34)</f>
-        <v>1.8271728896622486E-2</v>
+        <v>1.9585745434820598E-2</v>
       </c>
       <c r="AG8" s="4">
         <f>B32/SUM(B4:B7,B9:B31,B33:B34)</f>
-        <v>1.747989835039955E-2</v>
+        <v>1.7479898505829872E-2</v>
       </c>
       <c r="AH8" s="4">
         <f>B33/SUM(B4:B7,B9:B32,B34)</f>
-        <v>1.7156501363149234E-2</v>
+        <v>3.8829535349404497E-2</v>
       </c>
       <c r="AI8" s="4">
         <f>B34/SUM(B4:B7,B9:B33)</f>
-        <v>1.5672432622938614E-2</v>
+        <v>1.5672432762049486E-2</v>
       </c>
     </row>
     <row r="9" spans="1:35" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
+      <c r="A9" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="B9" s="2">
-        <v>26919982</v>
+      <c r="B9" s="17">
+        <f>TRUNC(C46)</f>
+        <v>20953197</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="D9" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="E9" s="4">
         <f>B4/SUM(B5:B8,B10:B34)</f>
-        <v>8.530737214601572E-2</v>
+        <v>8.4361455094428731E-2</v>
       </c>
       <c r="F9" s="4">
         <f>B5/SUM(B4,B6:B8,B10:B34)</f>
-        <v>6.6031589451059441E-2</v>
+        <v>6.5312271166810751E-2</v>
       </c>
       <c r="G9" s="4">
         <f>B6/SUM(B4:B5,B7:B8,B10:B34)</f>
-        <v>6.2110686774450828E-2</v>
+        <v>6.1436542600929754E-2</v>
       </c>
       <c r="H9" s="4">
         <f>B7/SUM(B4:B6,B8,B10:B34)</f>
-        <v>6.0836052839249775E-2</v>
+        <v>3.8043899402517081E-2</v>
       </c>
       <c r="I9" s="4">
         <f>B8/SUM(B4:B7,B10:B34)</f>
-        <v>5.9291428873610434E-2</v>
+        <v>5.8649574414604728E-2</v>
       </c>
       <c r="J9" s="3"/>
       <c r="K9" s="4">
         <f>B10/SUM(B4:B8,B11:B34)</f>
-        <v>4.6155160053607334E-2</v>
+        <v>4.5661641076853547E-2</v>
       </c>
       <c r="L9" s="4">
         <f>B11/SUM(B4:B8,B10,B12:B34)</f>
-        <v>4.4243260591683209E-2</v>
+        <v>4.3771040145295252E-2</v>
       </c>
       <c r="M9" s="4">
         <f>B12/SUM(B4:B8,B10:B11,B13:B34)</f>
-        <v>4.3262682699584498E-2</v>
+        <v>3.4867538551577835E-2</v>
       </c>
       <c r="N9" s="4">
         <f>B13/SUM(B4:B8,B10:B12,B14:B34)</f>
-        <v>4.1664052627010298E-2</v>
+        <v>4.1220447437542218E-2</v>
       </c>
       <c r="O9" s="4">
         <f>B14/SUM(B4:B8,B10:B13,B15:B34)</f>
-        <v>3.9896441315741479E-2</v>
+        <v>3.9472369384897121E-2</v>
       </c>
       <c r="P9" s="4">
         <f>B15/SUM(B4:B8,B10:B14,B16:B34)</f>
-        <v>3.9325159488560468E-2</v>
+        <v>3.8907387087948803E-2</v>
       </c>
       <c r="Q9" s="3"/>
       <c r="R9" s="4">
         <f>B17/SUM(B4:B8,B10:B16,B18:B34)</f>
-        <v>3.6636670697891907E-2</v>
+        <v>3.6248455694124694E-2</v>
       </c>
       <c r="S9" s="4">
         <f>B18/SUM(B4:B8,B10:B17,B19:B34)</f>
-        <v>3.5526356499736955E-2</v>
+        <v>3.5150305711770254E-2</v>
       </c>
       <c r="T9" s="4">
         <f>B19/SUM(B4:B8,B10:B18,B20:B34)</f>
-        <v>3.1144119685560526E-2</v>
+        <v>3.0815835803703555E-2</v>
       </c>
       <c r="U9" s="4">
         <f>B20/SUM(B4:B8,B10:B19,B21:B34)</f>
-        <v>2.7340674644876866E-2</v>
+        <v>3.4867538551577835E-2</v>
       </c>
       <c r="V9" s="4">
         <f>B21/SUM(B4:B8,B10:B20,B22:B34)</f>
-        <v>2.710667564324782E-2</v>
+        <v>2.6822056657436411E-2</v>
       </c>
       <c r="W9" s="3"/>
       <c r="X9" s="4">
         <f>B23/SUM(B4:B8,B10:B22,B24:B34)</f>
-        <v>2.4390589558930007E-2</v>
+        <v>2.413515950627497E-2</v>
       </c>
       <c r="Y9" s="3"/>
       <c r="Z9" s="4">
         <f>B25/SUM(B4:B8,B10:B24,B26:B34)</f>
-        <v>2.1912161442882883E-2</v>
+        <v>2.1683236083177633E-2</v>
       </c>
       <c r="AA9" s="4">
         <f>B26/SUM(B4:B8,B10:B25,B27:B34)</f>
-        <v>2.0413579688096595E-2</v>
+        <v>1.9196663084232946E-2</v>
       </c>
       <c r="AB9" s="4">
         <f>B27/SUM(B4:B8,B10:B26,B28:B34)</f>
-        <v>1.9708010200782847E-2</v>
+        <v>1.9502551984038208E-2</v>
       </c>
       <c r="AC9" s="4">
         <f>B28/SUM(B4:B8,B10:B27,B29:B34)</f>
-        <v>1.9688107218984181E-2</v>
+        <v>1.9196663084232946E-2</v>
       </c>
       <c r="AD9" s="4">
         <f>B29/SUM(B4:B8,B10:B28,B30:B34)</f>
-        <v>1.858801849884963E-2</v>
+        <v>1.8394446944528586E-2</v>
       </c>
       <c r="AE9" s="4">
         <f>B30/SUM(B4:B8,B10:B29,B31:B34)</f>
-        <v>1.8306259768864293E-2</v>
+        <v>1.8115674572788155E-2</v>
       </c>
       <c r="AF9" s="4">
         <f>B31/SUM(B4:B8,B10:B30,B32:B34)</f>
-        <v>1.8097583405438159E-2</v>
+        <v>1.9196663084232946E-2</v>
       </c>
       <c r="AG9" s="4">
         <f>B32/SUM(B4:B8,B10:B31,B33:B34)</f>
-        <v>1.7313428011017859E-2</v>
+        <v>1.7133353029098616E-2</v>
       </c>
       <c r="AH9" s="4">
         <f>B33/SUM(B4:B8,B10:B32,B34)</f>
-        <v>1.6993162342523776E-2</v>
+        <v>3.8043899402517081E-2</v>
       </c>
       <c r="AI9" s="4">
         <f>B34/SUM(B4:B8,B10:B33)</f>
-        <v>1.5523438359354012E-2</v>
+        <v>1.5362261993886557E-2</v>
       </c>
     </row>
     <row r="10" spans="1:35" x14ac:dyDescent="0.2">
@@ -2876,131 +2981,131 @@
         <v>25480500</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="D10" t="s">
         <v>29</v>
       </c>
       <c r="E10" s="4">
         <f>B4/SUM(B5:B9,B11:B34)</f>
-        <v>8.507723402253807E-2</v>
+        <v>8.5077234819759803E-2</v>
       </c>
       <c r="F10" s="4">
         <f>B5/SUM(B4,B6:B9,B11:B34)</f>
-        <v>6.5856608051678422E-2</v>
+        <v>6.5856608657860735E-2</v>
       </c>
       <c r="G10" s="4">
         <f>B6/SUM(B4:B5,B7:B9,B11:B34)</f>
-        <v>6.1946699403681089E-2</v>
+        <v>6.194669997178269E-2</v>
       </c>
       <c r="H10" s="4">
         <f>B7/SUM(B4:B6,B8:B9,B11:B34)</f>
-        <v>6.0675623066528045E-2</v>
+        <v>3.8352789963573365E-2</v>
       </c>
       <c r="I10" s="4">
         <f>B8/SUM(B4:B7,B9,B11:B34)</f>
-        <v>5.9135299466217414E-2</v>
+        <v>5.9135300007100454E-2</v>
       </c>
       <c r="J10" s="4">
         <f>B9/SUM(B4:B8,B11:B34)</f>
-        <v>4.8762625452806199E-2</v>
+        <v>3.7548610146056968E-2</v>
       </c>
       <c r="K10" s="3"/>
       <c r="L10" s="4">
         <f>B11/SUM(B4:B9,B12:B34)</f>
-        <v>4.4128407579570053E-2</v>
+        <v>4.4128407977473125E-2</v>
       </c>
       <c r="M10" s="4">
         <f>B12/SUM(B4:B9,B11,B13:B34)</f>
-        <v>4.3150480399257216E-2</v>
+        <v>3.5149765939811964E-2</v>
       </c>
       <c r="N10" s="4">
         <f>B13/SUM(B4:B9,B11:B12,B14:B34)</f>
-        <v>4.1556161543259654E-2</v>
+        <v>4.1556161917045836E-2</v>
       </c>
       <c r="O10" s="4">
         <f>B14/SUM(B4:B9,B11:B13,B15:B34)</f>
-        <v>3.97933024082242E-2</v>
+        <v>3.9793302765548141E-2</v>
       </c>
       <c r="P10" s="4">
         <f>B15/SUM(B4:B9,B11:B14,B16:B34)</f>
-        <v>3.9223553144353343E-2</v>
+        <v>3.9223553496368233E-2</v>
       </c>
       <c r="Q10" s="4">
         <f>B16/SUM(B4:B9,B11:B15,B17:B34)</f>
-        <v>3.8700708177050673E-2</v>
+        <v>3.7548610146056968E-2</v>
       </c>
       <c r="R10" s="4">
         <f>B17/SUM(B4:B9,B11:B16,B18:B34)</f>
-        <v>3.6542254966037885E-2</v>
+        <v>3.654225529314311E-2</v>
       </c>
       <c r="S10" s="4">
         <f>B18/SUM(B4:B9,B11:B17,B19:B34)</f>
-        <v>3.5434899948461614E-2</v>
+        <v>3.5434900265315573E-2</v>
       </c>
       <c r="T10" s="4">
         <f>B19/SUM(B4:B9,B11:B18,B20:B34)</f>
-        <v>3.1064282879481969E-2</v>
+        <v>3.1064283156081982E-2</v>
       </c>
       <c r="U10" s="4">
         <f>B20/SUM(B4:B9,B11:B19,B21:B34)</f>
-        <v>2.7270845690062367E-2</v>
+        <v>3.5149765939811964E-2</v>
       </c>
       <c r="V10" s="4">
         <f>B21/SUM(B4:B9,B11:B20,B22:B34)</f>
-        <v>2.7037460058004753E-2</v>
+        <v>2.7037460297809235E-2</v>
       </c>
       <c r="W10" s="4">
         <f>B22/SUM(B4:B9,B11:B21,B23:B34)</f>
-        <v>2.5446509101275813E-2</v>
+        <v>3.7548610146056968E-2</v>
       </c>
       <c r="X10" s="4">
         <f>B23/SUM(B4:B9,B11:B22,B24:B34)</f>
-        <v>2.4328473642762232E-2</v>
+        <v>2.4328473857970639E-2</v>
       </c>
       <c r="Y10" s="4">
         <f>B24/SUM(B4:B9,B11:B23,B25:B34)</f>
-        <v>2.1923811934412001E-2</v>
+        <v>2.1923812127893617E-2</v>
       </c>
       <c r="Z10" s="4">
         <f>B25/SUM(B4:B9,B11:B24,B26:B34)</f>
-        <v>2.1856492050713005E-2</v>
+        <v>2.1856492243587808E-2</v>
       </c>
       <c r="AA10" s="4">
         <f>B26/SUM(B4:B9,B11:B25,B27:B34)</f>
-        <v>2.0361793408838914E-2</v>
+        <v>1.9349674421253561E-2</v>
       </c>
       <c r="AB10" s="4">
         <f>B27/SUM(B4:B9,B11:B26,B28:B34)</f>
-        <v>1.9658048331136865E-2</v>
+        <v>1.9658048504238065E-2</v>
       </c>
       <c r="AC10" s="4">
         <f>B28/SUM(B4:B9,B11:B27,B29:B34)</f>
-        <v>1.9638196777198323E-2</v>
+        <v>1.9349674421253561E-2</v>
       </c>
       <c r="AD10" s="4">
         <f>B29/SUM(B4:B9,B11:B28,B30:B34)</f>
-        <v>1.8540947551252549E-2</v>
+        <v>1.8540947714338122E-2</v>
       </c>
       <c r="AE10" s="4">
         <f>B30/SUM(B4:B9,B11:B29,B31:B34)</f>
-        <v>1.8259915117396237E-2</v>
+        <v>1.8259915277965541E-2</v>
       </c>
       <c r="AF10" s="4">
         <f>B31/SUM(B4:B9,B11:B30,B32:B34)</f>
-        <v>1.8051776410178782E-2</v>
+        <v>1.9349674421253561E-2</v>
       </c>
       <c r="AG10" s="4">
         <f>B32/SUM(B4:B9,B11:B31,B33:B34)</f>
-        <v>1.7269639467442467E-2</v>
+        <v>1.7269639619156053E-2</v>
       </c>
       <c r="AH10" s="4">
         <f>B33/SUM(B4:B9,B11:B32,B34)</f>
-        <v>1.695019730025997E-2</v>
+        <v>3.8352789963573365E-2</v>
       </c>
       <c r="AI10" s="4">
         <f>B34/SUM(B4:B9,B11:B33)</f>
-        <v>1.5484245904774279E-2</v>
+        <v>1.5484246040564462E-2</v>
       </c>
     </row>
     <row r="11" spans="1:35" x14ac:dyDescent="0.2">
@@ -3011,260 +3116,261 @@
         <v>24469733</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="D11" t="s">
         <v>31</v>
       </c>
       <c r="E11" s="4">
         <f>B4/SUM(B5:B10,B12:B34)</f>
-        <v>8.4916377646834421E-2</v>
+        <v>8.4916378441044382E-2</v>
       </c>
       <c r="F11" s="4">
         <f>B5/SUM(B4,B6:B10,B12:B34)</f>
-        <v>6.5734293831258839E-2</v>
+        <v>6.5734294435191548E-2</v>
       </c>
       <c r="G11" s="4">
         <f>B6/SUM(B4:B5,B7:B10,B12:B34)</f>
-        <v>6.1832068250625496E-2</v>
+        <v>6.183206881662652E-2</v>
       </c>
       <c r="H11" s="4">
         <f>B7/SUM(B4:B6,B8:B10,B12:B34)</f>
-        <v>6.0563478157146078E-2</v>
+        <v>3.8283392831109674E-2</v>
       </c>
       <c r="I11" s="4">
         <f>B8/SUM(B4:B7,B9:B10,B12:B34)</f>
-        <v>5.9026159920775208E-2</v>
+        <v>5.9026160459663593E-2</v>
       </c>
       <c r="J11" s="4">
         <f>B9/SUM(B4:B8,B10,B12:B34)</f>
-        <v>4.8673509381954486E-2</v>
+        <v>3.7480720654339793E-2</v>
       </c>
       <c r="K11" s="4">
         <f>B10/SUM(B4:B9,B12:B34)</f>
-        <v>4.5951212027169841E-2</v>
+        <v>4.5951212441509022E-2</v>
       </c>
       <c r="L11" s="3"/>
       <c r="M11" s="4">
         <f>B12/SUM(B4:B10,B13:B34)</f>
-        <v>4.3072042023482152E-2</v>
+        <v>3.5086360330696509E-2</v>
       </c>
       <c r="N11" s="4">
         <f>B13/SUM(B4:B10,B12,B14:B34)</f>
-        <v>4.148073654315089E-2</v>
+        <v>4.1480736915581448E-2</v>
       </c>
       <c r="O11" s="4">
         <f>B14/SUM(B4:B10,B12:B13,B15:B34)</f>
-        <v>3.9721199043219746E-2</v>
+        <v>3.9721199399249958E-2</v>
       </c>
       <c r="P11" s="4">
         <f>B15/SUM(B4:B10,B12:B14,B16:B34)</f>
-        <v>3.9152521007423967E-2</v>
+        <v>3.9152521358165049E-2</v>
       </c>
       <c r="Q11" s="4">
         <f>B16/SUM(B4:B10,B12:B15,B17:B34)</f>
-        <v>3.8630658086325667E-2</v>
+        <v>3.7480720654339793E-2</v>
       </c>
       <c r="R11" s="4">
         <f>B17/SUM(B4:B10,B12:B16,B18:B34)</f>
-        <v>3.6476248975901369E-2</v>
+        <v>3.6476249301825962E-2</v>
       </c>
       <c r="S11" s="4">
         <f>B18/SUM(B4:B10,B12:B17,B19:B34)</f>
-        <v>3.537096242010053E-2</v>
+        <v>3.5370962735812077E-2</v>
       </c>
       <c r="T11" s="4">
         <f>B19/SUM(B4:B10,B12:B18,B20:B34)</f>
-        <v>3.1008467714011022E-2</v>
+        <v>3.1008467989617958E-2</v>
       </c>
       <c r="U11" s="4">
         <f>B20/SUM(B4:B10,B12:B19,B21:B34)</f>
-        <v>2.7222026386315604E-2</v>
+        <v>3.5086360330696509E-2</v>
       </c>
       <c r="V11" s="4">
         <f>B21/SUM(B4:B10,B12:B20,B22:B34)</f>
-        <v>2.6989069529620414E-2</v>
+        <v>2.698906976856728E-2</v>
       </c>
       <c r="W11" s="4">
         <f>B22/SUM(B4:B10,B12:B21,B23:B34)</f>
-        <v>2.5401036414457373E-2</v>
+        <v>3.7480720654339793E-2</v>
       </c>
       <c r="X11" s="4">
         <f>B23/SUM(B4:B10,B12:B22,B24:B34)</f>
-        <v>2.4285046190976069E-2</v>
+        <v>2.4285046405416844E-2</v>
       </c>
       <c r="Y11" s="4">
         <f>B24/SUM(B4:B10,B12:B23,B25:B34)</f>
-        <v>2.1884768622884982E-2</v>
+        <v>2.1884768815678086E-2</v>
       </c>
       <c r="Z11" s="4">
         <f>B25/SUM(B4:B10,B12:B24,B26:B34)</f>
-        <v>2.1817571186233953E-2</v>
+        <v>2.1817571378422444E-2</v>
       </c>
       <c r="AA11" s="4">
         <f>B26/SUM(B4:B10,B12:B25,B27:B34)</f>
-        <v>2.0325587166276648E-2</v>
+        <v>1.9315301941751597E-2</v>
       </c>
       <c r="AB11" s="4">
         <f>B27/SUM(B4:B10,B12:B26,B28:B34)</f>
-        <v>1.9623117515701859E-2</v>
+        <v>1.9623117688188425E-2</v>
       </c>
       <c r="AC11" s="4">
         <f>B28/SUM(B4:B10,B12:B27,B29:B34)</f>
-        <v>1.960330191459143E-2</v>
+        <v>1.9315301941751597E-2</v>
       </c>
       <c r="AD11" s="3"/>
       <c r="AE11" s="4">
         <f>B30/SUM(B4:B10,B12:B29,B31:B34)</f>
-        <v>1.822751308632314E-2</v>
+        <v>1.8227513246323091E-2</v>
       </c>
       <c r="AF11" s="4">
         <f>B31/SUM(B4:B10,B12:B30,B32:B34)</f>
-        <v>1.8019750255161598E-2</v>
+        <v>1.9315301941751597E-2</v>
       </c>
       <c r="AG11" s="4">
         <f>B32/SUM(B4:B10,B12:B31,B33:B34)</f>
-        <v>1.7239024420068468E-2</v>
+        <v>1.7239024571244627E-2</v>
       </c>
       <c r="AH11" s="4">
         <f>B33/SUM(B4:B10,B12:B32,B34)</f>
-        <v>1.6920157968587604E-2</v>
+        <v>3.8283392831109674E-2</v>
       </c>
       <c r="AI11" s="4">
         <f>B34/SUM(B4:B10,B12:B33)</f>
-        <v>1.5456844035960815E-2</v>
+        <v>1.5456844171270818E-2</v>
       </c>
     </row>
     <row r="12" spans="1:35" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
+      <c r="A12" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="B12" s="2">
-        <v>23949892</v>
+      <c r="B12" s="17">
+        <f>TRUNC(B46)</f>
+        <v>19660028</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="D12" t="s">
         <v>32</v>
       </c>
       <c r="E12" s="4">
         <f>B4/SUM(B5:B11,B13:B34)</f>
-        <v>8.4833885282743909E-2</v>
+        <v>8.4159207489467786E-2</v>
       </c>
       <c r="F12" s="4">
         <f>B5/SUM(B4,B6:B11,B13:B34)</f>
-        <v>6.5671563955538872E-2</v>
+        <v>6.51584361297914E-2</v>
       </c>
       <c r="G12" s="4">
         <f>B6/SUM(B4:B5,B7:B11,B13:B34)</f>
-        <v>6.1773278094596082E-2</v>
+        <v>6.129236158918059E-2</v>
       </c>
       <c r="H12" s="4">
         <f>B7/SUM(B4:B6,B8:B11,B13:B34)</f>
-        <v>6.0505962912494687E-2</v>
+        <v>3.7956580056596675E-2</v>
       </c>
       <c r="I12" s="4">
         <f>B8/SUM(B4:B7,B9:B11,B13:B34)</f>
-        <v>5.897018579603449E-2</v>
+        <v>5.8512294489188287E-2</v>
       </c>
       <c r="J12" s="4">
         <f>B9/SUM(B4:B8,B10:B11,B13:B34)</f>
-        <v>4.8627803396546675E-2</v>
+        <v>3.7161005273049719E-2</v>
       </c>
       <c r="K12" s="4">
         <f>B10/SUM(B4:B9,B11,B13:B34)</f>
-        <v>4.5908174275411072E-2</v>
+        <v>4.5556069962330609E-2</v>
       </c>
       <c r="L12" s="4">
         <f>B11/SUM(B4:B10,B13:B34)</f>
-        <v>4.4006936151502814E-2</v>
+        <v>4.3670022709730381E-2</v>
       </c>
       <c r="M12" s="3"/>
       <c r="N12" s="4">
         <f>B13/SUM(B4:B11,B14:B34)</f>
-        <v>4.1442051719891522E-2</v>
+        <v>4.112554834309249E-2</v>
       </c>
       <c r="O12" s="4">
         <f>B14/SUM(B4:B11,B13,B15:B34)</f>
-        <v>3.9684217685698582E-2</v>
+        <v>3.9381646990652996E-2</v>
       </c>
       <c r="P12" s="4">
         <f>B15/SUM(B4:B11,B13:B14,B16:B34)</f>
-        <v>3.9116089021248829E-2</v>
+        <v>3.8818011728853609E-2</v>
       </c>
       <c r="Q12" s="4">
         <f>B16/SUM(B4:B11,B13:B15,B17:B34)</f>
-        <v>3.8594729736637835E-2</v>
+        <v>3.7161005273049719E-2</v>
       </c>
       <c r="R12" s="4">
         <f>B17/SUM(B4:B11,B13:B16,B18:B34)</f>
-        <v>3.6442394633021818E-2</v>
+        <v>3.616540087090326E-2</v>
       </c>
       <c r="S12" s="4">
         <f>B18/SUM(B4:B11,B13:B17,B19:B34)</f>
-        <v>3.5338168891470303E-2</v>
+        <v>3.5069852195722305E-2</v>
       </c>
       <c r="T12" s="4">
         <f>B19/SUM(B4:B11,B13:B18,B20:B34)</f>
-        <v>3.0979839811667423E-2</v>
+        <v>3.0745597873857729E-2</v>
       </c>
       <c r="U12" s="3"/>
       <c r="V12" s="4">
         <f>B21/SUM(B4:B11,B13:B20,B22:B34)</f>
-        <v>2.6964249500572988E-2</v>
+        <v>2.6761157992824722E-2</v>
       </c>
       <c r="W12" s="4">
         <f>B22/SUM(B4:B11,B13:B21,B23:B34)</f>
-        <v>2.5377712880298237E-2</v>
+        <v>3.7161005273049719E-2</v>
       </c>
       <c r="X12" s="4">
         <f>B23/SUM(B4:B11,B13:B22,B24:B34)</f>
-        <v>2.4262771618882427E-2</v>
+        <v>2.4080504426227851E-2</v>
       </c>
       <c r="Y12" s="4">
         <f>B24/SUM(B4:B11,B13:B23,B25:B34)</f>
-        <v>2.1864742613178209E-2</v>
+        <v>2.1700871603780255E-2</v>
       </c>
       <c r="Z12" s="4">
         <f>B25/SUM(B4:B11,B13:B24,B26:B34)</f>
-        <v>2.1797607978255189E-2</v>
+        <v>2.1634250779399313E-2</v>
       </c>
       <c r="AA12" s="4">
         <f>B26/SUM(B4:B11,B13:B25,B27:B34)</f>
-        <v>2.0307016263280381E-2</v>
+        <v>1.9153400589091419E-2</v>
       </c>
       <c r="AB12" s="4">
         <f>B27/SUM(B4:B11,B13:B26,B28:B34)</f>
-        <v>1.9605200771440914E-2</v>
+        <v>1.9458586961984378E-2</v>
       </c>
       <c r="AC12" s="4">
         <f>B28/SUM(B4:B11,B13:B27,B29:B34)</f>
-        <v>1.9585403610349602E-2</v>
+        <v>1.9153400589091419E-2</v>
       </c>
       <c r="AD12" s="4">
         <f>B29/SUM(B4:B11,B13:B28,B30:B34)</f>
-        <v>1.8491157601760778E-2</v>
+        <v>1.8353024916777906E-2</v>
       </c>
       <c r="AE12" s="4">
         <f>B30/SUM(B4:B11,B13:B29,B31:B34)</f>
-        <v>1.8210893347074836E-2</v>
+        <v>1.8074891447831015E-2</v>
       </c>
       <c r="AF12" s="4">
         <f>B31/SUM(B4:B11,B13:B30,B32:B34)</f>
-        <v>1.8003323302283287E-2</v>
+        <v>1.9153400589091419E-2</v>
       </c>
       <c r="AG12" s="4">
         <f>B32/SUM(B4:B11,B13:B31,B33:B34)</f>
-        <v>1.7223321224434193E-2</v>
+        <v>1.7094818498931318E-2</v>
       </c>
       <c r="AH12" s="4">
         <f>B33/SUM(B4:B11,B13:B32,B34)</f>
-        <v>1.6904750058434868E-2</v>
+        <v>3.7956580056596675E-2</v>
       </c>
       <c r="AI12" s="4">
         <f>B34/SUM(B4:B11,B13:B33)</f>
-        <v>1.5442788890888265E-2</v>
+        <v>1.532777084225829E-2</v>
       </c>
     </row>
     <row r="13" spans="1:35" x14ac:dyDescent="0.2">
@@ -3275,131 +3381,131 @@
         <v>23100300</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="D13" t="s">
         <v>34</v>
       </c>
       <c r="E13" s="4">
         <f>B4/SUM(B5:B12,B14:B34)</f>
-        <v>8.469940997092977E-2</v>
+        <v>8.4699410761086391E-2</v>
       </c>
       <c r="F13" s="4">
         <f>B5/SUM(B4,B6:B12,B14:B34)</f>
-        <v>6.55692999364242E-2</v>
+        <v>6.5569300537328956E-2</v>
       </c>
       <c r="G13" s="4">
         <f>B6/SUM(B4:B5,B7:B12,B14:B34)</f>
-        <v>6.1677435837205342E-2</v>
+        <v>6.167743640037894E-2</v>
       </c>
       <c r="H13" s="4">
         <f>B7/SUM(B4:B6,B8:B12,B14:B34)</f>
-        <v>6.0412198790674533E-2</v>
+        <v>3.8189770092243717E-2</v>
       </c>
       <c r="I13" s="4">
         <f>B8/SUM(B4:B7,B9:B12,B14:B34)</f>
-        <v>5.8878933751715622E-2</v>
+        <v>5.8878934287919113E-2</v>
       </c>
       <c r="J13" s="4">
         <f>B9/SUM(B4:B8,B10:B12,B14:B34)</f>
-        <v>4.8553289211229721E-2</v>
+        <v>3.7389131551839899E-2</v>
       </c>
       <c r="K13" s="4">
         <f>B10/SUM(B4:B9,B11:B12,B14:B34)</f>
-        <v>4.5838009645027454E-2</v>
+        <v>4.5838010057327669E-2</v>
       </c>
       <c r="L13" s="4">
         <f>B11/SUM(B4:B10,B12,B14:B34)</f>
-        <v>4.3939799390234985E-2</v>
+        <v>4.3939799784743987E-2</v>
       </c>
       <c r="M13" s="4">
         <f>B12/SUM(B4:B11,B14:B34)</f>
-        <v>4.2966223942971137E-2</v>
+        <v>3.5000819553882505E-2</v>
       </c>
       <c r="N13" s="3"/>
       <c r="O13" s="4">
         <f>B14/SUM(B4:B12,B15:B34)</f>
-        <v>3.9623925935994203E-2</v>
+        <v>3.9623926290282788E-2</v>
       </c>
       <c r="P13" s="4">
         <f>B15/SUM(B4:B12,B14,B16:B34)</f>
-        <v>3.9056692847580142E-2</v>
+        <v>3.9056693196606401E-2</v>
       </c>
       <c r="Q13" s="4">
         <f>B16/SUM(B4:B12,B14:B15,B17:B34)</f>
-        <v>3.853615458483356E-2</v>
+        <v>3.7389131551839899E-2</v>
       </c>
       <c r="R13" s="4">
         <f>B17/SUM(B4:B12,B14:B16,B18:B34)</f>
-        <v>3.6387200521594644E-2</v>
+        <v>3.6387200845929835E-2</v>
       </c>
       <c r="S13" s="4">
         <f>B18/SUM(B4:B12,B14:B17,B19:B34)</f>
-        <v>3.5284704129450298E-2</v>
+        <v>3.5284704443623881E-2</v>
       </c>
       <c r="T13" s="4">
         <f>B19/SUM(B4:B12,B14:B18,B20:B34)</f>
-        <v>3.093316597761607E-2</v>
+        <v>3.0933166251886048E-2</v>
       </c>
       <c r="U13" s="4">
         <f>B20/SUM(B4:B12,B14:B19,B21:B34)</f>
-        <v>2.7156161931752083E-2</v>
+        <v>3.5000819553882505E-2</v>
       </c>
       <c r="V13" s="4">
         <f>B21/SUM(B4:B12,B14:B20,B22:B34)</f>
-        <v>2.6923783494003692E-2</v>
+        <v>2.692378373179594E-2</v>
       </c>
       <c r="W13" s="4">
         <f>B22/SUM(B4:B12,B14:B21,B23:B34)</f>
-        <v>2.5339686582464098E-2</v>
+        <v>3.7389131551839899E-2</v>
       </c>
       <c r="X13" s="4">
         <f>B23/SUM(B4:B12,B14:B22,B24:B34)</f>
-        <v>2.4226455435696639E-2</v>
+        <v>2.4226455649103935E-2</v>
       </c>
       <c r="Y13" s="4">
         <f>B24/SUM(B4:B12,B14:B23,B25:B34)</f>
-        <v>2.1832092273333506E-2</v>
+        <v>2.1832092465199626E-2</v>
       </c>
       <c r="Z13" s="4">
         <f>B25/SUM(B4:B12,B14:B24,B26:B34)</f>
-        <v>2.176506002498799E-2</v>
+        <v>2.1765060216252463E-2</v>
       </c>
       <c r="AA13" s="4">
         <f>B26/SUM(B4:B12,B14:B25,B27:B34)</f>
-        <v>2.0276738213395332E-2</v>
+        <v>1.9268926884030889E-2</v>
       </c>
       <c r="AB13" s="4">
         <f>B27/SUM(B4:B12,B14:B26,B28:B34)</f>
-        <v>1.957598921537218E-2</v>
+        <v>1.9575989387031232E-2</v>
       </c>
       <c r="AC13" s="4">
         <f>B28/SUM(B4:B12,B14:B27,B29:B34)</f>
-        <v>1.9556222117625036E-2</v>
+        <v>1.9268926884030889E-2</v>
       </c>
       <c r="AD13" s="4">
         <f>B29/SUM(B4:B12,B14:B28,B30:B34)</f>
-        <v>1.8463636017771807E-2</v>
+        <v>1.8463636179500156E-2</v>
       </c>
       <c r="AE13" s="4">
         <f>B30/SUM(B4:B12,B14:B29,B31:B34)</f>
-        <v>1.8183796345869176E-2</v>
+        <v>1.8183796505102563E-2</v>
       </c>
       <c r="AF13" s="4">
         <f>B31/SUM(B4:B12,B14:B30,B32:B34)</f>
-        <v>1.7976540608937094E-2</v>
+        <v>1.9268926884030889E-2</v>
       </c>
       <c r="AG13" s="4">
         <f>B32/SUM(B4:B12,B14:B31,B33:B34)</f>
-        <v>1.7197718506159709E-2</v>
+        <v>1.7197718656612276E-2</v>
       </c>
       <c r="AH13" s="4">
         <f>B33/SUM(B4:B12,B14:B32,B34)</f>
-        <v>1.6879628759030874E-2</v>
+        <v>3.8189770092243717E-2</v>
       </c>
       <c r="AI13" s="4">
         <f>B34/SUM(B4:B12,B14:B33)</f>
-        <v>1.5419873081992601E-2</v>
+        <v>1.5419873216656086E-2</v>
       </c>
     </row>
     <row r="14" spans="1:35" x14ac:dyDescent="0.2">
@@ -3410,131 +3516,131 @@
         <v>22157862</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="D14" t="s">
         <v>36</v>
       </c>
       <c r="E14" s="4">
         <f>B4/SUM(B5:B13,B15:B34)</f>
-        <v>8.4550736673793495E-2</v>
+        <v>8.4550737461178624E-2</v>
       </c>
       <c r="F14" s="4">
         <f>B5/SUM(B4,B6:B13,B15:B34)</f>
-        <v>6.5456232153834573E-2</v>
+        <v>6.5456232752668708E-2</v>
       </c>
       <c r="G14" s="4">
         <f>B6/SUM(B4:B5,B7:B13,B15:B34)</f>
-        <v>6.1571466977413974E-2</v>
+        <v>6.157146753865405E-2</v>
       </c>
       <c r="H14" s="4">
         <f>B7/SUM(B4:B6,B8:B13,B15:B34)</f>
-        <v>6.0308527236039119E-2</v>
+        <v>3.8125604875635682E-2</v>
       </c>
       <c r="I14" s="4">
         <f>B8/SUM(B4:B7,B9:B13,B15:B34)</f>
-        <v>5.8778039232377143E-2</v>
+        <v>5.877803976674454E-2</v>
       </c>
       <c r="J14" s="4">
         <f>B9/SUM(B4:B8,B10:B13,B15:B34)</f>
-        <v>4.8470898594991561E-2</v>
+        <v>3.7326359906859168E-2</v>
       </c>
       <c r="K14" s="4">
         <f>B10/SUM(B4:B9,B11:B13,B15:B34)</f>
-        <v>4.5760427698879821E-2</v>
+        <v>4.5760428109785568E-2</v>
       </c>
       <c r="L14" s="4">
         <f>B11/SUM(B4:B10,B12:B13,B15:B34)</f>
-        <v>4.3865564964139708E-2</v>
+        <v>4.3865565357316824E-2</v>
       </c>
       <c r="M14" s="4">
         <f>B12/SUM(B4:B11,B13,B15:B34)</f>
-        <v>4.2893701913883704E-2</v>
+        <v>3.4942192641255448E-2</v>
       </c>
       <c r="N14" s="4">
         <f>B13/SUM(B4:B12,B15:B34)</f>
-        <v>4.1309246185360617E-2</v>
+        <v>4.130924655471812E-2</v>
       </c>
       <c r="O14" s="3"/>
       <c r="P14" s="4">
         <f>B15/SUM(B4:B13,B16:B34)</f>
-        <v>3.8991016351739266E-2</v>
+        <v>3.8991016699592693E-2</v>
       </c>
       <c r="Q14" s="4">
         <f>B16/SUM(B4:B13,B15,B17:B34)</f>
-        <v>3.8471385818633221E-2</v>
+        <v>3.7326359906859168E-2</v>
       </c>
       <c r="R14" s="4">
         <f>B17/SUM(B4:B13,B15:B16,B18:B34)</f>
-        <v>3.6326169895725201E-2</v>
+        <v>3.6326170218973317E-2</v>
       </c>
       <c r="S14" s="4">
         <f>B18/SUM(B4:B13,B15:B17,B19:B34)</f>
-        <v>3.5225585522576215E-2</v>
+        <v>3.5225585835697903E-2</v>
       </c>
       <c r="T14" s="4">
         <f>B19/SUM(B4:B13,B15:B18,B20:B34)</f>
-        <v>3.0881555740362991E-2</v>
+        <v>3.0881556013718527E-2</v>
       </c>
       <c r="U14" s="4">
         <f>B20/SUM(B4:B13,B15:B19,B21:B34)</f>
-        <v>2.7111019131797399E-2</v>
+        <v>3.4942192641255448E-2</v>
       </c>
       <c r="V14" s="4">
         <f>B21/SUM(B4:B13,B15:B20,B22:B34)</f>
-        <v>2.6879037094891416E-2</v>
+        <v>2.6879037331893913E-2</v>
       </c>
       <c r="W14" s="4">
         <f>B22/SUM(B4:B13,B15:B21,B23:B34)</f>
-        <v>2.5297637753061743E-2</v>
+        <v>3.7326359906859168E-2</v>
       </c>
       <c r="X14" s="4">
         <f>B23/SUM(B4:B13,B15:B22,B24:B34)</f>
-        <v>2.4186297484027734E-2</v>
+        <v>2.4186297696728126E-2</v>
       </c>
       <c r="Y14" s="4">
         <f>B24/SUM(B4:B13,B15:B23,B25:B34)</f>
-        <v>2.1795987695977778E-2</v>
+        <v>2.1795987887209826E-2</v>
       </c>
       <c r="Z14" s="4">
         <f>B25/SUM(B4:B13,B15:B24,B26:B34)</f>
-        <v>2.1729068658745933E-2</v>
+        <v>2.1729068849378367E-2</v>
       </c>
       <c r="AA14" s="4">
         <f>B26/SUM(B4:B13,B15:B25,B27:B34)</f>
-        <v>2.0243256741543172E-2</v>
+        <v>1.9237140912672826E-2</v>
       </c>
       <c r="AB14" s="4">
         <f>B27/SUM(B4:B13,B15:B26,B28:B34)</f>
-        <v>1.9543687002770482E-2</v>
+        <v>1.9543687173863497E-2</v>
       </c>
       <c r="AC14" s="4">
         <f>B28/SUM(B4:B13,B15:B27,B29:B34)</f>
-        <v>1.9523953147179494E-2</v>
+        <v>1.9237140912672826E-2</v>
       </c>
       <c r="AD14" s="4">
         <f>B29/SUM(B4:B13,B15:B28,B30:B34)</f>
-        <v>1.8433202476237854E-2</v>
+        <v>1.8433202637433487E-2</v>
       </c>
       <c r="AE14" s="4">
         <f>B30/SUM(B4:B13,B15:B29,B31:B34)</f>
-        <v>1.8153832284817959E-2</v>
+        <v>1.8153832443526995E-2</v>
       </c>
       <c r="AF14" s="4">
         <f>B31/SUM(B4:B13,B15:B30,B32:B34)</f>
-        <v>1.7946924092885563E-2</v>
+        <v>1.9237140912672826E-2</v>
       </c>
       <c r="AG14" s="4">
         <f>B32/SUM(B4:B13,B15:B31,B33:B34)</f>
-        <v>1.7169406748002783E-2</v>
+        <v>1.7169406897960392E-2</v>
       </c>
       <c r="AH14" s="4">
         <f>B33/SUM(B4:B13,B15:B32,B34)</f>
-        <v>1.68518493317475E-2</v>
+        <v>3.8125604875635682E-2</v>
       </c>
       <c r="AI14" s="4">
         <f>B34/SUM(B4:B13,B15:B33)</f>
-        <v>1.5394532397954245E-2</v>
+        <v>1.5394532532175487E-2</v>
       </c>
     </row>
     <row r="15" spans="1:35" x14ac:dyDescent="0.2">
@@ -3545,257 +3651,258 @@
         <v>21852586</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="D15" t="s">
         <v>38</v>
       </c>
       <c r="E15" s="4">
         <f>B4/SUM(B5:B14,B16:B34)</f>
-        <v>8.4502690036677194E-2</v>
+        <v>8.4502690823167692E-2</v>
       </c>
       <c r="F15" s="4">
         <f>B5/SUM(B4,B6:B14,B16:B34)</f>
-        <v>6.5419690627158744E-2</v>
+        <v>6.5419691225324456E-2</v>
       </c>
       <c r="G15" s="4">
         <f>B6/SUM(B4:B5,B7:B14,B16:B34)</f>
-        <v>6.1537219412825236E-2</v>
+        <v>6.153721997344113E-2</v>
       </c>
       <c r="H15" s="4">
         <f>B7/SUM(B4:B6,B8:B14,B16:B34)</f>
-        <v>6.0275022035646685E-2</v>
+        <v>3.8104866585801318E-2</v>
       </c>
       <c r="I15" s="4">
         <f>B8/SUM(B4:B7,B9:B14,B16:B34)</f>
-        <v>5.8745431423998906E-2</v>
+        <v>5.874543195777357E-2</v>
       </c>
       <c r="J15" s="4">
         <f>B9/SUM(B4:B8,B10:B14,B16:B34)</f>
-        <v>4.844427042086355E-2</v>
+        <v>3.7306071986585365E-2</v>
       </c>
       <c r="K15" s="4">
         <f>B10/SUM(B4:B9,B11:B14,B16:B34)</f>
-        <v>4.5735353513524458E-2</v>
+        <v>4.5735353923980017E-2</v>
       </c>
       <c r="L15" s="4">
         <f>B11/SUM(B4:B10,B12:B14,B16:B34)</f>
-        <v>4.3841572586812178E-2</v>
+        <v>4.3841572979559311E-2</v>
       </c>
       <c r="M15" s="4">
         <f>B12/SUM(B4:B11,B13:B14,B16:B34)</f>
-        <v>4.2870262930039274E-2</v>
+        <v>3.4923244209796971E-2</v>
       </c>
       <c r="N15" s="4">
         <f>B13/SUM(B4:B12,B14,B16:B34)</f>
-        <v>4.1286707293450561E-2</v>
+        <v>4.1286707662405123E-2</v>
       </c>
       <c r="O15" s="4">
         <f>B14/SUM(B4:B13,B16:B34)</f>
-        <v>3.9535712595368901E-2</v>
+        <v>3.9535712948081767E-2</v>
       </c>
       <c r="P15" s="3"/>
       <c r="Q15" s="4">
         <f>B16/SUM(B4:B14,B17:B34)</f>
-        <v>3.8450452476233882E-2</v>
+        <v>3.7306071986585365E-2</v>
       </c>
       <c r="R15" s="4">
         <f>B17/SUM(B4:B14,B16,B18:B34)</f>
-        <v>3.6306444633962404E-2</v>
+        <v>3.6306444956859571E-2</v>
       </c>
       <c r="S15" s="4">
         <f>B18/SUM(B4:B14,B16:B17,B19:B34)</f>
-        <v>3.5206478185363585E-2</v>
+        <v>3.5206478498145677E-2</v>
       </c>
       <c r="T15" s="4">
         <f>B19/SUM(B4:B14,B16:B18,B20:B34)</f>
-        <v>3.086487497861358E-2</v>
+        <v>3.086487525167389E-2</v>
       </c>
       <c r="U15" s="4">
         <f>B20/SUM(B4:B14,B16:B19,B21:B34)</f>
-        <v>2.7096428569508245E-2</v>
+        <v>3.4923244209796971E-2</v>
       </c>
       <c r="V15" s="4">
         <f>B21/SUM(B4:B14,B16:B20,B22:B34)</f>
-        <v>2.6864574645752017E-2</v>
+        <v>2.6864574882499544E-2</v>
       </c>
       <c r="W15" s="4">
         <f>B22/SUM(B4:B14,B16:B21,B23:B34)</f>
-        <v>2.5284047137243939E-2</v>
+        <v>3.7306071986585365E-2</v>
       </c>
       <c r="X15" s="4">
         <f>B23/SUM(B4:B14,B16:B22,B24:B34)</f>
-        <v>2.4173317988474122E-2</v>
+        <v>2.4173318200946283E-2</v>
       </c>
       <c r="Y15" s="4">
         <f>B24/SUM(B4:B14,B16:B23,B25:B34)</f>
-        <v>2.1784318236141523E-2</v>
+        <v>2.178431842716886E-2</v>
       </c>
       <c r="Z15" s="4">
         <f>B25/SUM(B4:B14,B16:B24,B26:B34)</f>
-        <v>2.1717435788515489E-2</v>
+        <v>2.1717435978943864E-2</v>
       </c>
       <c r="AA15" s="4">
         <f>B26/SUM(B4:B14,B16:B25,B27:B34)</f>
-        <v>2.0232435066812996E-2</v>
+        <v>1.9226867224977254E-2</v>
       </c>
       <c r="AB15" s="4">
         <f>B27/SUM(B4:B14,B16:B26,B28:B34)</f>
-        <v>1.9533246465270816E-2</v>
+        <v>1.9533246636181077E-2</v>
       </c>
       <c r="AC15" s="4">
         <f>B28/SUM(B4:B14,B16:B27,B29:B34)</f>
-        <v>1.9513523353579032E-2</v>
+        <v>1.9226867224977254E-2</v>
       </c>
       <c r="AD15" s="4">
         <f>B29/SUM(B4:B14,B16:B28,B30:B34)</f>
-        <v>1.8423365896544367E-2</v>
+        <v>1.8423366057568009E-2</v>
       </c>
       <c r="AE15" s="4">
         <f>B30/SUM(B4:B14,B16:B29,B31:B34)</f>
-        <v>1.8144147442494367E-2</v>
+        <v>1.8144147601034107E-2</v>
       </c>
       <c r="AF15" s="4">
         <f>B31/SUM(B4:B14,B16:B30,B32:B34)</f>
-        <v>1.7937351578167005E-2</v>
+        <v>1.9226867224977254E-2</v>
       </c>
       <c r="AG15" s="4">
         <f>B32/SUM(B4:B14,B16:B31,B33:B34)</f>
-        <v>1.7160255935894816E-2</v>
+        <v>1.7160256085692622E-2</v>
       </c>
       <c r="AH15" s="4">
         <f>B33/SUM(B4:B14,B16:B32,B34)</f>
-        <v>1.6842870571357884E-2</v>
+        <v>3.8104866585801318E-2</v>
       </c>
       <c r="AI15" s="4">
         <f>B34/SUM(B4:B14,B16:B33)</f>
-        <v>1.5386341853237685E-2</v>
+        <v>1.5386341987316143E-2</v>
       </c>
     </row>
     <row r="16" spans="1:35" x14ac:dyDescent="0.2">
-      <c r="A16" t="s">
+      <c r="A16" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="B16" s="2">
-        <v>21572147</v>
+      <c r="B16" s="17">
+        <f>TRUNC(C46)</f>
+        <v>20953197</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="D16" t="s">
         <v>40</v>
       </c>
       <c r="E16" s="4">
         <f>B4/SUM(B5:B15,B17:B34)</f>
-        <v>8.445860053114107E-2</v>
+        <v>8.4361455094428731E-2</v>
       </c>
       <c r="F16" s="4">
         <f>B5/SUM(B4,B6:B15,B17:B34)</f>
-        <v>6.5386158025304772E-2</v>
+        <v>6.5312271166810751E-2</v>
       </c>
       <c r="G16" s="4">
         <f>B6/SUM(B4:B5,B7:B15,B17:B34)</f>
-        <v>6.1505791759551287E-2</v>
+        <v>6.1436542600929754E-2</v>
       </c>
       <c r="H16" s="4">
         <f>B7/SUM(B4:B6,B8:B15,B17:B34)</f>
-        <v>6.0244275582003078E-2</v>
+        <v>3.8043899402517081E-2</v>
       </c>
       <c r="I16" s="4">
         <f>B8/SUM(B4:B7,B9:B15,B17:B34)</f>
-        <v>5.8715508427008831E-2</v>
+        <v>5.8649574414604728E-2</v>
       </c>
       <c r="J16" s="3"/>
       <c r="K16" s="4">
         <f>B10/SUM(B4:B9,B11:B15,B17:B34)</f>
-        <v>4.57123435467661E-2</v>
+        <v>4.5661641076853547E-2</v>
       </c>
       <c r="L16" s="4">
         <f>B11/SUM(B4:B10,B12:B15,B17:B34)</f>
-        <v>4.3819555326907421E-2</v>
+        <v>4.3771040145295252E-2</v>
       </c>
       <c r="M16" s="4">
         <f>B12/SUM(B4:B11,B13:B15,B17:B34)</f>
-        <v>4.284875348576405E-2</v>
+        <v>3.4867538551577835E-2</v>
       </c>
       <c r="N16" s="4">
         <f>B13/SUM(B4:B12,B14:B15,B17:B34)</f>
-        <v>4.1266023810983245E-2</v>
+        <v>4.1220447437542218E-2</v>
       </c>
       <c r="O16" s="4">
         <f>B14/SUM(B4:B13,B15,B17:B34)</f>
-        <v>3.9515939601099143E-2</v>
+        <v>3.9472369384897121E-2</v>
       </c>
       <c r="P16" s="4">
         <f>B15/SUM(B4:B14,B17:B34)</f>
-        <v>3.8950310299471533E-2</v>
+        <v>3.8907387087948803E-2</v>
       </c>
       <c r="Q16" s="3"/>
       <c r="R16" s="4">
         <f>B17/SUM(B4:B15,B18:B34)</f>
-        <v>3.6288343071992489E-2</v>
+        <v>3.6248455694124694E-2</v>
       </c>
       <c r="S16" s="4">
         <f>B18/SUM(B4:B15,B17,B19:B34)</f>
-        <v>3.5188943663627598E-2</v>
+        <v>3.5150305711770254E-2</v>
       </c>
       <c r="T16" s="4">
         <f>B19/SUM(B4:B15,B17:B18,B20:B34)</f>
-        <v>3.0849567222597518E-2</v>
+        <v>3.0815835803703555E-2</v>
       </c>
       <c r="U16" s="4">
         <f>B20/SUM(B4:B15,B17:B19,B21:B34)</f>
-        <v>2.708303891637262E-2</v>
+        <v>3.4867538551577835E-2</v>
       </c>
       <c r="V16" s="4">
         <f>B21/SUM(B4:B15,B17:B20,B22:B34)</f>
-        <v>2.6851302558030546E-2</v>
+        <v>2.6822056657436411E-2</v>
       </c>
       <c r="W16" s="3"/>
       <c r="X16" s="4">
         <f>B23/SUM(B4:B15,B17:B22,B24:B34)</f>
-        <v>2.416140676458603E-2</v>
+        <v>2.413515950627497E-2</v>
       </c>
       <c r="Y16" s="3"/>
       <c r="Z16" s="4">
         <f>B25/SUM(B4:B15,B17:B24,B26:B34)</f>
-        <v>2.1706760330187848E-2</v>
+        <v>2.1683236083177633E-2</v>
       </c>
       <c r="AA16" s="4">
         <f>B26/SUM(B4:B15,B17:B25,B27:B34)</f>
-        <v>2.0222504025908427E-2</v>
+        <v>1.9196663084232946E-2</v>
       </c>
       <c r="AB16" s="4">
         <f>B27/SUM(B4:B15,B17:B26,B28:B34)</f>
-        <v>1.9523665186915534E-2</v>
+        <v>1.9502551984038208E-2</v>
       </c>
       <c r="AC16" s="4">
         <f>B28/SUM(B4:B15,B17:B27,B29:B34)</f>
-        <v>1.9503951934707265E-2</v>
+        <v>1.9196663084232946E-2</v>
       </c>
       <c r="AD16" s="4">
         <f>B29/SUM(B4:B15,B17:B28,B30:B34)</f>
-        <v>1.8414338860026823E-2</v>
+        <v>1.8394446944528586E-2</v>
       </c>
       <c r="AE16" s="4">
         <f>B30/SUM(B4:B15,B17:B29,B31:B34)</f>
-        <v>1.8135259652979317E-2</v>
+        <v>1.8115674572788155E-2</v>
       </c>
       <c r="AF16" s="4">
         <f>B31/SUM(B4:B15,B17:B30,B32:B34)</f>
-        <v>1.7928566869981365E-2</v>
+        <v>1.9196663084232946E-2</v>
       </c>
       <c r="AG16" s="4">
         <f>B32/SUM(B4:B15,B17:B31,B33:B34)</f>
-        <v>1.7151858218137479E-2</v>
+        <v>1.7133353029098616E-2</v>
       </c>
       <c r="AH16" s="4">
         <f>B33/SUM(B4:B15,B17:B32,B34)</f>
-        <v>1.6834630743161993E-2</v>
+        <v>3.8043899402517081E-2</v>
       </c>
       <c r="AI16" s="4">
         <f>B34/SUM(B4:B15,B17:B33)</f>
-        <v>1.5378825361295121E-2</v>
+        <v>1.5362261993886557E-2</v>
       </c>
     </row>
     <row r="17" spans="1:35" x14ac:dyDescent="0.2">
@@ -3806,131 +3913,131 @@
         <v>20411420</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="D17" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="E17" s="4">
         <f>B4/SUM(B5:B16,B18:B34)</f>
-        <v>8.4276603879799877E-2</v>
+        <v>8.4276604662087501E-2</v>
       </c>
       <c r="F17" s="4">
         <f>B5/SUM(B4,B6:B16,B18:B34)</f>
-        <v>6.5247732599638036E-2</v>
+        <v>6.5247733194663288E-2</v>
       </c>
       <c r="G17" s="4">
         <f>B6/SUM(B4:B5,B7:B16,B18:B34)</f>
-        <v>6.1376054497526221E-2</v>
+        <v>6.1376055055209475E-2</v>
       </c>
       <c r="H17" s="4">
         <f>B7/SUM(B4:B6,B8:B16,B18:B34)</f>
-        <v>6.0117350001535223E-2</v>
+        <v>3.8007267849657821E-2</v>
       </c>
       <c r="I17" s="4">
         <f>B8/SUM(B4:B7,B9:B16,B18:B34)</f>
-        <v>5.8591981722463049E-2</v>
+        <v>5.8591982253452801E-2</v>
       </c>
       <c r="J17" s="4">
         <f>B9/SUM(B4:B8,B10:B16,B18:B34)</f>
-        <v>4.8318956531548392E-2</v>
+        <v>3.7210592555773504E-2</v>
       </c>
       <c r="K17" s="4">
         <f>B10/SUM(B4:B9,B11:B16,B18:B34)</f>
-        <v>4.561735183843791E-2</v>
+        <v>4.5617352246778174E-2</v>
       </c>
       <c r="L17" s="4">
         <f>B11/SUM(B4:B10,B12:B16,B18:B34)</f>
-        <v>4.3728661371028085E-2</v>
+        <v>4.3728661761754828E-2</v>
       </c>
       <c r="M17" s="4">
         <f>B12/SUM(B4:B11,B13:B16,B18:B34)</f>
-        <v>4.2759955734694211E-2</v>
+        <v>3.4834068073322802E-2</v>
       </c>
       <c r="N17" s="4">
         <f>B13/SUM(B4:B12,B14:B16,B18:B34)</f>
-        <v>4.118063555641855E-2</v>
+        <v>4.1180635923479751E-2</v>
       </c>
       <c r="O17" s="4">
         <f>B14/SUM(B4:B13,B15:B16,B18:B34)</f>
-        <v>3.943430979020731E-2</v>
+        <v>3.9434310141113191E-2</v>
       </c>
       <c r="P17" s="4">
         <f>B15/SUM(B4:B14,B16,B18:B34)</f>
-        <v>3.8869892624712146E-2</v>
+        <v>3.8869892970407743E-2</v>
       </c>
       <c r="Q17" s="4">
         <f>B16/SUM(B4:B14,B15,B18:B34)</f>
-        <v>3.8351935883708901E-2</v>
+        <v>3.7210592555773504E-2</v>
       </c>
       <c r="R17" s="3"/>
       <c r="S17" s="4">
         <f>B18/SUM(B4:B16,B19:B34)</f>
-        <v>3.5116554274197152E-2</v>
+        <v>3.5116554585383479E-2</v>
       </c>
       <c r="T17" s="4">
         <f>B19/SUM(B4:B16,B18,B20:B34)</f>
-        <v>3.078637011926736E-2</v>
+        <v>3.0786370390940378E-2</v>
       </c>
       <c r="U17" s="4">
         <f>B20/SUM(B4:B16,B18:B19,B21:B34)</f>
-        <v>2.7027760065582392E-2</v>
+        <v>3.4834068073322802E-2</v>
       </c>
       <c r="V17" s="4">
         <f>B21/SUM(B4:B16,B18:B20,B22:B34)</f>
-        <v>2.6796509041790297E-2</v>
+        <v>2.6796509277339672E-2</v>
       </c>
       <c r="W17" s="4">
         <f>B22/SUM(B4:B16,B18:B21,B23:B34)</f>
-        <v>2.5220084399056448E-2</v>
+        <v>3.7210592555773504E-2</v>
       </c>
       <c r="X17" s="4">
         <f>B23/SUM(B4:B16,B18:B22,B24:B34)</f>
-        <v>2.4112231217592772E-2</v>
+        <v>2.411223142899244E-2</v>
       </c>
       <c r="Y17" s="4">
         <f>B24/SUM(B4:B16,B18:B23,B25:B34)</f>
-        <v>2.172939663220215E-2</v>
+        <v>2.1729396822267481E-2</v>
       </c>
       <c r="Z17" s="4">
         <f>B25/SUM(B4:B16,B18:B24,B26:B34)</f>
-        <v>2.1662686380378684E-2</v>
+        <v>2.1662686569848134E-2</v>
       </c>
       <c r="AA17" s="4">
         <f>B26/SUM(B4:B16,B18:B25,B27:B34)</f>
-        <v>2.0181503275521116E-2</v>
+        <v>1.9178514367894008E-2</v>
       </c>
       <c r="AB17" s="4">
         <f>B27/SUM(B4:B16,B18:B26,B28:B34)</f>
-        <v>1.9484108378748706E-2</v>
+        <v>1.9484108548800158E-2</v>
       </c>
       <c r="AC17" s="4">
         <f>B28/SUM(B4:B16,B18:B27,B29:B34)</f>
-        <v>1.9464435830010077E-2</v>
+        <v>1.9178514367894008E-2</v>
       </c>
       <c r="AD17" s="4">
         <f>B29/SUM(B4:B16,B18:B28,B30:B34)</f>
-        <v>1.8377070166176141E-2</v>
+        <v>1.8377070326391534E-2</v>
       </c>
       <c r="AE17" s="4">
         <f>B30/SUM(B4:B16,B18:B29,B31:B34)</f>
-        <v>1.8098565823946134E-2</v>
+        <v>1.8098565981690309E-2</v>
       </c>
       <c r="AF17" s="4">
         <f>B31/SUM(B4:B16,B18:B30,B32:B34)</f>
-        <v>1.7892298600553747E-2</v>
+        <v>1.9178514367894008E-2</v>
       </c>
       <c r="AG17" s="4">
         <f>B32/SUM(B4:B16,B18:B31,B33:B34)</f>
-        <v>1.7117187598720565E-2</v>
+        <v>1.7117187747767399E-2</v>
       </c>
       <c r="AH17" s="4">
         <f>B33/SUM(B4:B16,B18:B32,B34)</f>
-        <v>1.680061195622257E-2</v>
+        <v>3.8007267849657821E-2</v>
       </c>
       <c r="AI17" s="4">
         <f>B34/SUM(B4:B16,B18:B33)</f>
-        <v>1.5347792814157735E-2</v>
+        <v>1.5347792947565194E-2</v>
       </c>
     </row>
     <row r="18" spans="1:35" x14ac:dyDescent="0.2">
@@ -3941,128 +4048,128 @@
         <v>19814052</v>
       </c>
       <c r="C18" s="5" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="D18" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="E18" s="4">
         <f>B4/SUM(B5:B17,B19:B34)</f>
-        <v>8.4183244696299467E-2</v>
+        <v>8.4183245476854865E-2</v>
       </c>
       <c r="F18" s="4">
         <f>B5/SUM(B4,B6:B17,B19:B34)</f>
-        <v>6.5176720162538032E-2</v>
+        <v>6.5176720756268791E-2</v>
       </c>
       <c r="G18" s="4">
         <f>B6/SUM(B4:B5,B7:B17,B19:B34)</f>
-        <v>6.1309498324066194E-2</v>
+        <v>6.1309498880540596E-2</v>
       </c>
       <c r="H18" s="4">
         <f>B7/SUM(B4:B6,B8:B17,B19:B34)</f>
-        <v>6.005223599451226E-2</v>
+        <v>3.7966959268492972E-2</v>
       </c>
       <c r="I18" s="4">
         <f>B8/SUM(B4:B7,B9:B17,B19:B34)</f>
-        <v>5.8528611079228521E-2</v>
+        <v>5.8528611609070295E-2</v>
       </c>
       <c r="J18" s="4">
         <f>B9/SUM(B4:B8,B10:B17,B19:B34)</f>
-        <v>4.8267203371551756E-2</v>
+        <v>3.7171159144477224E-2</v>
       </c>
       <c r="K18" s="4">
         <f>B10/SUM(B4:B9,B11:B17,B19:B34)</f>
-        <v>4.5568618076543665E-2</v>
+        <v>4.5568618484011926E-2</v>
       </c>
       <c r="L18" s="4">
         <f>B11/SUM(B4:B10,B12:B17,B19:B34)</f>
-        <v>4.3682029620841507E-2</v>
+        <v>4.3682030010735368E-2</v>
       </c>
       <c r="M18" s="4">
         <f>B12/SUM(B4:B11,B13:B17,B19:B34)</f>
-        <v>4.2714399277264115E-2</v>
+        <v>3.4797237643454347E-2</v>
       </c>
       <c r="N18" s="4">
         <f>B13/SUM(B4:B12,B14:B17,B19:B34)</f>
-        <v>4.1136828085519342E-2</v>
+        <v>4.1136828451800007E-2</v>
       </c>
       <c r="O18" s="4">
         <f>B14/SUM(B4:B13,B15:B17,B19:B34)</f>
-        <v>3.9392430325631611E-2</v>
+        <v>3.939243067579256E-2</v>
       </c>
       <c r="P18" s="4">
         <f>B15/SUM(B4:B14,B16:B17,B19:B34)</f>
-        <v>3.8828634965870773E-2</v>
+        <v>3.8828635310832901E-2</v>
       </c>
       <c r="Q18" s="4">
         <f>B16/SUM(B4:B15,B17,B19:B34)</f>
-        <v>3.8311248274027598E-2</v>
+        <v>3.7171159144477224E-2</v>
       </c>
       <c r="R18" s="4">
         <f>B17/SUM(B4:B16,B19:B34)</f>
-        <v>3.617527289437987E-2</v>
+        <v>3.617527321494806E-2</v>
       </c>
       <c r="S18" s="3"/>
       <c r="T18" s="4">
         <f>B19/SUM(B4:B17,B20:B34)</f>
-        <v>3.075394655012564E-2</v>
+        <v>3.0753946821226719E-2</v>
       </c>
       <c r="U18" s="4">
         <f>B20/SUM(B4:B17,B19,B21:B34)</f>
-        <v>2.6999398671702517E-2</v>
+        <v>3.4797237643454347E-2</v>
       </c>
       <c r="V18" s="4">
         <f>B21/SUM(B4:B17,B19:B20,B22:B34)</f>
-        <v>2.6768396634300341E-2</v>
+        <v>2.6768396869355744E-2</v>
       </c>
       <c r="W18" s="4">
         <f>B22/SUM(B4:B17,B19:B21,B23:B34)</f>
-        <v>2.519366640870542E-2</v>
+        <v>3.7171159144477224E-2</v>
       </c>
       <c r="X18" s="4">
         <f>B23/SUM(B4:B17,B19:B22,B24:B34)</f>
-        <v>2.4087000966060399E-2</v>
+        <v>2.4087001177017897E-2</v>
       </c>
       <c r="Y18" s="4">
         <f>B24/SUM(B4:B17,B19:B23,B25:B34)</f>
-        <v>2.1706712548501247E-2</v>
+        <v>2.1706712738169952E-2</v>
       </c>
       <c r="Z18" s="4">
         <f>B25/SUM(B4:B17,B19:B24,B26:B34)</f>
-        <v>2.1640073412852744E-2</v>
+        <v>2.1640073601926841E-2</v>
       </c>
       <c r="AA18" s="4">
         <f>B26/SUM(B4:B17,B19:B25,B27:B34)</f>
-        <v>2.0160466976778715E-2</v>
+        <v>1.9158543173342438E-2</v>
       </c>
       <c r="AB18" s="4">
         <f>B27/SUM(B4:B17,B19:B26,B28:B34)</f>
-        <v>1.9463812882333884E-2</v>
+        <v>1.9463813052031254E-2</v>
       </c>
       <c r="AC18" s="4">
         <f>B28/SUM(B4:B17,B19:B27,B29:B34)</f>
-        <v>1.944416121620993E-2</v>
+        <v>1.9158543173342438E-2</v>
       </c>
       <c r="AD18" s="4">
         <f>B29/SUM(B4:B17,B19:B28,B30:B34)</f>
-        <v>1.8357948573698376E-2</v>
+        <v>1.8357948733580529E-2</v>
       </c>
       <c r="AE18" s="3"/>
       <c r="AF18" s="4">
         <f>B31/SUM(B4:B17,B19:B30,B32:B34)</f>
-        <v>1.78736902725119E-2</v>
+        <v>1.9158543173342438E-2</v>
       </c>
       <c r="AG18" s="4">
         <f>B32/SUM(B4:B17,B19:B31,B33:B34)</f>
-        <v>1.7099398942782618E-2</v>
+        <v>1.7099399091519824E-2</v>
       </c>
       <c r="AH18" s="4">
         <f>B33/SUM(B4:B17,B19:B32,B34)</f>
-        <v>1.6783157723107851E-2</v>
+        <v>3.7966959268492972E-2</v>
       </c>
       <c r="AI18" s="4">
         <f>B34/SUM(B4:B17,B19:B33)</f>
-        <v>1.5331870680192757E-2</v>
+        <v>1.5331870813323559E-2</v>
       </c>
     </row>
     <row r="19" spans="1:35" x14ac:dyDescent="0.2">
@@ -4073,2100 +4180,2186 @@
         <v>17443775</v>
       </c>
       <c r="C19" s="5" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="D19" t="s">
         <v>46</v>
       </c>
       <c r="E19" s="4">
         <f>B4/SUM(B5:B18,B20:B34)</f>
-        <v>8.3814837526410696E-2</v>
+        <v>8.3814838300149228E-2</v>
       </c>
       <c r="F19" s="4">
         <f>B5/SUM(B4,B6:B18,B20:B34)</f>
-        <v>6.4896469137490545E-2</v>
+        <v>6.4896469726126366E-2</v>
       </c>
       <c r="G19" s="4">
         <f>B6/SUM(B4:B5,B7:B18,B20:B34)</f>
-        <v>6.1046828831654389E-2</v>
+        <v>6.1046829383370776E-2</v>
       </c>
       <c r="H19" s="4">
         <f>B7/SUM(B4:B6,B8:B18,B20:B34)</f>
-        <v>5.9795256497551248E-2</v>
+        <v>3.7807859299127416E-2</v>
       </c>
       <c r="I19" s="4">
         <f>B8/SUM(B4:B7,B9:B18,B20:B34)</f>
-        <v>5.8278510028653294E-2</v>
+        <v>5.8278510553976572E-2</v>
       </c>
       <c r="J19" s="4">
         <f>B9/SUM(B4:B8,B10:B18,B20:B34)</f>
-        <v>4.8062941727988071E-2</v>
+        <v>3.7015512887242231E-2</v>
       </c>
       <c r="K19" s="4">
         <f>B10/SUM(B4:B9,B11:B18,B20:B34)</f>
-        <v>4.5376270899540973E-2</v>
+        <v>4.5376271303576604E-2</v>
       </c>
       <c r="L19" s="4">
         <f>B11/SUM(B4:B10,B12:B18,B20:B34)</f>
-        <v>4.3497977112234597E-2</v>
+        <v>4.3497977498849774E-2</v>
       </c>
       <c r="M19" s="4">
         <f>B12/SUM(B4:B11,B13:B18,B20:B34)</f>
-        <v>4.2534589999397215E-2</v>
+        <v>3.4651863778154865E-2</v>
       </c>
       <c r="N19" s="4">
         <f>B13/SUM(B4:B12,B14:B18,B20:B34)</f>
-        <v>4.0963920598191872E-2</v>
+        <v>4.0963920961399884E-2</v>
       </c>
       <c r="O19" s="4">
         <f>B14/SUM(B4:B13,B15:B18,B20:B34)</f>
-        <v>3.9227131193808162E-2</v>
+        <v>3.9227131541036575E-2</v>
       </c>
       <c r="P19" s="4">
         <f>B15/SUM(B4:B14,B16:B18,B20:B34)</f>
-        <v>3.8665789649855113E-2</v>
+        <v>3.8665789991929801E-2</v>
       </c>
       <c r="Q19" s="4">
         <f>B16/SUM(B4:B15,B17:B18,B20:B34)</f>
-        <v>3.8150652540075491E-2</v>
+        <v>3.7015512887242231E-2</v>
       </c>
       <c r="R19" s="4">
         <f>B17/SUM(B4:B16,B18,B20:B34)</f>
-        <v>3.6023941536726778E-2</v>
+        <v>3.6023941854618526E-2</v>
       </c>
       <c r="S19" s="4">
         <f>B18/SUM(B4:B17,B20:B34)</f>
-        <v>3.4932822519747594E-2</v>
+        <v>3.4932822827686144E-2</v>
       </c>
       <c r="T19" s="3"/>
       <c r="U19" s="4">
         <f>B20/SUM(B4:B18,B21:B34)</f>
-        <v>2.6887448630436468E-2</v>
+        <v>3.4651863778154865E-2</v>
       </c>
       <c r="V19" s="4">
         <f>B21/SUM(B4:B18,B20,B22:B34)</f>
-        <v>2.6657429279496568E-2</v>
+        <v>2.6657429512607182E-2</v>
       </c>
       <c r="W19" s="4">
         <f>B22/SUM(B4:B18,B20:B21,B23:B34)</f>
-        <v>2.5089386550442027E-2</v>
+        <v>3.7015512887242231E-2</v>
       </c>
       <c r="X19" s="4">
         <f>B23/SUM(B4:B18,B20:B22,B24:B34)</f>
-        <v>2.3987408917139446E-2</v>
+        <v>2.3987409126356066E-2</v>
       </c>
       <c r="Y19" s="4">
         <f>B24/SUM(B4:B18,B20:B23,B25:B34)</f>
-        <v>2.1617169977661034E-2</v>
+        <v>2.1617170165768161E-2</v>
       </c>
       <c r="Z19" s="4">
         <f>B25/SUM(B4:B18,B20:B24,B26:B34)</f>
-        <v>2.1550811534079301E-2</v>
+        <v>2.1550811721596813E-2</v>
       </c>
       <c r="AA19" s="4">
         <f>B26/SUM(B4:B18,B20:B25,B27:B34)</f>
-        <v>2.0077428180335411E-2</v>
+        <v>1.9079708375098734E-2</v>
       </c>
       <c r="AB19" s="4">
         <f>B27/SUM(B4:B18,B20:B26,B28:B34)</f>
-        <v>1.9383698050472027E-2</v>
+        <v>1.9383698218775294E-2</v>
       </c>
       <c r="AC19" s="4">
         <f>B28/SUM(B4:B18,B20:B27,B29:B34)</f>
-        <v>1.9364128808823086E-2</v>
+        <v>1.9079708375098734E-2</v>
       </c>
       <c r="AD19" s="4">
         <f>B29/SUM(B4:B18,B20:B28,B30:B34)</f>
-        <v>1.8282467210359872E-2</v>
+        <v>1.828246736892997E-2</v>
       </c>
       <c r="AE19" s="4">
         <f>B30/SUM(B4:B18,B20:B29,B31:B34)</f>
-        <v>1.8005421923786579E-2</v>
+        <v>1.8005422079911279E-2</v>
       </c>
       <c r="AF19" s="4">
         <f>B31/SUM(B4:B18,B20:B30,B32:B34)</f>
-        <v>1.7800234810387804E-2</v>
+        <v>1.9079708375098734E-2</v>
       </c>
       <c r="AG19" s="4">
         <f>B32/SUM(B4:B18,B20:B31,B33:B34)</f>
-        <v>1.7029178820944763E-2</v>
+        <v>1.7029178968462875E-2</v>
       </c>
       <c r="AH19" s="4">
         <f>B33/SUM(B4:B18,B20:B32,B34)</f>
-        <v>1.6714257613871745E-2</v>
+        <v>3.7807859299127416E-2</v>
       </c>
       <c r="AI19" s="4">
         <f>B34/SUM(B4:B18,B20:B33)</f>
-        <v>1.5269018028977099E-2</v>
+        <v>1.5269018161018605E-2</v>
       </c>
     </row>
     <row r="20" spans="1:35" x14ac:dyDescent="0.2">
-      <c r="A20" t="s">
-        <v>49</v>
-      </c>
-      <c r="B20" s="2">
-        <v>15370165</v>
+      <c r="A20" s="8" t="s">
+        <v>96</v>
+      </c>
+      <c r="B20" s="17">
+        <f>TRUNC(B46)</f>
+        <v>19660028</v>
       </c>
       <c r="C20" s="5" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="D20" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="E20" s="4">
         <f>B4/SUM(B5:B19,B21:B34)</f>
-        <v>8.3495174969987832E-2</v>
+        <v>8.4159207489467786E-2</v>
       </c>
       <c r="F20" s="4">
         <f>B5/SUM(B4,B6:B19,B21:B34)</f>
-        <v>6.465326378009037E-2</v>
+        <v>6.51584361297914E-2</v>
       </c>
       <c r="G20" s="4">
         <f>B6/SUM(B4:B5,B7:B19,B21:B34)</f>
-        <v>6.0818874302152666E-2</v>
+        <v>6.129236158918059E-2</v>
       </c>
       <c r="H20" s="4">
         <f>B7/SUM(B4:B6,B8:B19,B21:B34)</f>
-        <v>5.9572237847310146E-2</v>
+        <v>3.7956580056596675E-2</v>
       </c>
       <c r="I20" s="4">
         <f>B8/SUM(B4:B7,B9:B19,B21:B34)</f>
-        <v>5.80614583175895E-2</v>
+        <v>5.8512294489188287E-2</v>
       </c>
       <c r="J20" s="4">
         <f>B9/SUM(B4:B8,B10:B19,B21:B34)</f>
-        <v>4.7885658306722249E-2</v>
+        <v>3.7161005273049719E-2</v>
       </c>
       <c r="K20" s="4">
         <f>B10/SUM(B4:B9,B11:B19,B21:B34)</f>
-        <v>4.5209324923033298E-2</v>
+        <v>4.5556069962330609E-2</v>
       </c>
       <c r="L20" s="4">
         <f>B11/SUM(B4:B10,B12:B19,B21:B34)</f>
-        <v>4.3338228144726994E-2</v>
+        <v>4.3670022709730381E-2</v>
       </c>
       <c r="M20" s="3"/>
       <c r="N20" s="4">
         <f>B13/SUM(B4:B12,B14:B19,B21:B34)</f>
-        <v>4.0813842107228687E-2</v>
+        <v>4.112554834309249E-2</v>
       </c>
       <c r="O20" s="4">
         <f>B14/SUM(B4:B13,B15:B19,B21:B34)</f>
-        <v>3.9083654638823108E-2</v>
+        <v>3.9381646990652996E-2</v>
       </c>
       <c r="P20" s="4">
         <f>B15/SUM(B4:B14,B16:B19,B21:B34)</f>
-        <v>3.8524442360120134E-2</v>
+        <v>3.8818011728853609E-2</v>
       </c>
       <c r="Q20" s="4">
         <f>B16/SUM(B4:B15,B17:B19,B21:B34)</f>
-        <v>3.8011257309905969E-2</v>
+        <v>3.7161005273049719E-2</v>
       </c>
       <c r="R20" s="4">
         <f>B17/SUM(B4:B16,B18:B19,B21:B34)</f>
-        <v>3.5892585561562274E-2</v>
+        <v>3.616540087090326E-2</v>
       </c>
       <c r="S20" s="4">
         <f>B18/SUM(B4:B17,B19,B21:B34)</f>
-        <v>3.4805578811277861E-2</v>
+        <v>3.5069852195722305E-2</v>
       </c>
       <c r="T20" s="4">
         <f>B19/SUM(B4:B18,B21:B34)</f>
-        <v>3.0514871130751811E-2</v>
+        <v>3.0745597873857729E-2</v>
       </c>
       <c r="U20" s="3"/>
       <c r="V20" s="4">
         <f>B21/SUM(B4:B19,B22:B34)</f>
-        <v>2.6561102520287129E-2</v>
+        <v>2.6761157992824722E-2</v>
       </c>
       <c r="W20" s="4">
         <f>B22/SUM(B4:B19,B21,B23:B34)</f>
-        <v>2.4998863890710737E-2</v>
+        <v>3.7161005273049719E-2</v>
       </c>
       <c r="X20" s="4">
         <f>B23/SUM(B4:B19,B21:B22,B24:B34)</f>
-        <v>2.3900954902382535E-2</v>
+        <v>2.4080504426227851E-2</v>
       </c>
       <c r="Y20" s="4">
         <f>B24/SUM(B4:B19,B21:B23,B25:B34)</f>
-        <v>2.1539438333369233E-2</v>
+        <v>2.1700871603780255E-2</v>
       </c>
       <c r="Z20" s="4">
         <f>B25/SUM(B4:B19,B21:B24,B26:B34)</f>
-        <v>2.14733235188042E-2</v>
+        <v>2.1634250779399313E-2</v>
       </c>
       <c r="AA20" s="4">
         <f>B26/SUM(B4:B19,B21:B25,B27:B34)</f>
-        <v>2.0005341602906228E-2</v>
+        <v>1.9153400589091419E-2</v>
       </c>
       <c r="AB20" s="4">
         <f>B27/SUM(B4:B19,B21:B26,B28:B34)</f>
-        <v>1.9314149422318239E-2</v>
+        <v>1.9458586961984378E-2</v>
       </c>
       <c r="AC20" s="4">
         <f>B28/SUM(B4:B19,B21:B27,B29:B34)</f>
-        <v>1.9294651724027743E-2</v>
+        <v>1.9153400589091419E-2</v>
       </c>
       <c r="AD20" s="4">
         <f>B29/SUM(B4:B19,B21:B28,B30:B34)</f>
-        <v>1.821694040418884E-2</v>
+        <v>1.8353024916777906E-2</v>
       </c>
       <c r="AE20" s="4">
         <f>B30/SUM(B4:B19,B21:B29,B31:B34)</f>
-        <v>1.7940905579836935E-2</v>
+        <v>1.8074891447831015E-2</v>
       </c>
       <c r="AF20" s="4">
         <f>B31/SUM(B4:B19,B21:B30,B32:B34)</f>
-        <v>1.7736466494649564E-2</v>
+        <v>1.9153400589091419E-2</v>
       </c>
       <c r="AG20" s="4">
         <f>B32/SUM(B4:B19,B21:B31,B33:B34)</f>
-        <v>1.6968218819844297E-2</v>
+        <v>1.7094818498931318E-2</v>
       </c>
       <c r="AH20" s="4">
         <f>B33/SUM(B4:B19,B21:B32,B34)</f>
-        <v>1.6654443409003513E-2</v>
+        <v>3.7956580056596675E-2</v>
       </c>
       <c r="AI20" s="4">
         <f>B34/SUM(B4:B19,B21:B33)</f>
-        <v>1.5214453202420349E-2</v>
+        <v>1.532777084225829E-2</v>
       </c>
     </row>
     <row r="21" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B21" s="2">
         <v>15242089</v>
       </c>
       <c r="C21" s="5" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="D21" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="E21" s="4">
         <f>B4/SUM(B5:B20,B22:B34)</f>
-        <v>8.3475511026196089E-2</v>
+        <v>8.3475511793682303E-2</v>
       </c>
       <c r="F21" s="4">
         <f>B5/SUM(B4,B6:B20,B22:B34)</f>
-        <v>6.463830202004496E-2</v>
+        <v>6.4638302604006742E-2</v>
       </c>
       <c r="G21" s="4">
         <f>B6/SUM(B4:B5,B7:B20,B22:B34)</f>
-        <v>6.0804850556717589E-2</v>
+        <v>6.0804851104068844E-2</v>
       </c>
       <c r="H21" s="4">
         <f>B7/SUM(B4:B6,B8:B20,B22:B34)</f>
-        <v>5.9558517692644766E-2</v>
+        <v>3.7661265544673077E-2</v>
       </c>
       <c r="I21" s="4">
         <f>B8/SUM(B4:B7,B9:B20,B22:B34)</f>
-        <v>5.8048105174625997E-2</v>
+        <v>5.8048105695803744E-2</v>
       </c>
       <c r="J21" s="4">
         <f>B9/SUM(B4:B8,B10:B20,B22:B34)</f>
-        <v>4.7874751314998208E-2</v>
+        <v>3.6872100477068896E-2</v>
       </c>
       <c r="K21" s="4">
         <f>B10/SUM(B4:B9,B11:B20,B22:B34)</f>
-        <v>4.5199053817884811E-2</v>
+        <v>4.5199054218770685E-2</v>
       </c>
       <c r="L21" s="4">
         <f>B11/SUM(B4:B10,B12:B20,B22:B34)</f>
-        <v>4.332839975598142E-2</v>
+        <v>4.3328400139588025E-2</v>
       </c>
       <c r="M21" s="4">
         <f>B12/SUM(B4:B11,B13:B20,B22:B34)</f>
-        <v>4.236892091364753E-2</v>
+        <v>3.4517913879872887E-2</v>
       </c>
       <c r="N21" s="4">
         <f>B13/SUM(B4:B12,B14:B20,B22:B34)</f>
-        <v>4.0804608597058672E-2</v>
+        <v>4.0804608957447093E-2</v>
       </c>
       <c r="O21" s="4">
         <f>B14/SUM(B4:B13,B15:B20,B22:B34)</f>
-        <v>3.907482725245108E-2</v>
+        <v>3.9074827596988417E-2</v>
       </c>
       <c r="P21" s="4">
         <f>B15/SUM(B4:B14,B16:B20,B22:B34)</f>
-        <v>3.8515745958425746E-2</v>
+        <v>3.851574629785072E-2</v>
       </c>
       <c r="Q21" s="4">
         <f>B16/SUM(B4:B15,B17:B20,B22:B34)</f>
-        <v>3.8002680992304333E-2</v>
+        <v>3.6872100477068896E-2</v>
       </c>
       <c r="R21" s="4">
         <f>B17/SUM(B4:B16,B18:B20,B22:B34)</f>
-        <v>3.5884503796413947E-2</v>
+        <v>3.5884504111849534E-2</v>
       </c>
       <c r="S21" s="4">
         <f>B18/SUM(B4:B17,B19:B20,B22:B34)</f>
-        <v>3.479775002420285E-2</v>
+        <v>3.4797750329764635E-2</v>
       </c>
       <c r="T21" s="4">
         <f>B19/SUM(B4:B18,B20,B22:B34)</f>
-        <v>3.0508035901768468E-2</v>
+        <v>3.0508036168551394E-2</v>
       </c>
       <c r="U21" s="4">
         <f>B20/SUM(B4:B19,B22:B34)</f>
-        <v>2.6784289759673299E-2</v>
+        <v>3.4517913879872887E-2</v>
       </c>
       <c r="V21" s="3"/>
       <c r="W21" s="4">
         <f>B22/SUM(B4:B20,B23:B34)</f>
-        <v>2.4993294195354534E-2</v>
+        <v>3.6872100477068896E-2</v>
       </c>
       <c r="X21" s="4">
         <f>B23/SUM(B4:B20,B22,B24:B34)</f>
-        <v>2.3895635521483712E-2</v>
+        <v>2.3895635729102513E-2</v>
       </c>
       <c r="Y21" s="4">
         <f>B24/SUM(B4:B20,B22:B23,B25:B34)</f>
-        <v>2.153465558398697E-2</v>
+        <v>2.1534655770660795E-2</v>
       </c>
       <c r="Z21" s="4">
         <f>B25/SUM(B4:B20,B22:B24,B26:B34)</f>
-        <v>2.14685557584866E-2</v>
+        <v>2.1468555944575397E-2</v>
       </c>
       <c r="AA21" s="4">
         <f>B26/SUM(B4:B20,B22:B25,B27:B34)</f>
-        <v>2.0000906163256421E-2</v>
+        <v>1.9007059867079644E-2</v>
       </c>
       <c r="AB21" s="4">
         <f>B27/SUM(B4:B20,B22:B26,B28:B34)</f>
-        <v>1.9309870129924498E-2</v>
+        <v>1.9309870296948153E-2</v>
       </c>
       <c r="AC21" s="4">
         <f>B28/SUM(B4:B20,B22:B27,B29:B34)</f>
-        <v>1.9290376833348589E-2</v>
+        <v>1.9007059867079644E-2</v>
       </c>
       <c r="AD21" s="4">
         <f>B29/SUM(B4:B20,B22:B28,B30:B34)</f>
-        <v>1.8212908555905953E-2</v>
+        <v>1.8212908713271733E-2</v>
       </c>
       <c r="AE21" s="4">
         <f>B30/SUM(B4:B20,B22:B29,B31:B34)</f>
-        <v>1.7936935900937079E-2</v>
+        <v>1.7936936055876356E-2</v>
       </c>
       <c r="AF21" s="4">
         <f>B31/SUM(B4:B20,B22:B30,B32:B34)</f>
-        <v>1.7732542838781316E-2</v>
+        <v>1.9007059867079644E-2</v>
       </c>
       <c r="AG21" s="4">
         <f>B32/SUM(B4:B20,B22:B31,B33:B34)</f>
-        <v>1.696446794839096E-2</v>
+        <v>1.6964468094790065E-2</v>
       </c>
       <c r="AH21" s="4">
         <f>B33/SUM(B4:B20,B22:B32,B34)</f>
-        <v>1.6650763034110384E-2</v>
+        <v>3.7661265544673077E-2</v>
       </c>
       <c r="AI21" s="4">
         <f>B34/SUM(B4:B20,B22:B33)</f>
-        <v>1.5211095804247621E-2</v>
+        <v>1.5211095935289241E-2</v>
       </c>
     </row>
     <row r="22" spans="1:35" x14ac:dyDescent="0.2">
-      <c r="A22" t="s">
-        <v>52</v>
-      </c>
-      <c r="B22" s="2">
-        <v>14367463</v>
+      <c r="A22" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="B22" s="17">
+        <f>TRUNC(C46)</f>
+        <v>20953197</v>
       </c>
       <c r="C22" s="5" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="D22" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="E22" s="4">
         <f>B4/SUM(B5:B21,B23:B34)</f>
-        <v>8.334147391791033E-2</v>
+        <v>8.4361455094428731E-2</v>
       </c>
       <c r="F22" s="4">
         <f>B5/SUM(B4,B6:B21,B23:B34)</f>
-        <v>6.4536313564799261E-2</v>
+        <v>6.5312271166810751E-2</v>
       </c>
       <c r="G22" s="4">
         <f>B6/SUM(B4:B5,B7:B21,B23:B34)</f>
-        <v>6.0709255556717093E-2</v>
+        <v>6.1436542600929754E-2</v>
       </c>
       <c r="H22" s="4">
         <f>B7/SUM(B4:B6,B8:B21,B23:B34)</f>
-        <v>5.9464991967340744E-2</v>
+        <v>3.8043899402517081E-2</v>
       </c>
       <c r="I22" s="4">
         <f>B8/SUM(B4:B7,B9:B21,B23:B34)</f>
-        <v>5.7957081012223452E-2</v>
+        <v>5.8649574414604728E-2</v>
       </c>
       <c r="J22" s="3"/>
       <c r="K22" s="4">
         <f>B10/SUM(B4:B9,B11:B21,B23:B34)</f>
-        <v>4.512903740591212E-2</v>
+        <v>4.5661641076853547E-2</v>
       </c>
       <c r="L22" s="4">
         <f>B11/SUM(B4:B10,B12:B21,B23:B34)</f>
-        <v>4.3261401054942632E-2</v>
+        <v>4.3771040145295252E-2</v>
       </c>
       <c r="M22" s="4">
         <f>B12/SUM(B4:B11,B13:B21,B23:B34)</f>
-        <v>4.2303466011372484E-2</v>
+        <v>3.4867538551577835E-2</v>
       </c>
       <c r="N22" s="4">
         <f>B13/SUM(B4:B12,B14:B21,B23:B34)</f>
-        <v>4.0741664827039781E-2</v>
+        <v>4.1220447437542218E-2</v>
       </c>
       <c r="O22" s="4">
         <f>B14/SUM(B4:B13,B15:B21,B23:B34)</f>
-        <v>3.9014651804450948E-2</v>
+        <v>3.9472369384897121E-2</v>
       </c>
       <c r="P22" s="4">
         <f>B15/SUM(B4:B14,B16:B21,B23:B34)</f>
-        <v>3.8456463364107983E-2</v>
+        <v>3.8907387087948803E-2</v>
       </c>
       <c r="Q22" s="3"/>
       <c r="R22" s="4">
         <f>B17/SUM(B4:B16,B18:B21,B23:B34)</f>
-        <v>3.5829410878217595E-2</v>
+        <v>3.6248455694124694E-2</v>
       </c>
       <c r="S22" s="4">
         <f>B18/SUM(B4:B17,B19:B21,B23:B34)</f>
-        <v>3.47443815441002E-2</v>
+        <v>3.5150305711770254E-2</v>
       </c>
       <c r="T22" s="4">
         <f>B19/SUM(B4:B18,B20:B21,B23:B34)</f>
-        <v>3.0461440121609281E-2</v>
+        <v>3.0815835803703555E-2</v>
       </c>
       <c r="U22" s="4">
         <f>B20/SUM(B4:B19,B21,B23:B34)</f>
-        <v>2.6743528959341394E-2</v>
+        <v>3.4867538551577835E-2</v>
       </c>
       <c r="V22" s="4">
         <f>B21/SUM(B4:B20,B23:B34)</f>
-        <v>2.6514772617042912E-2</v>
+        <v>2.6822056657436411E-2</v>
       </c>
       <c r="W22" s="3"/>
       <c r="X22" s="4">
         <f>B23/SUM(B4:B21,B24:B34)</f>
-        <v>2.3859372875562012E-2</v>
+        <v>2.413515950627497E-2</v>
       </c>
       <c r="Y22" s="3"/>
       <c r="Z22" s="4">
         <f>B25/SUM(B4:B21,B23:B24,B26:B34)</f>
-        <v>2.1436053420208611E-2</v>
+        <v>2.1683236083177633E-2</v>
       </c>
       <c r="AA22" s="4">
         <f>B26/SUM(B4:B21,B23:B25,B27:B34)</f>
-        <v>1.9970669215529157E-2</v>
+        <v>1.9196663084232946E-2</v>
       </c>
       <c r="AB22" s="4">
         <f>B27/SUM(B4:B21,B23:B26,B28:B34)</f>
-        <v>1.9280697623341041E-2</v>
+        <v>1.9502551984038208E-2</v>
       </c>
       <c r="AC22" s="4">
         <f>B28/SUM(B4:B21,B23:B27,B29:B34)</f>
-        <v>1.9261234332874622E-2</v>
+        <v>1.9196663084232946E-2</v>
       </c>
       <c r="AD22" s="4">
         <f>B29/SUM(B4:B21,B23:B28,B30:B34)</f>
-        <v>1.818542285756233E-2</v>
+        <v>1.8394446944528586E-2</v>
       </c>
       <c r="AE22" s="4">
         <f>B30/SUM(B4:B21,B23:B29,B31:B34)</f>
-        <v>1.7909874007660663E-2</v>
+        <v>1.8115674572788155E-2</v>
       </c>
       <c r="AF22" s="4">
         <f>B31/SUM(B4:B21,B23:B30,B32:B34)</f>
-        <v>1.7705794682085631E-2</v>
+        <v>1.9196663084232946E-2</v>
       </c>
       <c r="AG22" s="4">
         <f>B32/SUM(B4:B21,B23:B31,B33:B34)</f>
-        <v>1.6938897655858681E-2</v>
+        <v>1.7133353029098616E-2</v>
       </c>
       <c r="AH22" s="4">
         <f>B33/SUM(B4:B21,B23:B32,B34)</f>
-        <v>1.6625673314563556E-2</v>
+        <v>3.8043899402517081E-2</v>
       </c>
       <c r="AI22" s="4">
         <f>B34/SUM(B4:B21,B23:B33)</f>
-        <v>1.5188207813997743E-2</v>
+        <v>1.5362261993886557E-2</v>
       </c>
     </row>
     <row r="23" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B23" s="2">
         <v>13751197</v>
       </c>
       <c r="C23" s="5" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="D23" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="E23" s="4">
         <f>B4/SUM(B5:B22,B24:B34)</f>
-        <v>8.3247288886578133E-2</v>
+        <v>8.3247289649873477E-2</v>
       </c>
       <c r="F23" s="4">
         <f>B5/SUM(B4,B6:B22,B24:B34)</f>
-        <v>6.4464645035164581E-2</v>
+        <v>6.4464645615992841E-2</v>
       </c>
       <c r="G23" s="4">
         <f>B6/SUM(B4:B5,B7:B22,B24:B34)</f>
-        <v>6.0642079136109195E-2</v>
+        <v>6.0642079680533909E-2</v>
       </c>
       <c r="H23" s="4">
         <f>B7/SUM(B4:B6,B8:B22,B24:B34)</f>
-        <v>5.9399269458624927E-2</v>
+        <v>3.7562642066420585E-2</v>
       </c>
       <c r="I23" s="4">
         <f>B8/SUM(B4:B7,B9:B22,B24:B34)</f>
-        <v>5.7893116160954432E-2</v>
+        <v>5.7893116679352791E-2</v>
       </c>
       <c r="J23" s="4">
         <f>B9/SUM(B4:B8,B10:B22,B24:B34)</f>
-        <v>4.7748151080650197E-2</v>
+        <v>3.677561682531362E-2</v>
       </c>
       <c r="K23" s="4">
         <f>B10/SUM(B4:B9,B11:B22,B24:B34)</f>
-        <v>4.5079833606805508E-2</v>
+        <v>4.5079834005579356E-2</v>
       </c>
       <c r="L23" s="4">
         <f>B11/SUM(B4:B10,B12:B22,B24:B34)</f>
-        <v>4.3214317719821149E-2</v>
+        <v>4.3214318101410368E-2</v>
       </c>
       <c r="M23" s="4">
         <f>B12/SUM(B4:B11,B13:B22,B24:B34)</f>
-        <v>4.225746746940643E-2</v>
+        <v>3.4427794996592917E-2</v>
       </c>
       <c r="N23" s="4">
         <f>B13/SUM(B4:B12,B14:B22,B24:B34)</f>
-        <v>4.0697430812839282E-2</v>
+        <v>4.0697431171336985E-2</v>
       </c>
       <c r="O23" s="4">
         <f>B14/SUM(B4:B13,B15:B22,B24:B34)</f>
-        <v>3.8972363056251305E-2</v>
+        <v>3.8972363398984078E-2</v>
       </c>
       <c r="P23" s="4">
         <f>B15/SUM(B4:B14,B16:B22,B24:B34)</f>
-        <v>3.8414802016760993E-2</v>
+        <v>3.8414802354409139E-2</v>
       </c>
       <c r="Q23" s="4">
         <f>B16/SUM(B4:B15,B17:B22,B24:B34)</f>
-        <v>3.7903130793082537E-2</v>
+        <v>3.677561682531362E-2</v>
       </c>
       <c r="R23" s="4">
         <f>B17/SUM(B4:B16,B18:B22,B24:B34)</f>
-        <v>3.5790693604302044E-2</v>
+        <v>3.579069391809054E-2</v>
       </c>
       <c r="S23" s="4">
         <f>B18/SUM(B4:B17,B19:B22,B24:B34)</f>
-        <v>3.4706876038905626E-2</v>
+        <v>3.4706876342873554E-2</v>
       </c>
       <c r="T23" s="4">
         <f>B19/SUM(B4:B18,B20:B22,B24:B34)</f>
-        <v>3.042869387905461E-2</v>
+        <v>3.04286941444517E-2</v>
       </c>
       <c r="U23" s="4">
         <f>B20/SUM(B4:B19,B21:B22,B24:B34)</f>
-        <v>2.6714883112152234E-2</v>
+        <v>3.4427794996592917E-2</v>
       </c>
       <c r="V23" s="4">
         <f>B21/SUM(B4:B20,B22,B24:B34)</f>
-        <v>2.6486378118938749E-2</v>
+        <v>2.6486378349067384E-2</v>
       </c>
       <c r="W23" s="4">
         <f>B22/SUM(B4:B21,B24:B34)</f>
-        <v>2.4928641266126927E-2</v>
+        <v>3.677561682531362E-2</v>
       </c>
       <c r="X23" s="3"/>
       <c r="Y23" s="4">
         <f>B24/SUM(B4:B22,B25:B34)</f>
-        <v>2.1479136983925992E-2</v>
+        <v>2.1479137169638531E-2</v>
       </c>
       <c r="Z23" s="4">
         <f>B25/SUM(B4:B22,B24,B26:B34)</f>
-        <v>2.1413211142855652E-2</v>
+        <v>2.1413211327986237E-2</v>
       </c>
       <c r="AA23" s="4">
         <f>B26/SUM(B4:B22,B24:B25,B27:B34)</f>
-        <v>1.9949418950435286E-2</v>
+        <v>1.8958178608300211E-2</v>
       </c>
       <c r="AB23" s="4">
         <f>B27/SUM(B4:B22,B24:B26,B28:B34)</f>
-        <v>1.9260195402511757E-2</v>
+        <v>1.9260195568677179E-2</v>
       </c>
       <c r="AC23" s="4">
         <f>B28/SUM(B4:B22,B24:B27,B29:B34)</f>
-        <v>1.9240753199108496E-2</v>
+        <v>1.8958178608300211E-2</v>
       </c>
       <c r="AD23" s="4">
         <f>B29/SUM(B4:B22,B24:B28,B30:B34)</f>
-        <v>1.8166106059550206E-2</v>
+        <v>1.8166106216108251E-2</v>
       </c>
       <c r="AE23" s="4">
         <f>B30/SUM(B4:B22,B24:B29,B31:B34)</f>
-        <v>1.7890855044278231E-2</v>
+        <v>1.7890855198422439E-2</v>
       </c>
       <c r="AF23" s="4">
         <f>B31/SUM(B4:B22,B24:B30,B32:B34)</f>
-        <v>1.7686996201507519E-2</v>
+        <v>1.8958178608300211E-2</v>
       </c>
       <c r="AG23" s="4">
         <f>B32/SUM(B4:B22,B24:B31,B33:B34)</f>
-        <v>1.6920926937921146E-2</v>
+        <v>1.6920927083569719E-2</v>
       </c>
       <c r="AH23" s="4">
         <f>B33/SUM(B4:B22,B24:B32,B34)</f>
-        <v>1.6608040327787531E-2</v>
+        <v>3.7562642066420585E-2</v>
       </c>
       <c r="AI23" s="4">
         <f>B34/SUM(B4:B22,B24:B33)</f>
-        <v>1.5172122138147733E-2</v>
+        <v>1.5172122268518707E-2</v>
       </c>
     </row>
     <row r="24" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B24" s="2">
         <v>12421168</v>
       </c>
       <c r="C24" s="5" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="D24" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="E24" s="4">
         <f>B4/SUM(B5:B23,B25:B34)</f>
-        <v>8.3044741915978437E-2</v>
+        <v>8.3044742675563984E-2</v>
       </c>
       <c r="F24" s="4">
         <f>B5/SUM(B4,B6:B23,B25:B34)</f>
-        <v>6.4310510768037898E-2</v>
+        <v>6.4310511346091961E-2</v>
       </c>
       <c r="G24" s="4">
         <f>B6/SUM(B4:B5,B7:B23,B25:B34)</f>
-        <v>6.0497604027530426E-2</v>
+        <v>6.0497604569364136E-2</v>
       </c>
       <c r="H24" s="4">
         <f>B7/SUM(B4:B6,B8:B23,B25:B34)</f>
-        <v>5.9257920673902349E-2</v>
+        <v>3.7475094703160738E-2</v>
       </c>
       <c r="I24" s="4">
         <f>B8/SUM(B4:B7,B9:B23,B25:B34)</f>
-        <v>5.7755546871842423E-2</v>
+        <v>5.775554738778E-2</v>
       </c>
       <c r="J24" s="3"/>
       <c r="K24" s="4">
         <f>B10/SUM(B4:B9,B11:B23,B25:B34)</f>
-        <v>4.4974006469825141E-2</v>
+        <v>4.4974006866728901E-2</v>
       </c>
       <c r="L24" s="4">
         <f>B11/SUM(B4:B10,B12:B23,B25:B34)</f>
-        <v>4.3113050638134288E-2</v>
+        <v>4.31130510179372E-2</v>
       </c>
       <c r="M24" s="4">
         <f>B12/SUM(B4:B11,B13:B23,B25:B34)</f>
-        <v>4.2158533254957657E-2</v>
+        <v>3.4347795904115033E-2</v>
       </c>
       <c r="N24" s="4">
         <f>B13/SUM(B4:B12,B14:B23,B25:B34)</f>
-        <v>4.0602291277413369E-2</v>
+        <v>4.0602291634236884E-2</v>
       </c>
       <c r="O24" s="4">
         <f>B14/SUM(B4:B13,B15:B23,B25:B34)</f>
-        <v>3.8881406927365733E-2</v>
+        <v>3.888140726850059E-2</v>
       </c>
       <c r="P24" s="4">
         <f>B15/SUM(B4:B14,B16:B23,B25:B34)</f>
-        <v>3.8325195159316011E-2</v>
+        <v>3.832519549539079E-2</v>
       </c>
       <c r="Q24" s="3"/>
       <c r="R24" s="4">
         <f>B17/SUM(B4:B16,B18:B23,B25:B34)</f>
-        <v>3.5707418256194876E-2</v>
+        <v>3.5707418568524871E-2</v>
       </c>
       <c r="S24" s="4">
         <f>B18/SUM(B4:B17,B19:B23,B25:B34)</f>
-        <v>3.4626206745215604E-2</v>
+        <v>3.4626207047772146E-2</v>
       </c>
       <c r="T24" s="4">
         <f>B19/SUM(B4:B18,B20:B23,B25:B34)</f>
-        <v>3.0358260127153428E-2</v>
+        <v>3.0358260391323302E-2</v>
       </c>
       <c r="U24" s="4">
         <f>B20/SUM(B4:B19,B21:B23,B25:B34)</f>
-        <v>2.6653268129954454E-2</v>
+        <v>3.4347795904115033E-2</v>
       </c>
       <c r="V24" s="4">
         <f>B21/SUM(B4:B20,B22:B23,B25:B34)</f>
-        <v>2.6425303723085974E-2</v>
+        <v>2.6425303952154536E-2</v>
       </c>
       <c r="W24" s="3"/>
       <c r="X24" s="4">
         <f>B23/SUM(B4:B22,B25:B34)</f>
-        <v>2.3779071666686431E-2</v>
+        <v>2.3779071872284622E-2</v>
       </c>
       <c r="Y24" s="3"/>
       <c r="Z24" s="4">
         <f>B25/SUM(B4:B23,B26:B34)</f>
-        <v>2.1364078329356887E-2</v>
+        <v>2.136407851363888E-2</v>
       </c>
       <c r="AA24" s="3"/>
       <c r="AB24" s="4">
         <f>B27/SUM(B4:B23,B25:B26,B28:B34)</f>
-        <v>1.9216095643375043E-2</v>
+        <v>1.9216095808780403E-2</v>
       </c>
       <c r="AC24" s="3"/>
       <c r="AD24" s="4">
         <f>B29/SUM(B4:B23,B25:B28,B30:B34)</f>
-        <v>1.8124555965353006E-2</v>
+        <v>1.8124556121195696E-2</v>
       </c>
       <c r="AE24" s="4">
         <f>B30/SUM(B4:B23,B25:B29,B31:B34)</f>
-        <v>1.7849945550097456E-2</v>
+        <v>1.7849945703537533E-2</v>
       </c>
       <c r="AF24" s="3"/>
       <c r="AG24" s="4">
         <f>B32/SUM(B4:B23,B25:B31,B33:B34)</f>
-        <v>1.6882272079995268E-2</v>
+        <v>1.688227222497915E-2</v>
       </c>
       <c r="AH24" s="4">
         <f>B33/SUM(B4:B23,B25:B32,B34)</f>
-        <v>1.6570111887598667E-2</v>
+        <v>3.7475094703160738E-2</v>
       </c>
       <c r="AI24" s="4">
         <f>B34/SUM(B4:B23,B25:B33)</f>
-        <v>1.5137521790227535E-2</v>
+        <v>1.5137521920004561E-2</v>
       </c>
     </row>
     <row r="25" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B25" s="2">
         <v>12383843</v>
       </c>
       <c r="C25" s="5" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="D25" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="E25" s="4">
         <f>B4/SUM(B5:B24,B26:B34)</f>
-        <v>8.3039071997087183E-2</v>
+        <v>8.3039072756569007E-2</v>
       </c>
       <c r="F25" s="4">
         <f>B5/SUM(B4,B6:B24,B26:B34)</f>
-        <v>6.4306195883973932E-2</v>
+        <v>6.4306196461950432E-2</v>
       </c>
       <c r="G25" s="4">
         <f>B6/SUM(B4:B5,B7:B24,B26:B34)</f>
-        <v>6.0493559509346755E-2</v>
+        <v>6.0493560051108015E-2</v>
       </c>
       <c r="H25" s="4">
         <f>B7/SUM(B4:B6,B8:B24,B26:B34)</f>
-        <v>5.9253963664447323E-2</v>
+        <v>3.7472643721968915E-2</v>
       </c>
       <c r="I25" s="4">
         <f>B8/SUM(B4:B7,B9:B24,B26:B34)</f>
-        <v>5.7751695654642166E-2</v>
+        <v>5.7751696170510944E-2</v>
       </c>
       <c r="J25" s="4">
         <f>B9/SUM(B4:B8,B10:B24,B26:B34)</f>
-        <v>4.7632628387125162E-2</v>
+        <v>3.668757083308706E-2</v>
       </c>
       <c r="K25" s="4">
         <f>B10/SUM(B4:B9,B11:B24,B26:B34)</f>
-        <v>4.4971043778429101E-2</v>
+        <v>4.4971044175280576E-2</v>
       </c>
       <c r="L25" s="4">
         <f>B11/SUM(B4:B10,B12:B24,B26:B34)</f>
-        <v>4.3110215595888783E-2</v>
+        <v>4.3110215975641741E-2</v>
       </c>
       <c r="M25" s="4">
         <f>B12/SUM(B4:B11,B13:B24,B26:B34)</f>
-        <v>4.215576351682996E-2</v>
+        <v>3.4345556228548145E-2</v>
       </c>
       <c r="N25" s="4">
         <f>B13/SUM(B4:B12,B14:B24,B26:B34)</f>
-        <v>4.0599627764598606E-2</v>
+        <v>4.0599628121375311E-2</v>
       </c>
       <c r="O25" s="4">
         <f>B14/SUM(B4:B13,B15:B24,B26:B34)</f>
-        <v>3.8878860522457974E-2</v>
+        <v>3.8878860863548144E-2</v>
       </c>
       <c r="P25" s="4">
         <f>B15/SUM(B4:B14,B16:B24,B26:B34)</f>
-        <v>3.8322686525338906E-2</v>
+        <v>3.8322686861369692E-2</v>
       </c>
       <c r="Q25" s="4">
         <f>B16/SUM(B4:B15,B17:B24,B26:B34)</f>
-        <v>3.7812286923904058E-2</v>
+        <v>3.668757083308706E-2</v>
       </c>
       <c r="R25" s="4">
         <f>B17/SUM(B4:B16,B18:B24,B26:B34)</f>
-        <v>3.5705086865053852E-2</v>
+        <v>3.570508717734306E-2</v>
       </c>
       <c r="S25" s="4">
         <f>B18/SUM(B4:B17,B19:B24,B26:B34)</f>
-        <v>3.46239483079753E-2</v>
+        <v>3.4623948610492374E-2</v>
       </c>
       <c r="T25" s="4">
         <f>B19/SUM(B4:B18,B20:B24,B26:B34)</f>
-        <v>3.0356288227158901E-2</v>
+        <v>3.0356288491294459E-2</v>
       </c>
       <c r="U25" s="4">
         <f>B20/SUM(B4:B19,B21:B24,B26:B34)</f>
-        <v>2.6651543110034676E-2</v>
+        <v>3.4345556228548145E-2</v>
       </c>
       <c r="V25" s="4">
         <f>B21/SUM(B4:B20,B22:B24,B26:B34)</f>
-        <v>2.6423593836930527E-2</v>
+        <v>2.6423594065969447E-2</v>
       </c>
       <c r="W25" s="4">
         <f>B22/SUM(B4:B21,B23:B24,B26:B34)</f>
-        <v>2.4869638962708964E-2</v>
+        <v>3.668757083308706E-2</v>
       </c>
       <c r="X25" s="4">
         <f>B23/SUM(B4:B22,B24,B26:B34)</f>
-        <v>2.3777536975234846E-2</v>
+        <v>2.3777537180806503E-2</v>
       </c>
       <c r="Y25" s="4">
         <f>B24/SUM(B4:B23,B26:B34)</f>
-        <v>2.1428469829123418E-2</v>
+        <v>2.1428470013960838E-2</v>
       </c>
       <c r="Z25" s="3"/>
       <c r="AA25" s="4">
         <f>B26/SUM(B4:B24,B27:B34)</f>
-        <v>1.9902430555682953E-2</v>
+        <v>1.891356825212959E-2</v>
       </c>
       <c r="AB25" s="4">
         <f>B27/SUM(B4:B24,B26,B28:B34)</f>
-        <v>1.9214860971711344E-2</v>
+        <v>1.9214861137095449E-2</v>
       </c>
       <c r="AC25" s="4">
         <f>B28/SUM(B4:B24,B26:B27,B29:B34)</f>
-        <v>1.9195465392987054E-2</v>
+        <v>1.891356825212959E-2</v>
       </c>
       <c r="AD25" s="4">
         <f>B29/SUM(B4:B24,B26:B28,B30:B34)</f>
-        <v>1.81233926743385E-2</v>
+        <v>1.8123392830161185E-2</v>
       </c>
       <c r="AE25" s="4">
         <f>B30/SUM(B4:B24,B26:B29,B31:B34)</f>
-        <v>1.7848800193434423E-2</v>
+        <v>1.7848800346854807E-2</v>
       </c>
       <c r="AF25" s="4">
         <f>B31/SUM(B4:B24,B26:B30,B32:B34)</f>
-        <v>1.7645428855201584E-2</v>
+        <v>1.891356825212959E-2</v>
       </c>
       <c r="AG25" s="4">
         <f>B32/SUM(B4:B24,B26:B31,B33:B34)</f>
-        <v>1.6881189844706417E-2</v>
+        <v>1.688118998967171E-2</v>
       </c>
       <c r="AH25" s="4">
         <f>B33/SUM(B4:B24,B26:B32,B34)</f>
-        <v>1.6569049989346153E-2</v>
+        <v>3.7472643721968915E-2</v>
       </c>
       <c r="AI25" s="4">
         <f>B34/SUM(B4:B24,B26:B33)</f>
-        <v>1.5136553066740702E-2</v>
+        <v>1.5136553196501116E-2</v>
       </c>
     </row>
     <row r="26" spans="1:35" x14ac:dyDescent="0.2">
-      <c r="A26" t="s">
-        <v>57</v>
-      </c>
-      <c r="B26" s="2">
-        <v>11553850</v>
+      <c r="A26" s="14" t="s">
+        <v>55</v>
+      </c>
+      <c r="B26" s="17">
+        <f>TRUNC(A46)</f>
+        <v>10990447</v>
       </c>
       <c r="C26" s="5" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="D26" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="E26" s="4">
         <f>B4/SUM(B5:B25,B27:B34)</f>
-        <v>8.2913190196792164E-2</v>
+        <v>8.2827959058284509E-2</v>
       </c>
       <c r="F26" s="4">
         <f>B5/SUM(B4,B6:B25,B27:B34)</f>
-        <v>6.4210395526263009E-2</v>
+        <v>6.4145528860816287E-2</v>
       </c>
       <c r="G26" s="4">
         <f>B6/SUM(B4:B5,B7:B25,B27:B34)</f>
-        <v>6.0403761395664265E-2</v>
+        <v>6.0342958320689463E-2</v>
       </c>
       <c r="H26" s="4">
         <f>B7/SUM(B4:B6,B8:B25,B27:B34)</f>
-        <v>5.9166108297488119E-2</v>
+        <v>3.7381373891931649E-2</v>
       </c>
       <c r="I26" s="4">
         <f>B8/SUM(B4:B7,B9:B25,B27:B34)</f>
-        <v>5.7666188948695803E-2</v>
+        <v>5.7608291250137368E-2</v>
       </c>
       <c r="J26" s="4">
         <f>B9/SUM(B4:B8,B10:B25,B27:B34)</f>
-        <v>4.756277758142316E-2</v>
+        <v>3.6598280611021598E-2</v>
       </c>
       <c r="K26" s="4">
         <f>B10/SUM(B4:B9,B11:B25,B27:B34)</f>
-        <v>4.4905263349785562E-2</v>
+        <v>4.4860721232789835E-2</v>
       </c>
       <c r="L26" s="4">
         <f>B11/SUM(B4:B10,B12:B25,B27:B34)</f>
-        <v>4.3047269181010331E-2</v>
+        <v>4.3004645882832898E-2</v>
       </c>
       <c r="M26" s="4">
         <f>B12/SUM(B4:B11,B13:B25,B27:B34)</f>
-        <v>4.2094266962770736E-2</v>
+        <v>3.4262154385235999E-2</v>
       </c>
       <c r="N26" s="4">
         <f>B13/SUM(B4:B12,B14:B25,B27:B34)</f>
-        <v>4.0540489598782758E-2</v>
+        <v>4.0500444768004316E-2</v>
       </c>
       <c r="O26" s="4">
         <f>B14/SUM(B4:B13,B15:B25,B27:B34)</f>
-        <v>3.882232236957233E-2</v>
+        <v>3.8784037957469659E-2</v>
       </c>
       <c r="P26" s="4">
         <f>B15/SUM(B4:B14,B16:B25,B27:B34)</f>
-        <v>3.8266986959926495E-2</v>
+        <v>3.82292703421796E-2</v>
       </c>
       <c r="Q26" s="4">
         <f>B16/SUM(B4:B15,B17:B25,B27:B34)</f>
-        <v>3.7757356167423706E-2</v>
+        <v>3.6598280611021598E-2</v>
       </c>
       <c r="R26" s="4">
         <f>B17/SUM(B4:B16,B18:B25,B27:B34)</f>
-        <v>3.5653322449922517E-2</v>
+        <v>3.5618270279554512E-2</v>
       </c>
       <c r="S26" s="4">
         <f>B18/SUM(B4:B17,B19:B25,B27:B34)</f>
-        <v>3.4573803625819639E-2</v>
+        <v>3.4539848168218458E-2</v>
       </c>
       <c r="T26" s="4">
         <f>B19/SUM(B4:B18,B20:B25,B27:B34)</f>
-        <v>3.0312505334276482E-2</v>
+        <v>3.0282857463471497E-2</v>
       </c>
       <c r="U26" s="4">
         <f>B20/SUM(B4:B19,B21:B25,B27:B34)</f>
-        <v>2.661324158769875E-2</v>
+        <v>3.4262154385235999E-2</v>
       </c>
       <c r="V26" s="4">
         <f>B21/SUM(B4:B20,B22:B25,B27:B34)</f>
-        <v>2.6385628324844354E-2</v>
+        <v>2.6359919493934698E-2</v>
       </c>
       <c r="W26" s="4">
         <f>B22/SUM(B4:B21,B23:B25,B27:B34)</f>
-        <v>2.4833960198492638E-2</v>
+        <v>3.6598280611021598E-2</v>
       </c>
       <c r="X26" s="4">
         <f>B23/SUM(B4:B22,B24:B25,B27:B34)</f>
-        <v>2.3743461272473579E-2</v>
+        <v>2.3720386332232168E-2</v>
       </c>
       <c r="Y26" s="3"/>
       <c r="Z26" s="4">
         <f>B25/SUM(B4:B24,B27:B34)</f>
-        <v>2.1332159870517661E-2</v>
+        <v>2.1311477122282402E-2</v>
       </c>
       <c r="AA26" s="3"/>
       <c r="AB26" s="4">
         <f>B27/SUM(B4:B25,B28:B34)</f>
-        <v>1.9187446610737763E-2</v>
+        <v>1.9168882312242189E-2</v>
       </c>
       <c r="AC26" s="3"/>
       <c r="AD26" s="4">
         <f>B29/SUM(B4:B25,B27:B28,B30:B34)</f>
-        <v>1.8097563191370448E-2</v>
+        <v>1.808007208658027E-2</v>
       </c>
       <c r="AE26" s="4">
         <f>B30/SUM(B4:B25,B27:B29,B31:B34)</f>
-        <v>1.7823368911033876E-2</v>
+        <v>1.780614744699088E-2</v>
       </c>
       <c r="AF26" s="3"/>
       <c r="AG26" s="4">
         <f>B32/SUM(B4:B25,B27:B31,B33:B34)</f>
-        <v>1.6857160063328189E-2</v>
+        <v>1.6840887625723482E-2</v>
       </c>
       <c r="AH26" s="4">
         <f>B33/SUM(B4:B25,B27:B32,B34)</f>
-        <v>1.654547175754351E-2</v>
+        <v>3.7381373891931649E-2</v>
       </c>
       <c r="AI26" s="4">
         <f>B34/SUM(B4:B25,B27:B33)</f>
-        <v>1.5115043628585269E-2</v>
+        <v>1.5100477852124766E-2</v>
       </c>
     </row>
     <row r="27" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B27" s="2">
         <v>11162224</v>
       </c>
       <c r="C27" s="5" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="D27" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="E27" s="4">
         <f>B4/SUM(B5:B26,B28:B34)</f>
-        <v>8.2853926240708267E-2</v>
+        <v>8.2853926996807159E-2</v>
       </c>
       <c r="F27" s="4">
         <f>B5/SUM(B4,B6:B26,B28:B34)</f>
-        <v>6.4165291888250417E-2</v>
+        <v>6.4165292463696844E-2</v>
       </c>
       <c r="G27" s="4">
         <f>B6/SUM(B4:B5,B7:B26,B28:B34)</f>
-        <v>6.036148333426597E-2</v>
+        <v>6.0361483873664148E-2</v>
       </c>
       <c r="H27" s="4">
         <f>B7/SUM(B4:B6,B8:B26,B28:B34)</f>
-        <v>5.9124744799688947E-2</v>
+        <v>3.7392601546531436E-2</v>
       </c>
       <c r="I27" s="3"/>
       <c r="J27" s="4">
         <f>B9/SUM(B4:B8,B10:B26,B28:B34)</f>
-        <v>4.7529890088291595E-2</v>
+        <v>3.6609264759808927E-2</v>
       </c>
       <c r="K27" s="4">
         <f>B10/SUM(B4:B9,B11:B26,B28:B34)</f>
-        <v>4.4874292121492361E-2</v>
+        <v>4.4874292516638083E-2</v>
       </c>
       <c r="L27" s="4">
         <f>B11/SUM(B4:B10,B12:B26,B28:B34)</f>
-        <v>4.30176321705108E-2</v>
+        <v>4.3017632548634402E-2</v>
       </c>
       <c r="M27" s="4">
         <f>B12/SUM(B4:B11,B13:B26,B28:B34)</f>
-        <v>4.2065312532191305E-2</v>
+        <v>3.4272414217188955E-2</v>
       </c>
       <c r="N27" s="4">
         <f>B13/SUM(B4:B12,B14:B26,B28:B34)</f>
-        <v>4.0512645479239801E-2</v>
+        <v>4.0512645834489394E-2</v>
       </c>
       <c r="O27" s="4">
         <f>B14/SUM(B4:B13,B15:B26,B28:B34)</f>
-        <v>3.8795702324069287E-2</v>
+        <v>3.8795702663701907E-2</v>
       </c>
       <c r="P27" s="4">
         <f>B15/SUM(B4:B14,B16:B26,B28:B34)</f>
-        <v>3.8240761719306703E-2</v>
+        <v>3.8240762053902311E-2</v>
       </c>
       <c r="Q27" s="4">
         <f>B16/SUM(B4:B15,B17:B26,B28:B34)</f>
-        <v>3.7731492880892233E-2</v>
+        <v>3.6609264759808927E-2</v>
       </c>
       <c r="R27" s="4">
         <f>B17/SUM(B4:B16,B18:B26,B28:B34)</f>
-        <v>3.5628949879894803E-2</v>
+        <v>3.5628950190853589E-2</v>
       </c>
       <c r="S27" s="4">
         <f>B18/SUM(B4:B17,B19:B26,B28:B34)</f>
-        <v>3.4550193632454734E-2</v>
+        <v>3.4550193933684359E-2</v>
       </c>
       <c r="T27" s="4">
         <f>B19/SUM(B4:B18,B20:B26,B28:B34)</f>
-        <v>3.0291890528300877E-2</v>
+        <v>3.0291890791316948E-2</v>
       </c>
       <c r="U27" s="4">
         <f>B20/SUM(B4:B19,B21:B26,B28:B34)</f>
-        <v>2.6595207501272686E-2</v>
+        <v>3.4272414217188955E-2</v>
       </c>
       <c r="V27" s="4">
         <f>B21/SUM(B4:B20,B22:B26,B28:B34)</f>
-        <v>2.6367752438828568E-2</v>
+        <v>2.6367752666900446E-2</v>
       </c>
       <c r="W27" s="4">
         <f>B22/SUM(B4:B21,B23:B26,B28:B34)</f>
-        <v>2.4817160963401232E-2</v>
+        <v>3.6609264759808927E-2</v>
       </c>
       <c r="X27" s="4">
         <f>B23/SUM(B4:B22,B24:B26,B28:B34)</f>
-        <v>2.3727416797802436E-2</v>
+        <v>2.3727417002508366E-2</v>
       </c>
       <c r="Y27" s="4">
         <f>B24/SUM(B4:B23,B25:B26,B28:B34)</f>
-        <v>2.1383404623525695E-2</v>
+        <v>2.1383404807586485E-2</v>
       </c>
       <c r="Z27" s="4">
         <f>B25/SUM(B4:B24,B26,B28:B34)</f>
-        <v>2.131777874557084E-2</v>
+        <v>2.1317778929054954E-2</v>
       </c>
       <c r="AA27" s="4">
         <f>B26/SUM(B4:B25,B28:B34)</f>
-        <v>1.9860637093779207E-2</v>
+        <v>1.8873889746517828E-2</v>
       </c>
       <c r="AB27" s="3"/>
       <c r="AC27" s="4">
         <f>B28/SUM(B4:B26,B29:B34)</f>
-        <v>1.9155184381847976E-2</v>
+        <v>1.8873889746517828E-2</v>
       </c>
       <c r="AD27" s="4">
         <f>B29/SUM(B4:B26,B28,B30:B34)</f>
-        <v>1.8085401290773299E-2</v>
+        <v>1.808540144594338E-2</v>
       </c>
       <c r="AE27" s="4">
         <f>B30/SUM(B4:B26,B28:B29,B31:B34)</f>
-        <v>1.7811394497768945E-2</v>
+        <v>1.7811394650546961E-2</v>
       </c>
       <c r="AF27" s="4">
         <f>B31/SUM(B4:B26,B28:B30,B32:B34)</f>
-        <v>1.7608456737659896E-2</v>
+        <v>1.8873889746517828E-2</v>
       </c>
       <c r="AG27" s="4">
         <f>B32/SUM(B4:B26,B28:B31,B33:B34)</f>
-        <v>1.6845845529455467E-2</v>
+        <v>1.6845845673814367E-2</v>
       </c>
       <c r="AH27" s="4">
         <f>B33/SUM(B4:B26,B28:B32,B34)</f>
-        <v>1.6534369830745122E-2</v>
+        <v>3.7392601546531436E-2</v>
       </c>
       <c r="AI27" s="4">
         <f>B34/SUM(B4:B26,B28:B33)</f>
-        <v>1.5104915773613224E-2</v>
+        <v>1.5104915902831775E-2</v>
       </c>
     </row>
     <row r="28" spans="1:35" x14ac:dyDescent="0.2">
-      <c r="A28" t="s">
-        <v>62</v>
-      </c>
-      <c r="B28" s="2">
-        <v>11151169</v>
+      <c r="A28" s="14" t="s">
+        <v>60</v>
+      </c>
+      <c r="B28" s="17">
+        <f>TRUNC(A46)</f>
+        <v>10990447</v>
       </c>
       <c r="C28" s="5" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="D28" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="E28" s="4">
         <f>B4/SUM(B5:B27,B29:B34)</f>
-        <v>8.2852254539816511E-2</v>
+        <v>8.2827959058284509E-2</v>
       </c>
       <c r="F28" s="4">
         <f>B5/SUM(B4,B6:B27,B29:B34)</f>
-        <v>6.4164019601452113E-2</v>
+        <v>6.4145528860816287E-2</v>
       </c>
       <c r="G28" s="4">
         <f>B6/SUM(B4:B5,B7:B27,B29:B34)</f>
-        <v>6.0360290748463379E-2</v>
+        <v>6.0342958320689463E-2</v>
       </c>
       <c r="H28" s="4">
         <f>B7/SUM(B4:B6,B8:B27,B29:B34)</f>
-        <v>5.9123578011051427E-2</v>
+        <v>3.7381373891931649E-2</v>
       </c>
       <c r="I28" s="4">
         <f>B8/SUM(B4:B7,B9:B27,B29:B34)</f>
-        <v>5.7624795506597978E-2</v>
+        <v>5.7608291250137368E-2</v>
       </c>
       <c r="J28" s="4">
         <f>B9/SUM(B4:B8,B10:B27,B29:B34)</f>
-        <v>4.7528962384941364E-2</v>
+        <v>3.6598280611021598E-2</v>
       </c>
       <c r="K28" s="4">
         <f>B10/SUM(B4:B9,B11:B27,B29:B34)</f>
-        <v>4.4873418471319183E-2</v>
+        <v>4.4860721232789835E-2</v>
       </c>
       <c r="L28" s="4">
         <f>B11/SUM(B4:B10,B12:B27,B29:B34)</f>
-        <v>4.3016796155491956E-2</v>
+        <v>4.3004645882832898E-2</v>
       </c>
       <c r="M28" s="4">
         <f>B12/SUM(B4:B11,B13:B27,B29:B34)</f>
-        <v>4.2064495771186233E-2</v>
+        <v>3.4262154385235999E-2</v>
       </c>
       <c r="N28" s="4">
         <f>B13/SUM(B4:B12,B14:B27,B29:B34)</f>
-        <v>4.0511860037613423E-2</v>
+        <v>4.0500444768004316E-2</v>
       </c>
       <c r="O28" s="4">
         <f>B14/SUM(B4:B13,B15:B27,B29:B34)</f>
-        <v>3.8794951410894139E-2</v>
+        <v>3.8784037957469659E-2</v>
       </c>
       <c r="P28" s="4">
         <f>B15/SUM(B4:B14,B16:B27,B29:B34)</f>
-        <v>3.824002194273033E-2</v>
+        <v>3.82292703421796E-2</v>
       </c>
       <c r="Q28" s="4">
         <f>B16/SUM(B4:B15,B17:B27,B29:B34)</f>
-        <v>3.7730763314271311E-2</v>
+        <v>3.6598280611021598E-2</v>
       </c>
       <c r="R28" s="4">
         <f>B17/SUM(B4:B16,B18:B27,B29:B34)</f>
-        <v>3.562826236328983E-2</v>
+        <v>3.5618270279554512E-2</v>
       </c>
       <c r="S28" s="4">
         <f>B18/SUM(B4:B17,B19:B27,B29:B34)</f>
-        <v>3.4549527626598318E-2</v>
+        <v>3.4539848168218458E-2</v>
       </c>
       <c r="T28" s="4">
         <f>B19/SUM(B4:B18,B20:B27,B29:B34)</f>
-        <v>3.0291309010932209E-2</v>
+        <v>3.0282857463471497E-2</v>
       </c>
       <c r="U28" s="4">
         <f>B20/SUM(B4:B19,B21:B27,B29:B34)</f>
-        <v>2.6594698781431871E-2</v>
+        <v>3.4262154385235999E-2</v>
       </c>
       <c r="V28" s="4">
         <f>B21/SUM(B4:B20,B22:B27,B29:B34)</f>
-        <v>2.6367248181552748E-2</v>
+        <v>2.6359919493934698E-2</v>
       </c>
       <c r="W28" s="4">
         <f>B22/SUM(B4:B21,B23:B27,B29:B34)</f>
-        <v>2.4816687076655894E-2</v>
+        <v>3.6598280611021598E-2</v>
       </c>
       <c r="X28" s="4">
         <f>B23/SUM(B4:B22,B24:B27,B29:B34)</f>
-        <v>2.3726964201629546E-2</v>
+        <v>2.3720386332232168E-2</v>
       </c>
       <c r="Y28" s="3"/>
       <c r="Z28" s="4">
         <f>B25/SUM(B4:B24,B26:B27,B29:B34)</f>
-        <v>2.1317373069916254E-2</v>
+        <v>2.1311477122282402E-2</v>
       </c>
       <c r="AA28" s="3"/>
       <c r="AB28" s="4">
         <f>B27/SUM(B4:B26,B29:B34)</f>
-        <v>1.9174174369654753E-2</v>
+        <v>1.9168882312242189E-2</v>
       </c>
       <c r="AC28" s="3"/>
       <c r="AD28" s="4">
         <f>B29/SUM(B4:B27,B30:B34)</f>
-        <v>1.8085058216233921E-2</v>
+        <v>1.808007208658027E-2</v>
       </c>
       <c r="AE28" s="4">
         <f>B30/SUM(B4:B27,B29,B31:B34)</f>
-        <v>1.7811056711988928E-2</v>
+        <v>1.780614744699088E-2</v>
       </c>
       <c r="AF28" s="3"/>
       <c r="AG28" s="4">
         <f>B32/SUM(B4:B27,B29:B31,B33:B34)</f>
-        <v>1.6845526357979472E-2</v>
+        <v>1.6840887625723482E-2</v>
       </c>
       <c r="AH28" s="4">
         <f>B33/SUM(B4:B27,B29:B32,B34)</f>
-        <v>1.653405665663189E-2</v>
+        <v>3.7381373891931649E-2</v>
       </c>
       <c r="AI28" s="4">
         <f>B34/SUM(B4:B27,B29:B33)</f>
-        <v>1.5104630076802513E-2</v>
+        <v>1.5100477852124766E-2</v>
       </c>
     </row>
     <row r="29" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B29" s="2">
         <v>10539459</v>
       </c>
       <c r="C29" s="5" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="D29" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="E29" s="4">
         <f>B4/SUM(B5:B28,B30:B34)</f>
-        <v>8.2759858777074966E-2</v>
+        <v>8.2759859531457966E-2</v>
       </c>
       <c r="F29" s="4">
         <f>B5/SUM(B4,B6:B28,B30:B34)</f>
-        <v>6.4093698281896871E-2</v>
+        <v>6.409369885605988E-2</v>
       </c>
       <c r="G29" s="4">
         <f>B6/SUM(B4:B5,B7:B28,B30:B34)</f>
-        <v>6.0294374367104754E-2</v>
+        <v>6.0294374905304211E-2</v>
       </c>
       <c r="H29" s="4">
         <f>B7/SUM(B4:B6,B8:B28,B30:B34)</f>
-        <v>5.9059087402191672E-2</v>
+        <v>3.7351928566067102E-2</v>
       </c>
       <c r="I29" s="4">
         <f>B8/SUM(B4:B7,B9:B28,B30:B34)</f>
-        <v>5.7562028585767241E-2</v>
+        <v>5.756202909825317E-2</v>
       </c>
       <c r="J29" s="4">
         <f>B9/SUM(B4:B8,B10:B28,B30:B34)</f>
-        <v>4.7477685847508784E-2</v>
+        <v>3.6569473872876727E-2</v>
       </c>
       <c r="K29" s="4">
         <f>B10/SUM(B4:B9,B11:B28,B30:B34)</f>
-        <v>4.4825129456805189E-2</v>
+        <v>4.4825129851085575E-2</v>
       </c>
       <c r="L29" s="3"/>
       <c r="M29" s="4">
         <f>B12/SUM(B4:B11,B13:B28,B30:B34)</f>
-        <v>4.2019351042321018E-2</v>
+        <v>3.4235247155337982E-2</v>
       </c>
       <c r="N29" s="4">
         <f>B13/SUM(B4:B12,B14:B28,B30:B34)</f>
-        <v>4.0468446350171682E-2</v>
+        <v>4.0468446704646555E-2</v>
       </c>
       <c r="O29" s="4">
         <f>B14/SUM(B4:B13,B15:B28,B30:B34)</f>
-        <v>3.875344613860509E-2</v>
+        <v>3.8753446477498253E-2</v>
       </c>
       <c r="P29" s="4">
         <f>B15/SUM(B4:B14,B16:B28,B30:B34)</f>
-        <v>3.8199132200590458E-2</v>
+        <v>3.8199132534457975E-2</v>
       </c>
       <c r="Q29" s="4">
         <f>B16/SUM(B4:B15,B17:B28,B30:B34)</f>
-        <v>3.7690437886452335E-2</v>
+        <v>3.6569473872876727E-2</v>
       </c>
       <c r="R29" s="4">
         <f>B17/SUM(B4:B16,B18:B28,B30:B34)</f>
-        <v>3.5590261087527456E-2</v>
+        <v>3.5590261397811282E-2</v>
       </c>
       <c r="S29" s="4">
         <f>B18/SUM(B4:B17,B19:B28,B30:B34)</f>
-        <v>3.4512715278135757E-2</v>
+        <v>3.4512715578712223E-2</v>
       </c>
       <c r="T29" s="4">
         <f>B19/SUM(B4:B18,B20:B28,B30:B34)</f>
-        <v>3.025916647736808E-2</v>
+        <v>3.0259166739816191E-2</v>
       </c>
       <c r="U29" s="4">
         <f>B20/SUM(B4:B19,B21:B28,B30:B34)</f>
-        <v>2.6566579917199653E-2</v>
+        <v>3.4235247155337982E-2</v>
       </c>
       <c r="V29" s="4">
         <f>B21/SUM(B4:B20,B22:B28,B30:B34)</f>
-        <v>2.6339375973470747E-2</v>
+        <v>2.6339376201051996E-2</v>
       </c>
       <c r="W29" s="4">
         <f>B22/SUM(B4:B21,B23:B28,B30:B34)</f>
-        <v>2.4790493520149476E-2</v>
+        <v>3.6569473872876727E-2</v>
       </c>
       <c r="X29" s="4">
         <f>B23/SUM(B4:B22,B24:B28,B30:B34)</f>
-        <v>2.3701947428968473E-2</v>
+        <v>2.370194763323517E-2</v>
       </c>
       <c r="Y29" s="4">
         <f>B24/SUM(B4:B23,B25:B28,B30:B34)</f>
-        <v>2.1360503852337381E-2</v>
+        <v>2.1360504036004136E-2</v>
       </c>
       <c r="Z29" s="4">
         <f>B25/SUM(B4:B24,B26:B28,B30:B34)</f>
-        <v>2.1294949722405875E-2</v>
+        <v>2.1294949905497216E-2</v>
       </c>
       <c r="AA29" s="4">
         <f>B26/SUM(B4:B25,B27:B28,B30:B34)</f>
-        <v>1.98393988229012E-2</v>
+        <v>1.8853726175483945E-2</v>
       </c>
       <c r="AB29" s="4">
         <f>B27/SUM(B4:B26,B28,B30:B34)</f>
-        <v>1.9154047692343665E-2</v>
+        <v>1.9154047856682576E-2</v>
       </c>
       <c r="AC29" s="4">
         <f>B28/SUM(B4:B27,B30:B34)</f>
-        <v>1.91347146512988E-2</v>
+        <v>1.8853726175483945E-2</v>
       </c>
       <c r="AD29" s="3"/>
       <c r="AE29" s="4">
         <f>B30/SUM(B4:B28,B31:B34)</f>
-        <v>1.7792385846011775E-2</v>
+        <v>1.7792385998463868E-2</v>
       </c>
       <c r="AF29" s="4">
         <f>B31/SUM(B4:B28,B30,B32:B34)</f>
-        <v>1.7589668407743876E-2</v>
+        <v>1.8853726175483945E-2</v>
       </c>
       <c r="AG29" s="4">
         <f>B32/SUM(B4:B28,B30:B31,B33:B34)</f>
-        <v>1.6827884366404231E-2</v>
+        <v>1.682788451045546E-2</v>
       </c>
       <c r="AH29" s="4">
         <f>B33/SUM(B4:B28,B30:B32,B34)</f>
-        <v>1.6516746159650847E-2</v>
+        <v>3.7351928566067102E-2</v>
       </c>
       <c r="AI29" s="4">
         <f>B34/SUM(B4:B28,B30:B33)</f>
-        <v>1.5088838346314611E-2</v>
+        <v>1.5088838475258232E-2</v>
       </c>
     </row>
     <row r="30" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B30" s="2">
         <v>10382573</v>
       </c>
       <c r="C30" s="5" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="D30" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="E30" s="4">
         <f>B4/SUM(B5:B29,B31:B34)</f>
-        <v>8.2736195119136144E-2</v>
+        <v>8.2736195873087809E-2</v>
       </c>
       <c r="F30" s="4">
         <f>B5/SUM(B4,B6:B29,B31:B34)</f>
-        <v>6.4075687716987809E-2</v>
+        <v>6.4075688290828173E-2</v>
       </c>
       <c r="G30" s="4">
         <f>B6/SUM(B4:B5,B7:B29,B31:B34)</f>
-        <v>6.0277491903658671E-2</v>
+        <v>6.0277492441556779E-2</v>
       </c>
       <c r="H30" s="4">
         <f>B7/SUM(B4:B6,B8:B29,B31:B34)</f>
-        <v>5.9042570080303822E-2</v>
+        <v>3.7341696240457328E-2</v>
       </c>
       <c r="I30" s="4">
         <f>B8/SUM(B4:B7,B9:B29,B31:B34)</f>
-        <v>5.7545952703344068E-2</v>
+        <v>5.7545953215543788E-2</v>
       </c>
       <c r="J30" s="4">
         <f>B9/SUM(B4:B8,B10:B29,B31:B34)</f>
-        <v>4.7464552713970896E-2</v>
+        <v>3.6559463450102504E-2</v>
       </c>
       <c r="K30" s="4">
         <f>B10/SUM(B4:B9,B11:B29,B31:B34)</f>
-        <v>4.4812761456029714E-2</v>
+        <v>4.4812761850092545E-2</v>
       </c>
       <c r="L30" s="4">
         <f>B11/SUM(B4:B10,B12:B29,B31:B34)</f>
-        <v>4.2958751985305875E-2</v>
+        <v>4.2958752362395068E-2</v>
       </c>
       <c r="M30" s="4">
         <f>B12/SUM(B4:B11,B13:B29,B31:B34)</f>
-        <v>4.2007788328188092E-2</v>
+        <v>3.4225896794688397E-2</v>
       </c>
       <c r="N30" s="4">
         <f>B13/SUM(B4:B12,B14:B29,B31:B34)</f>
-        <v>4.0457326977472896E-2</v>
+        <v>4.0457327331753001E-2</v>
       </c>
       <c r="O30" s="4">
         <f>B14/SUM(B4:B13,B15:B29,B31:B34)</f>
-        <v>3.8742815536971523E-2</v>
+        <v>3.8742815875678786E-2</v>
       </c>
       <c r="P30" s="4">
         <f>B15/SUM(B4:B14,B16:B29,B31:B34)</f>
-        <v>3.8188659245043423E-2</v>
+        <v>3.8188659578727885E-2</v>
       </c>
       <c r="Q30" s="4">
         <f>B16/SUM(B4:B15,B17:B29,B31:B34)</f>
-        <v>3.7680109460076883E-2</v>
+        <v>3.6559463450102504E-2</v>
       </c>
       <c r="R30" s="4">
         <f>B17/SUM(B4:B16,B18:B29,B31:B34)</f>
-        <v>3.5580527912513649E-2</v>
+        <v>3.5580528222627784E-2</v>
       </c>
       <c r="S30" s="3"/>
       <c r="T30" s="4">
         <f>B19/SUM(B4:B18,B20:B29,B31:B34)</f>
-        <v>3.0250933831007038E-2</v>
+        <v>3.0250934093312361E-2</v>
       </c>
       <c r="U30" s="4">
         <f>B20/SUM(B4:B19,B21:B29,B31:B34)</f>
-        <v>2.6559377816222855E-2</v>
+        <v>3.4225896794688397E-2</v>
       </c>
       <c r="V30" s="4">
         <f>B21/SUM(B4:B20,B22:B29,B31:B34)</f>
-        <v>2.6332237046575849E-2</v>
+        <v>2.6332237274033748E-2</v>
       </c>
       <c r="W30" s="4">
         <f>B22/SUM(B4:B21,B23:B29,B31:B34)</f>
-        <v>2.4783784533922978E-2</v>
+        <v>3.6559463450102504E-2</v>
       </c>
       <c r="X30" s="4">
         <f>B23/SUM(B4:B22,B24:B29,B31:B34)</f>
-        <v>2.3695539844729597E-2</v>
+        <v>2.3695540048885865E-2</v>
       </c>
       <c r="Y30" s="4">
         <f>B24/SUM(B4:B23,B25:B29,B31:B34)</f>
-        <v>2.1354742458214636E-2</v>
+        <v>2.1354742641782328E-2</v>
       </c>
       <c r="Z30" s="4">
         <f>B25/SUM(B4:B24,B26:B29,B31:B34)</f>
-        <v>2.1289206378212945E-2</v>
+        <v>2.1289206561205538E-2</v>
       </c>
       <c r="AA30" s="4">
         <f>B26/SUM(B4:B25,B27:B29,B31:B34)</f>
-        <v>1.9834055671243411E-2</v>
+        <v>1.8848653391634093E-2</v>
       </c>
       <c r="AB30" s="4">
         <f>B27/SUM(B4:B26,B28:B29,B31:B34)</f>
-        <v>1.9148892585341269E-2</v>
+        <v>1.9148892749591733E-2</v>
       </c>
       <c r="AC30" s="4">
         <f>B28/SUM(B4:B27,B29,B31:B34)</f>
-        <v>1.912956484524336E-2</v>
+        <v>1.8848653391634093E-2</v>
       </c>
       <c r="AD30" s="4">
         <f>B29/SUM(B4:B28,B31:B34)</f>
-        <v>1.8061237916287363E-2</v>
+        <v>1.8061238071043085E-2</v>
       </c>
       <c r="AE30" s="3"/>
       <c r="AF30" s="4">
         <f>B31/SUM(B4:B29,B32:B34)</f>
-        <v>1.7584941601431536E-2</v>
+        <v>1.8848653391634093E-2</v>
       </c>
       <c r="AG30" s="4">
         <f>B32/SUM(B4:B29,B31,B33:B34)</f>
-        <v>1.6823365655894346E-2</v>
+        <v>1.6823365799868224E-2</v>
       </c>
       <c r="AH30" s="4">
         <f>B33/SUM(B4:B29,B31:B32,B34)</f>
-        <v>1.6512312354327575E-2</v>
+        <v>3.7341696240457328E-2</v>
       </c>
       <c r="AI30" s="4">
         <f>B34/SUM(B4:B29,B31:B33)</f>
-        <v>1.5084793541115735E-2</v>
+        <v>1.5084793669990234E-2</v>
       </c>
     </row>
     <row r="31" spans="1:35" x14ac:dyDescent="0.2">
-      <c r="A31" t="s">
-        <v>67</v>
-      </c>
-      <c r="B31" s="2">
-        <v>10266324</v>
+      <c r="A31" s="14" t="s">
+        <v>65</v>
+      </c>
+      <c r="B31" s="17">
+        <f>TRUNC(A46)</f>
+        <v>10990447</v>
       </c>
       <c r="C31" s="5" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="D31" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="E31" s="4">
         <f>B4/SUM(B5:B30,B32:B34)</f>
-        <v>8.2718669607145606E-2</v>
+        <v>8.2827959058284509E-2</v>
       </c>
       <c r="F31" s="4">
         <f>B5/SUM(B4,B6:B30,B32:B34)</f>
-        <v>6.4062348820679751E-2</v>
+        <v>6.4145528860816287E-2</v>
       </c>
       <c r="G31" s="4">
         <f>B6/SUM(B4:B5,B7:B30,B32:B34)</f>
-        <v>6.0264988474491132E-2</v>
+        <v>6.0342958320689463E-2</v>
       </c>
       <c r="H31" s="4">
         <f>B7/SUM(B4:B6,B8:B30,B32:B34)</f>
-        <v>5.9030337074013721E-2</v>
+        <v>3.7381373891931649E-2</v>
       </c>
       <c r="I31" s="4">
         <f>B8/SUM(B4:B7,B9:B30,B32:B34)</f>
-        <v>5.7534046626350269E-2</v>
+        <v>5.7608291250137368E-2</v>
       </c>
       <c r="J31" s="4">
         <f>B9/SUM(B4:B8,B10:B30,B32:B34)</f>
-        <v>4.7454826042690051E-2</v>
+        <v>3.6598280611021598E-2</v>
       </c>
       <c r="K31" s="4">
         <f>B10/SUM(B4:B9,B11:B30,B32:B34)</f>
-        <v>4.4803601446784698E-2</v>
+        <v>4.4860721232789835E-2</v>
       </c>
       <c r="L31" s="4">
         <f>B11/SUM(B4:B10,B12:B30,B32:B34)</f>
-        <v>4.2949986525896336E-2</v>
+        <v>4.3004645882832898E-2</v>
       </c>
       <c r="M31" s="4">
         <f>B12/SUM(B4:B11,B13:B30,B32:B34)</f>
-        <v>4.1999224720627178E-2</v>
+        <v>3.4262154385235999E-2</v>
       </c>
       <c r="N31" s="4">
         <f>B13/SUM(B4:B12,B14:B30,B32:B34)</f>
-        <v>4.0449091712732768E-2</v>
+        <v>4.0500444768004316E-2</v>
       </c>
       <c r="O31" s="4">
         <f>B14/SUM(B4:B13,B15:B30,B32:B34)</f>
-        <v>3.8734942261186525E-2</v>
+        <v>3.8784037957469659E-2</v>
       </c>
       <c r="P31" s="4">
         <f>B15/SUM(B4:B14,B16:B30,B32:B34)</f>
-        <v>3.818090272371398E-2</v>
+        <v>3.82292703421796E-2</v>
       </c>
       <c r="Q31" s="4">
         <f>B16/SUM(B4:B15,B17:B30,B32:B34)</f>
-        <v>3.7672459978719534E-2</v>
+        <v>3.6598280611021598E-2</v>
       </c>
       <c r="R31" s="4">
         <f>B17/SUM(B4:B16,B18:B30,B32:B34)</f>
-        <v>3.5573319281693695E-2</v>
+        <v>3.5618270279554512E-2</v>
       </c>
       <c r="S31" s="4">
         <f>B18/SUM(B4:B17,B19:B30,B32:B34)</f>
-        <v>3.4496303495919763E-2</v>
+        <v>3.4539848168218458E-2</v>
       </c>
       <c r="T31" s="4">
         <f>B19/SUM(B4:B18,B20:B30,B32:B34)</f>
-        <v>3.0244836513982271E-2</v>
+        <v>3.0282857463471497E-2</v>
       </c>
       <c r="U31" s="4">
         <f>B20/SUM(B4:B19,B21:B30,B32:B34)</f>
-        <v>2.6554043739486052E-2</v>
+        <v>3.4262154385235999E-2</v>
       </c>
       <c r="V31" s="4">
         <f>B21/SUM(B4:B20,B22:B30,B32:B34)</f>
-        <v>2.6326949757772836E-2</v>
+        <v>2.6359919493934698E-2</v>
       </c>
       <c r="W31" s="4">
         <f>B22/SUM(B4:B21,B23:B30,B32:B34)</f>
-        <v>2.4778815667658848E-2</v>
+        <v>3.6598280611021598E-2</v>
       </c>
       <c r="X31" s="4">
         <f>B23/SUM(B4:B22,B24:B30,B32:B34)</f>
-        <v>2.3690794202986538E-2</v>
+        <v>2.3720386332232168E-2</v>
       </c>
       <c r="Y31" s="3"/>
       <c r="Z31" s="4">
         <f>B25/SUM(B4:B24,B26:B30,B32:B34)</f>
-        <v>2.1284952687104571E-2</v>
+        <v>2.1311477122282402E-2</v>
       </c>
       <c r="AA31" s="3"/>
       <c r="AB31" s="4">
         <f>B27/SUM(B4:B26,B28:B30,B32:B34)</f>
-        <v>1.9145074556391264E-2</v>
+        <v>1.9168882312242189E-2</v>
       </c>
       <c r="AC31" s="3"/>
       <c r="AD31" s="4">
         <f>B29/SUM(B4:B28,B30,B32:B34)</f>
-        <v>1.8057640593362519E-2</v>
+        <v>1.808007208658027E-2</v>
       </c>
       <c r="AE31" s="4">
         <f>B30/SUM(B4:B29,B32:B34)</f>
-        <v>1.7784061741826951E-2</v>
+        <v>1.780614744699088E-2</v>
       </c>
       <c r="AF31" s="3"/>
       <c r="AG31" s="4">
         <f>B32/SUM(B4:B30,B33:B34)</f>
-        <v>1.6820018957953264E-2</v>
+        <v>1.6840887625723482E-2</v>
       </c>
       <c r="AH31" s="4">
         <f>B33/SUM(B4:B30,B32,B34)</f>
-        <v>1.6509028539346219E-2</v>
+        <v>3.7381373891931649E-2</v>
       </c>
       <c r="AI31" s="4">
         <f>B34/SUM(B4:B30,B32:B33)</f>
-        <v>1.5081797829834253E-2</v>
+        <v>1.5100477852124766E-2</v>
       </c>
     </row>
     <row r="32" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B32" s="2">
         <v>9829062</v>
       </c>
       <c r="C32" s="5" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="D32" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="E32" s="4">
         <f>B4/SUM(B5:B31,B33:B34)</f>
-        <v>8.2652815126217874E-2</v>
+        <v>8.2652815878650671E-2</v>
       </c>
       <c r="F32" s="4">
         <f>B5/SUM(B4,B6:B31,B33:B34)</f>
-        <v>6.4012225243670062E-2</v>
+        <v>6.4012225816374307E-2</v>
       </c>
       <c r="G32" s="4">
         <f>B6/SUM(B4:B5,B7:B31,B33:B34)</f>
-        <v>6.0218004166648749E-2</v>
+        <v>6.0218004703485678E-2</v>
       </c>
       <c r="H32" s="4">
         <f>B7/SUM(B4:B6,B8:B31,B33:B34)</f>
-        <v>5.8984368885100787E-2</v>
+        <v>3.7305640212271056E-2</v>
       </c>
       <c r="I32" s="4">
         <f>B8/SUM(B4:B7,B9:B31,B33:B34)</f>
-        <v>5.7489306883240714E-2</v>
+        <v>5.7489307394432553E-2</v>
       </c>
       <c r="J32" s="4">
         <f>B9/SUM(B4:B8,B10:B31,B33:B34)</f>
-        <v>4.7418275560261659E-2</v>
+        <v>3.6524189316259274E-2</v>
       </c>
       <c r="K32" s="4">
         <f>B10/SUM(B4:B9,B11:B31,B33:B34)</f>
-        <v>4.4769180258519864E-2</v>
+        <v>4.4769180651816606E-2</v>
       </c>
       <c r="L32" s="4">
         <f>B11/SUM(B4:B10,B12:B31,B33:B34)</f>
-        <v>4.2917047907476344E-2</v>
+        <v>4.2917048283833747E-2</v>
       </c>
       <c r="M32" s="4">
         <f>B12/SUM(B4:B11,B13:B31,B33:B34)</f>
-        <v>4.1967044587419088E-2</v>
+        <v>3.4192948456720253E-2</v>
       </c>
       <c r="N32" s="4">
         <f>B13/SUM(B4:B12,B14:B31,B33:B34)</f>
-        <v>4.0418145374181293E-2</v>
+        <v>4.0418145727775509E-2</v>
       </c>
       <c r="O32" s="4">
         <f>B14/SUM(B4:B13,B15:B31,B33:B34)</f>
-        <v>3.8705356151392104E-2</v>
+        <v>3.8705356489444717E-2</v>
       </c>
       <c r="P32" s="4">
         <f>B15/SUM(B4:B14,B16:B31,B33:B34)</f>
-        <v>3.815175533750341E-2</v>
+        <v>3.8151755670543269E-2</v>
       </c>
       <c r="Q32" s="4">
         <f>B16/SUM(B4:B15,B17:B31,B33:B34)</f>
-        <v>3.7643714812748127E-2</v>
+        <v>3.6524189316259274E-2</v>
       </c>
       <c r="R32" s="4">
         <f>B17/SUM(B4:B16,B18:B31,B33:B34)</f>
-        <v>3.5546230687758092E-2</v>
+        <v>3.5546230997274664E-2</v>
       </c>
       <c r="S32" s="4">
         <f>B18/SUM(B4:B17,B19:B31,B33:B34)</f>
-        <v>3.4470062333622452E-2</v>
+        <v>3.4470062633456429E-2</v>
       </c>
       <c r="T32" s="4">
         <f>B19/SUM(B4:B18,B20:B31,B33:B34)</f>
-        <v>3.022192390152038E-2</v>
+        <v>3.0221924163322852E-2</v>
       </c>
       <c r="U32" s="4">
         <f>B20/SUM(B4:B19,B21:B31,B33:B34)</f>
-        <v>2.6533999176840281E-2</v>
+        <v>3.4192948456720253E-2</v>
       </c>
       <c r="V32" s="4">
         <f>B21/SUM(B4:B20,B22:B31,B33:B34)</f>
-        <v>2.6307081012106995E-2</v>
+        <v>2.6307081239130507E-2</v>
       </c>
       <c r="W32" s="4">
         <f>B22/SUM(B4:B21,B23:B31,B33:B34)</f>
-        <v>2.4760143473643397E-2</v>
+        <v>3.6524189316259274E-2</v>
       </c>
       <c r="X32" s="4">
         <f>B23/SUM(B4:B22,B24:B31,B33:B34)</f>
-        <v>2.3672960832474194E-2</v>
+        <v>2.3672961036241575E-2</v>
       </c>
       <c r="Y32" s="4">
         <f>B24/SUM(B4:B23,B25:B31,B33:B34)</f>
-        <v>2.1334440430565059E-2</v>
+        <v>2.1334440613783881E-2</v>
       </c>
       <c r="Z32" s="4">
         <f>B25/SUM(B4:B24,B26:B31,B33:B34)</f>
-        <v>2.1268967953405792E-2</v>
+        <v>2.1268968136050632E-2</v>
       </c>
       <c r="AA32" s="4">
         <f>B26/SUM(B4:B25,B27:B31,B33:B34)</f>
-        <v>1.9815227414140272E-2</v>
+        <v>1.8830777838563819E-2</v>
       </c>
       <c r="AB32" s="4">
         <f>B27/SUM(B4:B26,B28:B31,B33:B34)</f>
-        <v>1.913072694720824E-2</v>
+        <v>1.9130727111147217E-2</v>
       </c>
       <c r="AC32" s="4">
         <f>B28/SUM(B4:B27,B29:B31,B33:B34)</f>
-        <v>1.9111417886242203E-2</v>
+        <v>1.8830777838563819E-2</v>
       </c>
       <c r="AD32" s="4">
         <f>B29/SUM(B4:B28,B30:B31,B33:B34)</f>
-        <v>1.8044122352311787E-2</v>
+        <v>1.804412250677434E-2</v>
       </c>
       <c r="AE32" s="4">
         <f>B30/SUM(B4:B29,B31,B33:B34)</f>
-        <v>1.7770751881310335E-2</v>
+        <v>1.7770752033391915E-2</v>
       </c>
       <c r="AF32" s="4">
         <f>B31/SUM(B4:B30,B33:B34)</f>
-        <v>1.7568285184129531E-2</v>
+        <v>1.8830777838563819E-2</v>
       </c>
       <c r="AG32" s="3"/>
       <c r="AH32" s="4">
         <f>B33/SUM(B4:B31,B34)</f>
-        <v>1.6496688399910777E-2</v>
+        <v>3.7305640212271056E-2</v>
       </c>
       <c r="AI32" s="4">
         <f>B34/SUM(B4:B31,B33)</f>
-        <v>1.5070540330781068E-2</v>
+        <v>1.5070540459412142E-2</v>
       </c>
     </row>
     <row r="33" spans="1:35" x14ac:dyDescent="0.2">
-      <c r="A33" t="s">
-        <v>69</v>
-      </c>
-      <c r="B33" s="2">
-        <v>9650281</v>
+      <c r="A33" s="11" t="s">
+        <v>67</v>
+      </c>
+      <c r="B33" s="17">
+        <f>TRUNC(D46)</f>
+        <v>21385377</v>
       </c>
       <c r="C33" s="5" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="D33" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="E33" s="4">
         <f>B4/SUM(B5:B32,B34)</f>
-        <v>8.2625919743900281E-2</v>
+        <v>8.4429263593513326E-2</v>
       </c>
       <c r="F33" s="4">
         <f>B5/SUM(B4,B6:B32,B34)</f>
-        <v>6.3991754065486836E-2</v>
+        <v>6.5363845257709247E-2</v>
       </c>
       <c r="G33" s="4">
         <f>B6/SUM(B4:B5,B7:B32,B34)</f>
-        <v>6.0198815034955389E-2</v>
+        <v>6.1484879570630896E-2</v>
       </c>
       <c r="H33" s="3"/>
       <c r="I33" s="4">
         <f>B8/SUM(B4:B7,B9:B32,B34)</f>
-        <v>5.7471034415474728E-2</v>
+        <v>5.8695597402777841E-2</v>
       </c>
       <c r="J33" s="4">
         <f>B9/SUM(B4:B8,B10:B32,B34)</f>
-        <v>4.740334756923844E-2</v>
+        <v>3.7275065051652949E-2</v>
       </c>
       <c r="K33" s="4">
         <f>B10/SUM(B4:B9,B11:B32,B34)</f>
-        <v>4.4755121877722959E-2</v>
+        <v>4.5697032353782266E-2</v>
       </c>
       <c r="L33" s="4">
         <f>B11/SUM(B4:B10,B12:B32,B34)</f>
-        <v>4.2903595015436453E-2</v>
+        <v>4.3804904674412233E-2</v>
       </c>
       <c r="M33" s="4">
         <f>B12/SUM(B4:B11,B13:B32,B34)</f>
-        <v>4.1953901465305386E-2</v>
+        <v>3.4894284383994362E-2</v>
       </c>
       <c r="N33" s="4">
         <f>B13/SUM(B4:B12,B14:B32,B34)</f>
-        <v>4.0405506142488584E-2</v>
+        <v>4.1252260648098817E-2</v>
       </c>
       <c r="O33" s="4">
         <f>B14/SUM(B4:B13,B15:B32,B34)</f>
-        <v>3.8693272448507281E-2</v>
+        <v>3.9502782275050032E-2</v>
       </c>
       <c r="P33" s="4">
         <f>B15/SUM(B4:B14,B16:B32,B34)</f>
-        <v>3.8139850813408156E-2</v>
+        <v>3.8937348361207269E-2</v>
       </c>
       <c r="Q33" s="4">
         <f>B16/SUM(B4:B15,B17:B32,B34)</f>
-        <v>3.7631974559311769E-2</v>
+        <v>3.7275065051652949E-2</v>
       </c>
       <c r="R33" s="4">
         <f>B17/SUM(B4:B16,B18:B32,B34)</f>
-        <v>3.5535166996223271E-2</v>
+        <v>3.6276297917584646E-2</v>
       </c>
       <c r="S33" s="4">
         <f>B18/SUM(B4:B17,B19:B32,B34)</f>
-        <v>3.4459344743418406E-2</v>
+        <v>3.5177275819257323E-2</v>
       </c>
       <c r="T33" s="4">
         <f>B19/SUM(B4:B18,B20:B32,B34)</f>
-        <v>3.0212565738595133E-2</v>
+        <v>3.0839381080148193E-2</v>
       </c>
       <c r="U33" s="4">
         <f>B20/SUM(B4:B19,B21:B32,B34)</f>
-        <v>2.6525812375779161E-2</v>
+        <v>3.4894284383994362E-2</v>
       </c>
       <c r="V33" s="4">
         <f>B21/SUM(B4:B20,B22:B32,B34)</f>
-        <v>2.6298966018069372E-2</v>
+        <v>2.684247096904303E-2</v>
       </c>
       <c r="W33" s="4">
         <f>B22/SUM(B4:B21,B23:B32,B34)</f>
-        <v>2.4752517175103947E-2</v>
+        <v>3.7275065051652949E-2</v>
       </c>
       <c r="X33" s="4">
         <f>B23/SUM(B4:B22,B24:B32,B34)</f>
-        <v>2.3665677127054734E-2</v>
+        <v>2.4153480712350153E-2</v>
       </c>
       <c r="Y33" s="4">
         <f>B24/SUM(B4:B23,B25:B32,B34)</f>
-        <v>2.1327891232872924E-2</v>
+        <v>2.1766483103097489E-2</v>
       </c>
       <c r="Z33" s="4">
         <f>B25/SUM(B4:B24,B26:B32,B34)</f>
-        <v>2.1262439272723192E-2</v>
+        <v>2.1699656575977066E-2</v>
       </c>
       <c r="AA33" s="4">
         <f>B26/SUM(B4:B25,B27:B32,B34)</f>
-        <v>1.9809153626292757E-2</v>
+        <v>1.9211165112799203E-2</v>
       </c>
       <c r="AB33" s="4">
         <f>B27/SUM(B4:B26,B28:B32,B34)</f>
-        <v>1.9124866907981139E-2</v>
+        <v>1.9517289520083293E-2</v>
       </c>
       <c r="AC33" s="4">
         <f>B28/SUM(B4:B27,B29:B32,B34)</f>
-        <v>1.9105563872562587E-2</v>
+        <v>1.9211165112799203E-2</v>
       </c>
       <c r="AD33" s="4">
         <f>B29/SUM(B4:B28,B30:B32,B34)</f>
-        <v>1.803860104830601E-2</v>
+        <v>1.8408331996812261E-2</v>
       </c>
       <c r="AE33" s="4">
         <f>B30/SUM(B4:B29,B31:B32,B34)</f>
-        <v>1.7765315685378272E-2</v>
+        <v>1.8129345447610006E-2</v>
       </c>
       <c r="AF33" s="4">
         <f>B31/SUM(B4:B30,B32,B34)</f>
-        <v>1.7562911992943523E-2</v>
+        <v>1.9211165112799203E-2</v>
       </c>
       <c r="AG33" s="4">
         <f>B32/SUM(B4:B31,B34)</f>
-        <v>1.6802305868337288E-2</v>
+        <v>1.714627011701058E-2</v>
       </c>
       <c r="AH33" s="3"/>
       <c r="AI33" s="4">
         <f>B34/SUM(B4:B32)</f>
-        <v>1.5065942375621815E-2</v>
+        <v>1.5373823647971322E-2</v>
       </c>
     </row>
     <row r="34" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B34" s="2">
         <v>8828395</v>
       </c>
       <c r="C34" s="5" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="D34" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="E34" s="4">
         <f>B4/SUM(B5:B33)</f>
-        <v>8.2502502054247917E-2</v>
+        <v>8.2502502803946429E-2</v>
       </c>
       <c r="F34" s="4">
         <f>B5/SUM(B4,B6:B33)</f>
-        <v>6.3897812860331693E-2</v>
+        <v>6.3897813430990505E-2</v>
       </c>
       <c r="G34" s="4">
         <f>B6/SUM(B4:B5,B7:B33)</f>
-        <v>6.0110756515289389E-2</v>
+        <v>6.0110757050215818E-2</v>
       </c>
       <c r="H34" s="4">
         <f>B7/SUM(B4:B6,B8:B33)</f>
-        <v>5.8879440341578208E-2</v>
+        <v>3.7240632600079857E-2</v>
       </c>
       <c r="I34" s="4">
         <f>B8/SUM(B4:B7,B9:B33)</f>
-        <v>5.7387182062833539E-2</v>
+        <v>5.7387182572210815E-2</v>
       </c>
       <c r="J34" s="4">
         <f>B9/SUM(B4:B8,B10:B33)</f>
-        <v>4.7334841861053967E-2</v>
+        <v>3.6460591299269894E-2</v>
       </c>
       <c r="K34" s="4">
         <f>B10/SUM(B4:B9,B11:B33)</f>
-        <v>4.469060659118685E-2</v>
+        <v>4.4690606983104258E-2</v>
       </c>
       <c r="L34" s="4">
         <f>B11/SUM(B4:B10,B12:B33)</f>
-        <v>4.2841858184030454E-2</v>
+        <v>4.2841858559070273E-2</v>
       </c>
       <c r="M34" s="4">
         <f>B12/SUM(B4:B11,B13:B34)</f>
-        <v>4.1256471132517153E-2</v>
+        <v>3.3618250565058974E-2</v>
       </c>
       <c r="N34" s="4">
         <f>B13/SUM(B4:B12,B14:B33)</f>
-        <v>4.0347503046244952E-2</v>
+        <v>4.0347503398604233E-2</v>
       </c>
       <c r="O34" s="4">
         <f>B14/SUM(B4:B13,B15:B33)</f>
-        <v>3.8637818587455505E-2</v>
+        <v>3.8637818924329395E-2</v>
       </c>
       <c r="P34" s="4">
         <f>B15/SUM(B4:B14,B16:B33)</f>
-        <v>3.8085219178942024E-2</v>
+        <v>3.8085219510821264E-2</v>
       </c>
       <c r="Q34" s="4">
         <f>B16/SUM(B4:B15,B17:B33)</f>
-        <v>3.757809674138804E-2</v>
+        <v>3.6460591299269894E-2</v>
       </c>
       <c r="R34" s="4">
         <f>B17/SUM(B4:B16,B18:B33)</f>
-        <v>3.5484393845399476E-2</v>
+        <v>3.5484394153840096E-2</v>
       </c>
       <c r="S34" s="4">
         <f>B18/SUM(B4:B17,B19:B33)</f>
-        <v>3.4410159821192263E-2</v>
+        <v>3.4410160119985031E-2</v>
       </c>
       <c r="T34" s="4">
         <f>B19/SUM(B4:B18,B20:B33)</f>
-        <v>3.0169619162760616E-2</v>
+        <v>3.0169619423657677E-2</v>
       </c>
       <c r="U34" s="4">
         <f>B20/SUM(B4:B19,B21:B33)</f>
-        <v>2.6488241192875846E-2</v>
+        <v>3.4133543405837817E-2</v>
       </c>
       <c r="V34" s="4">
         <f>B21/SUM(B4:B20,B22:B33)</f>
-        <v>2.6261724360528593E-2</v>
+        <v>2.6261724586769945E-2</v>
       </c>
       <c r="W34" s="4">
         <f>B22/SUM(B4:B21,B23:B33)</f>
-        <v>2.4717518167676394E-2</v>
+        <v>3.6460591299269894E-2</v>
       </c>
       <c r="X34" s="4">
         <f>B23/SUM(B4:B22,B24:B33)</f>
-        <v>2.363225030480973E-2</v>
+        <v>2.3632250507876873E-2</v>
       </c>
       <c r="Y34" s="4">
         <f>B24/SUM(B4:B23,B25:B33)</f>
-        <v>2.1297835139918068E-2</v>
+        <v>2.1297835322508701E-2</v>
       </c>
       <c r="Z34" s="4">
         <f>B25/SUM(B4:B24,B26:B33)</f>
-        <v>2.123247733474605E-2</v>
+        <v>2.123247751676471E-2</v>
       </c>
       <c r="AA34" s="4">
         <f>B26/SUM(B4:B25,B27:B33)</f>
-        <v>1.9781279250433392E-2</v>
+        <v>1.8798547358659313E-2</v>
       </c>
       <c r="AB34" s="4">
         <f>B27/SUM(B4:B26,B28:B33)</f>
-        <v>1.9097973455673892E-2</v>
+        <v>1.9097973619051991E-2</v>
       </c>
       <c r="AC34" s="4">
         <f>B28/SUM(B4:B27,B29:B33)</f>
-        <v>1.9078698072402492E-2</v>
+        <v>1.8798547358659313E-2</v>
       </c>
       <c r="AD34" s="4">
         <f>B29/SUM(B4:B28,B30:B33)</f>
-        <v>1.8013262105808659E-2</v>
+        <v>1.8013262259743323E-2</v>
       </c>
       <c r="AE34" s="4">
         <f>B30/SUM(B4:B29,B31:B33)</f>
-        <v>1.7740367318245572E-2</v>
+        <v>1.7740367469807537E-2</v>
       </c>
       <c r="AF34" s="4">
         <f>B31/SUM(B4:B30,B32:B33)</f>
-        <v>1.7538252765488552E-2</v>
+        <v>1.8798547358659313E-2</v>
       </c>
       <c r="AG34" s="4">
         <f>B32/SUM(B4:B31,B33)</f>
-        <v>1.6778732180056242E-2</v>
+        <v>1.6778732323267188E-2</v>
       </c>
       <c r="AH34" s="4">
         <f>B33/SUM(B4:B32)</f>
-        <v>1.6468517488689403E-2</v>
+        <v>3.7240632600079857E-2</v>
       </c>
       <c r="AI34" s="3"/>
     </row>
     <row r="36" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A36" s="1" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="37" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A37" s="1" t="s">
-        <v>75</v>
+        <v>73</v>
+      </c>
+    </row>
+    <row r="40" spans="1:35" x14ac:dyDescent="0.2">
+      <c r="A40" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="D40" s="13" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="41" spans="1:35" x14ac:dyDescent="0.2">
+      <c r="A41" s="15">
+        <v>11553850</v>
+      </c>
+      <c r="B41" s="10">
+        <v>23949892</v>
+      </c>
+      <c r="C41" s="9">
+        <v>26919982</v>
+      </c>
+      <c r="D41" s="12">
+        <v>33120474</v>
+      </c>
+    </row>
+    <row r="42" spans="1:35" x14ac:dyDescent="0.2">
+      <c r="A42" s="15">
+        <v>11151169</v>
+      </c>
+      <c r="B42" s="10">
+        <v>15370165</v>
+      </c>
+      <c r="C42" s="9">
+        <v>21572147</v>
+      </c>
+      <c r="D42" s="12">
+        <v>9650281</v>
+      </c>
+    </row>
+    <row r="43" spans="1:35" x14ac:dyDescent="0.2">
+      <c r="A43" s="15">
+        <v>10266324</v>
+      </c>
+      <c r="C43" s="9">
+        <v>14367463</v>
+      </c>
+      <c r="D43" s="2"/>
+    </row>
+    <row r="44" spans="1:35" x14ac:dyDescent="0.2">
+      <c r="D44" s="2"/>
+    </row>
+    <row r="45" spans="1:35" x14ac:dyDescent="0.2">
+      <c r="A45" s="2" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="46" spans="1:35" x14ac:dyDescent="0.2">
+      <c r="A46" s="16">
+        <f>SUM(A41,A42,A43)/3</f>
+        <v>10990447.666666666</v>
+      </c>
+      <c r="B46" s="16">
+        <f>SUM(B41,B42)/2</f>
+        <v>19660028.5</v>
+      </c>
+      <c r="C46" s="16">
+        <f>SUM(C41,C42,C43)/3</f>
+        <v>20953197.333333332</v>
+      </c>
+      <c r="D46" s="16">
+        <f>SUM(D41,D42)/2</f>
+        <v>21385377.5</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <ignoredErrors>
+    <ignoredError sqref="B46:C46" formula="1"/>
+  </ignoredErrors>
 </worksheet>
 </file>